--- a/header_pin_map.xlsx
+++ b/header_pin_map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miles Martin\printinWSL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miles Martin\Homework\2021 Fall\ECE40x\nema-matrix-hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +494,14 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <u val="double"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -698,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,6 +849,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -849,6 +889,60 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,92 +989,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,12 +1356,12 @@
       <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
     </row>
     <row r="2" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1418,19 +1427,19 @@
       <c r="U2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U3" s="2"/>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
@@ -1515,10 +1524,10 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -1602,12 +1611,12 @@
       <c r="U6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
@@ -1691,19 +1700,19 @@
       <c r="U7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
     <row r="8" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U8" s="2"/>
-      <c r="V8" s="52" t="s">
+      <c r="V8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
     </row>
     <row r="9" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
@@ -1786,10 +1795,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
     </row>
     <row r="17" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA17" s="7"/>
@@ -1813,10 +1822,10 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="4"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
     </row>
     <row r="18" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA18" s="3"/>
@@ -1840,10 +1849,10 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
     </row>
     <row r="19" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA19" s="3"/>
@@ -1867,10 +1876,10 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
     </row>
     <row r="20" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA20" s="3"/>
@@ -1894,10 +1903,10 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="4"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2008,12 +2017,12 @@
       <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
@@ -2097,10 +2106,10 @@
       <c r="U2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -2124,12 +2133,12 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
@@ -2214,10 +2223,10 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
     </row>
     <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -2310,12 +2319,12 @@
       <c r="U6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -2381,10 +2390,10 @@
       <c r="U7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
     </row>
     <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -2408,12 +2417,12 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="52" t="s">
+      <c r="V8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
     </row>
     <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
@@ -2498,10 +2507,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2522,8 +2531,8 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2569,12 +2578,12 @@
       <c r="T1" s="49">
         <v>30</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
@@ -2613,18 +2622,18 @@
       <c r="T2" s="51">
         <v>10</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49">
@@ -2690,17 +2699,17 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="49">
+      <c r="B6" s="51">
         <v>19</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="51">
         <v>18</v>
       </c>
       <c r="D6" s="49">
@@ -2720,10 +2729,10 @@
       </c>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="49">
+      <c r="M6" s="102">
         <v>23</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="102">
         <v>24</v>
       </c>
       <c r="O6" s="49">
@@ -2740,12 +2749,12 @@
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -2779,7 +2788,9 @@
         <v>31</v>
       </c>
       <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="49">
+        <v>2</v>
+      </c>
       <c r="M7" s="49"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49">
@@ -2791,19 +2802,21 @@
         <v>8</v>
       </c>
       <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
+      <c r="T7" s="49">
+        <v>10</v>
+      </c>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V8" s="52" t="s">
+      <c r="V8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -2869,10 +2882,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
@@ -2911,12 +2924,12 @@
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
-      <c r="V11" s="52" t="s">
+      <c r="V11" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
@@ -2967,18 +2980,18 @@
       <c r="T12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V13" s="52" t="s">
+      <c r="V13" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49">
@@ -3044,10 +3057,10 @@
       <c r="U14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
@@ -3078,12 +3091,12 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
-      <c r="V16" s="52" t="s">
+      <c r="V16" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
@@ -3106,18 +3119,18 @@
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
     </row>
     <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V18" s="52" t="s">
+      <c r="V18" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
@@ -3183,10 +3196,10 @@
       <c r="U19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
@@ -3217,12 +3230,12 @@
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
-      <c r="V21" s="52" t="s">
+      <c r="V21" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
@@ -3245,18 +3258,18 @@
       <c r="R22" s="49"/>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
     </row>
     <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V23" s="52" t="s">
+      <c r="V23" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
@@ -3322,10 +3335,10 @@
       <c r="U24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49">
@@ -3391,12 +3404,12 @@
       <c r="U26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V26" s="54" t="s">
+      <c r="V26" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
@@ -3462,18 +3475,18 @@
       <c r="U27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V28" s="52" t="s">
+      <c r="V28" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49">
@@ -3539,10 +3552,10 @@
       <c r="U29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3572,7 +3585,7 @@
   </sheetPr>
   <dimension ref="A1:AO116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -3645,18 +3658,18 @@
       <c r="T1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="70" t="s">
+      <c r="V1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="AA1" s="70" t="s">
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="AA1" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3719,14 +3732,14 @@
       <c r="T2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
     </row>
     <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -4151,12 +4164,12 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AI7" s="74" t="s">
+      <c r="AI7" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="83"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="56"/>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -4206,15 +4219,15 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="74" t="s">
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="77"/>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -4325,23 +4338,23 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="80"/>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="70"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="78"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="80"/>
     </row>
     <row r="11" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -4474,13 +4487,13 @@
       <c r="AH11" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="78"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="80"/>
     </row>
     <row r="12" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
@@ -4561,16 +4574,16 @@
       <c r="AF12" s="6">
         <v>0</v>
       </c>
-      <c r="AH12" s="79" t="s">
+      <c r="AH12" s="52" t="s">
         <v>108</v>
       </c>
       <c r="AI12" s="31"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="24"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="82"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="55"/>
     </row>
     <row r="14" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -4840,230 +4853,230 @@
       </c>
     </row>
     <row r="19" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="58" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="60"/>
-      <c r="AL19" s="58" t="s">
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="92"/>
+      <c r="AL19" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="60"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="92"/>
     </row>
     <row r="20" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="63"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="63"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="95"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="95"/>
     </row>
     <row r="21" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="63"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="63"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="95"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="95"/>
     </row>
     <row r="22" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="63"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="63"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="95"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="95"/>
     </row>
     <row r="23" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="63"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="63"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="95"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="95"/>
     </row>
     <row r="24" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -5086,14 +5099,14 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="63"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="63"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="95"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="95"/>
     </row>
     <row r="25" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
@@ -5116,53 +5129,53 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="66"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="66"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="97"/>
+      <c r="AI25" s="97"/>
+      <c r="AJ25" s="98"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="97"/>
+      <c r="AN25" s="97"/>
+      <c r="AO25" s="98"/>
     </row>
     <row r="26" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="93" t="str">
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A30,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (zero)</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="95"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="71"/>
       <c r="AL26" s="33"/>
     </row>
     <row r="27" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5170,331 +5183,331 @@
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="86">
+      <c r="E27" s="59">
         <v>21</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="63">
         <v>20</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="63">
         <v>4</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="63">
         <v>19</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="63">
         <v>16</v>
       </c>
-      <c r="J27" s="91">
+      <c r="J27" s="63">
         <v>18</v>
       </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="91">
+      <c r="K27" s="64"/>
+      <c r="L27" s="63">
         <v>17</v>
       </c>
-      <c r="M27" s="91">
+      <c r="M27" s="63">
         <v>16</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="63">
         <v>5</v>
       </c>
-      <c r="O27" s="91">
+      <c r="O27" s="63">
         <v>15</v>
       </c>
-      <c r="P27" s="91">
+      <c r="P27" s="63">
         <v>14</v>
       </c>
-      <c r="Q27" s="91">
+      <c r="Q27" s="63">
         <v>13</v>
       </c>
-      <c r="R27" s="86">
+      <c r="R27" s="59">
         <v>12</v>
       </c>
-      <c r="S27" s="86">
+      <c r="S27" s="59">
         <v>11</v>
       </c>
-      <c r="T27" s="86">
+      <c r="T27" s="59">
         <v>10</v>
       </c>
-      <c r="U27" s="86">
+      <c r="U27" s="59">
         <v>6</v>
       </c>
-      <c r="V27" s="86">
+      <c r="V27" s="59">
         <v>9</v>
       </c>
-      <c r="W27" s="86">
+      <c r="W27" s="59">
         <v>8</v>
       </c>
-      <c r="X27" s="86">
+      <c r="X27" s="59">
         <v>7</v>
       </c>
-      <c r="Y27" s="86">
+      <c r="Y27" s="59">
         <v>6</v>
       </c>
-      <c r="Z27" s="86">
+      <c r="Z27" s="59">
         <v>5</v>
       </c>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="86">
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="59">
         <v>4</v>
       </c>
-      <c r="AC27" s="86">
+      <c r="AC27" s="59">
         <v>3</v>
       </c>
-      <c r="AD27" s="86">
+      <c r="AD27" s="59">
         <v>2</v>
       </c>
-      <c r="AE27" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="70" t="s">
+      <c r="AE27" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AL27" s="70" t="s">
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AL27" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM27" s="70"/>
-      <c r="AN27" s="70"/>
-      <c r="AO27" s="70"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
     </row>
     <row r="28" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86">
-        <v>0</v>
-      </c>
-      <c r="B28" s="86">
-        <v>0</v>
-      </c>
-      <c r="C28" s="86">
-        <v>0</v>
-      </c>
-      <c r="D28" s="86">
-        <v>0</v>
-      </c>
-      <c r="E28" s="86">
-        <v>0</v>
-      </c>
-      <c r="F28" s="86">
-        <v>1</v>
-      </c>
-      <c r="G28" s="86">
-        <v>0</v>
-      </c>
-      <c r="H28" s="86">
-        <v>0</v>
-      </c>
-      <c r="I28" s="86">
-        <v>1</v>
-      </c>
-      <c r="J28" s="86">
-        <v>0</v>
-      </c>
-      <c r="K28" s="86">
-        <v>0</v>
-      </c>
-      <c r="L28" s="86">
-        <v>1</v>
-      </c>
-      <c r="M28" s="86">
-        <v>1</v>
-      </c>
-      <c r="N28" s="86">
-        <v>0</v>
-      </c>
-      <c r="O28" s="86">
-        <v>0</v>
-      </c>
-      <c r="P28" s="86">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="86">
-        <v>1</v>
-      </c>
-      <c r="R28" s="86">
-        <v>0</v>
-      </c>
-      <c r="S28" s="86">
-        <v>0</v>
-      </c>
-      <c r="T28" s="86">
-        <v>1</v>
-      </c>
-      <c r="U28" s="86">
-        <v>1</v>
-      </c>
-      <c r="V28" s="86">
-        <v>0</v>
-      </c>
-      <c r="W28" s="86">
-        <v>0</v>
-      </c>
-      <c r="X28" s="86">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="71"/>
+      <c r="A28" s="59">
+        <v>0</v>
+      </c>
+      <c r="B28" s="59">
+        <v>0</v>
+      </c>
+      <c r="C28" s="59">
+        <v>0</v>
+      </c>
+      <c r="D28" s="59">
+        <v>0</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0</v>
+      </c>
+      <c r="F28" s="59">
+        <v>1</v>
+      </c>
+      <c r="G28" s="59">
+        <v>0</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0</v>
+      </c>
+      <c r="I28" s="59">
+        <v>1</v>
+      </c>
+      <c r="J28" s="59">
+        <v>0</v>
+      </c>
+      <c r="K28" s="59">
+        <v>0</v>
+      </c>
+      <c r="L28" s="59">
+        <v>1</v>
+      </c>
+      <c r="M28" s="59">
+        <v>1</v>
+      </c>
+      <c r="N28" s="59">
+        <v>0</v>
+      </c>
+      <c r="O28" s="59">
+        <v>0</v>
+      </c>
+      <c r="P28" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="59">
+        <v>1</v>
+      </c>
+      <c r="R28" s="59">
+        <v>0</v>
+      </c>
+      <c r="S28" s="59">
+        <v>0</v>
+      </c>
+      <c r="T28" s="59">
+        <v>1</v>
+      </c>
+      <c r="U28" s="59">
+        <v>1</v>
+      </c>
+      <c r="V28" s="59">
+        <v>0</v>
+      </c>
+      <c r="W28" s="59">
+        <v>0</v>
+      </c>
+      <c r="X28" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="81"/>
     </row>
     <row r="29" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F29" s="86">
+      <c r="F29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H29" s="86">
+      <c r="H29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I29" s="86">
+      <c r="I29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J29" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="86">
+      <c r="K29" s="59">
         <f>E28</f>
         <v>0</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="59">
         <f>F28</f>
         <v>1</v>
       </c>
-      <c r="M29" s="86">
+      <c r="M29" s="59">
         <f>G28</f>
         <v>0</v>
       </c>
-      <c r="N29" s="86">
+      <c r="N29" s="59">
         <f>J28</f>
         <v>0</v>
       </c>
-      <c r="O29" s="86">
+      <c r="O29" s="59">
         <f>L28</f>
         <v>1</v>
       </c>
-      <c r="P29" s="86">
+      <c r="P29" s="59">
         <f>M28</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="86">
+      <c r="Q29" s="59">
         <f t="shared" ref="Q29:V29" si="14">O28</f>
         <v>0</v>
       </c>
-      <c r="R29" s="86">
+      <c r="R29" s="59">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S29" s="86">
+      <c r="S29" s="59">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T29" s="86">
+      <c r="T29" s="59">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U29" s="86">
+      <c r="U29" s="59">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V29" s="86">
+      <c r="V29" s="59">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W29" s="86">
+      <c r="W29" s="59">
         <f>V28</f>
         <v>0</v>
       </c>
-      <c r="X29" s="86">
+      <c r="X29" s="59">
         <f>W28</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="86">
+      <c r="Y29" s="59">
         <f>X28</f>
         <v>1</v>
       </c>
-      <c r="Z29" s="86">
+      <c r="Z29" s="59">
         <f>Y28</f>
         <v>1</v>
       </c>
-      <c r="AA29" s="86">
+      <c r="AA29" s="59">
         <f>Z28</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="86">
+      <c r="AB29" s="59">
         <f t="shared" ref="AB29" si="15">AB28</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="86">
+      <c r="AC29" s="59">
         <f t="shared" ref="AC29" si="16">AC28</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="86">
+      <c r="AD29" s="59">
         <f t="shared" ref="AD29" si="17">AD28</f>
         <v>1</v>
       </c>
-      <c r="AE29" s="86">
+      <c r="AE29" s="59">
         <f t="shared" ref="AE29" si="18">AE28</f>
         <v>1</v>
       </c>
-      <c r="AF29" s="86">
+      <c r="AF29" s="59">
         <f>AF28</f>
         <v>0</v>
       </c>
@@ -5528,43 +5541,43 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88" t="str">
+      <c r="B30" s="82"/>
+      <c r="C30" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A30," = (B",A29,B29,C29,D29,E29,F29,G29,H29," &lt;&lt; 24) + (B",I29,J29,K29,L29,M29,N29,O29,P29," &lt;&lt; 16) + (B",Q29,R29,S29,T29,U29,V29,W29,X29," &lt;&lt; 8) + B",Y29,Z29,AA29,AB29,AC29,AD29,AE29,AF29,";")</f>
         <v>uint32_t zero = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01100100 &lt;&lt; 8) + B11010110;</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
       <c r="AG30" s="18">
         <f>AB29</f>
         <v>1</v>
@@ -5788,43 +5801,43 @@
       </c>
     </row>
     <row r="35" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="93" t="str">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A39,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (one)</v>
       </c>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="95"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="70"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="70"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="71"/>
       <c r="AG35" s="22">
         <f>M29</f>
         <v>0</v>
@@ -5860,331 +5873,331 @@
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="86">
+      <c r="E36" s="59">
         <v>21</v>
       </c>
-      <c r="F36" s="91">
+      <c r="F36" s="63">
         <v>20</v>
       </c>
-      <c r="G36" s="91">
+      <c r="G36" s="63">
         <v>4</v>
       </c>
-      <c r="H36" s="91">
+      <c r="H36" s="63">
         <v>19</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="63">
         <v>16</v>
       </c>
-      <c r="J36" s="91">
+      <c r="J36" s="63">
         <v>18</v>
       </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="91">
+      <c r="K36" s="64"/>
+      <c r="L36" s="63">
         <v>17</v>
       </c>
-      <c r="M36" s="91">
+      <c r="M36" s="63">
         <v>16</v>
       </c>
-      <c r="N36" s="91">
+      <c r="N36" s="63">
         <v>5</v>
       </c>
-      <c r="O36" s="91">
+      <c r="O36" s="63">
         <v>15</v>
       </c>
-      <c r="P36" s="91">
+      <c r="P36" s="63">
         <v>14</v>
       </c>
-      <c r="Q36" s="91">
+      <c r="Q36" s="63">
         <v>13</v>
       </c>
-      <c r="R36" s="86">
+      <c r="R36" s="59">
         <v>12</v>
       </c>
-      <c r="S36" s="86">
+      <c r="S36" s="59">
         <v>11</v>
       </c>
-      <c r="T36" s="86">
+      <c r="T36" s="59">
         <v>10</v>
       </c>
-      <c r="U36" s="86">
+      <c r="U36" s="59">
         <v>6</v>
       </c>
-      <c r="V36" s="86">
+      <c r="V36" s="59">
         <v>9</v>
       </c>
-      <c r="W36" s="86">
+      <c r="W36" s="59">
         <v>8</v>
       </c>
-      <c r="X36" s="86">
+      <c r="X36" s="59">
         <v>7</v>
       </c>
-      <c r="Y36" s="86">
+      <c r="Y36" s="59">
         <v>6</v>
       </c>
-      <c r="Z36" s="86">
+      <c r="Z36" s="59">
         <v>5</v>
       </c>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="86">
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="59">
         <v>4</v>
       </c>
-      <c r="AC36" s="86">
+      <c r="AC36" s="59">
         <v>3</v>
       </c>
-      <c r="AD36" s="86">
+      <c r="AD36" s="59">
         <v>2</v>
       </c>
-      <c r="AE36" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="70" t="s">
+      <c r="AE36" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="70"/>
-      <c r="AL36" s="70" t="s">
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AL36" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM36" s="70"/>
-      <c r="AN36" s="70"/>
-      <c r="AO36" s="70"/>
+      <c r="AM36" s="79"/>
+      <c r="AN36" s="79"/>
+      <c r="AO36" s="79"/>
     </row>
     <row r="37" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
-        <v>0</v>
-      </c>
-      <c r="B37" s="86">
-        <v>0</v>
-      </c>
-      <c r="C37" s="86">
-        <v>0</v>
-      </c>
-      <c r="D37" s="86">
-        <v>0</v>
-      </c>
-      <c r="E37" s="86">
-        <v>0</v>
-      </c>
-      <c r="F37" s="86">
-        <v>1</v>
-      </c>
-      <c r="G37" s="86">
-        <v>0</v>
-      </c>
-      <c r="H37" s="86">
-        <v>0</v>
-      </c>
-      <c r="I37" s="86">
-        <v>0</v>
-      </c>
-      <c r="J37" s="86">
-        <v>1</v>
-      </c>
-      <c r="K37" s="86">
-        <v>0</v>
-      </c>
-      <c r="L37" s="86">
-        <v>0</v>
-      </c>
-      <c r="M37" s="86">
-        <v>0</v>
-      </c>
-      <c r="N37" s="86">
-        <v>0</v>
-      </c>
-      <c r="O37" s="86">
-        <v>0</v>
-      </c>
-      <c r="P37" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="86">
-        <v>0</v>
-      </c>
-      <c r="R37" s="86">
-        <v>1</v>
-      </c>
-      <c r="S37" s="86">
-        <v>0</v>
-      </c>
-      <c r="T37" s="86">
-        <v>0</v>
-      </c>
-      <c r="U37" s="86">
-        <v>0</v>
-      </c>
-      <c r="V37" s="86">
-        <v>1</v>
-      </c>
-      <c r="W37" s="86">
-        <v>0</v>
-      </c>
-      <c r="X37" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="86">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="86">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AL37" s="71"/>
-      <c r="AM37" s="71"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="71"/>
+      <c r="A37" s="59">
+        <v>0</v>
+      </c>
+      <c r="B37" s="59">
+        <v>0</v>
+      </c>
+      <c r="C37" s="59">
+        <v>0</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0</v>
+      </c>
+      <c r="F37" s="59">
+        <v>1</v>
+      </c>
+      <c r="G37" s="59">
+        <v>0</v>
+      </c>
+      <c r="H37" s="59">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <v>0</v>
+      </c>
+      <c r="J37" s="59">
+        <v>1</v>
+      </c>
+      <c r="K37" s="59">
+        <v>0</v>
+      </c>
+      <c r="L37" s="59">
+        <v>0</v>
+      </c>
+      <c r="M37" s="59">
+        <v>0</v>
+      </c>
+      <c r="N37" s="59">
+        <v>0</v>
+      </c>
+      <c r="O37" s="59">
+        <v>0</v>
+      </c>
+      <c r="P37" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="59">
+        <v>0</v>
+      </c>
+      <c r="R37" s="59">
+        <v>1</v>
+      </c>
+      <c r="S37" s="59">
+        <v>0</v>
+      </c>
+      <c r="T37" s="59">
+        <v>0</v>
+      </c>
+      <c r="U37" s="59">
+        <v>0</v>
+      </c>
+      <c r="V37" s="59">
+        <v>1</v>
+      </c>
+      <c r="W37" s="59">
+        <v>0</v>
+      </c>
+      <c r="X37" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="81"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="81"/>
+      <c r="AJ37" s="81"/>
+      <c r="AL37" s="81"/>
+      <c r="AM37" s="81"/>
+      <c r="AN37" s="81"/>
+      <c r="AO37" s="81"/>
     </row>
     <row r="38" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86">
+      <c r="A38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B38" s="86">
+      <c r="B38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C38" s="86">
+      <c r="C38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E38" s="86">
+      <c r="E38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F38" s="86">
+      <c r="F38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G38" s="86">
+      <c r="G38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H38" s="86">
+      <c r="H38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I38" s="86">
+      <c r="I38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J38" s="86">
+      <c r="J38" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K38" s="86">
+      <c r="K38" s="59">
         <f>E37</f>
         <v>0</v>
       </c>
-      <c r="L38" s="86">
+      <c r="L38" s="59">
         <f>F37</f>
         <v>1</v>
       </c>
-      <c r="M38" s="86">
+      <c r="M38" s="59">
         <f>G37</f>
         <v>0</v>
       </c>
-      <c r="N38" s="86">
+      <c r="N38" s="59">
         <f>J37</f>
         <v>1</v>
       </c>
-      <c r="O38" s="86">
+      <c r="O38" s="59">
         <f>L37</f>
         <v>0</v>
       </c>
-      <c r="P38" s="86">
+      <c r="P38" s="59">
         <f>M37</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="86">
+      <c r="Q38" s="59">
         <f t="shared" ref="Q38:V38" si="19">O37</f>
         <v>0</v>
       </c>
-      <c r="R38" s="86">
+      <c r="R38" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S38" s="86">
+      <c r="S38" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T38" s="86">
+      <c r="T38" s="59">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U38" s="86">
+      <c r="U38" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V38" s="86">
+      <c r="V38" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W38" s="86">
+      <c r="W38" s="59">
         <f>V37</f>
         <v>1</v>
       </c>
-      <c r="X38" s="86">
+      <c r="X38" s="59">
         <f>W37</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="86">
+      <c r="Y38" s="59">
         <f>X37</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="86">
+      <c r="Z38" s="59">
         <f>Y37</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="86">
+      <c r="AA38" s="59">
         <f>Z37</f>
         <v>1</v>
       </c>
-      <c r="AB38" s="86">
+      <c r="AB38" s="59">
         <f t="shared" ref="AB38" si="20">AB37</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="86">
+      <c r="AC38" s="59">
         <f t="shared" ref="AC38" si="21">AC37</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="86">
+      <c r="AD38" s="59">
         <f t="shared" ref="AD38" si="22">AD37</f>
         <v>1</v>
       </c>
-      <c r="AE38" s="86">
+      <c r="AE38" s="59">
         <f t="shared" ref="AE38" si="23">AE37</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="86">
+      <c r="AF38" s="59">
         <f>AF37</f>
         <v>0</v>
       </c>
@@ -6218,43 +6231,43 @@
       </c>
     </row>
     <row r="39" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88" t="str">
+      <c r="B39" s="82"/>
+      <c r="C39" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A39," = (B",A38,B38,C38,D38,E38,F38,G38,H38," &lt;&lt; 24) + (B",I38,J38,K38,L38,M38,N38,O38,P38," &lt;&lt; 16) + (B",Q38,R38,S38,T38,U38,V38,W38,X38," &lt;&lt; 8) + B",Y38,Z38,AA38,AB38,AC38,AD38,AE38,AF38,";")</f>
         <v>uint32_t one = (B00000000 &lt;&lt; 24) + (B00010100 &lt;&lt; 16) + (B00010010 &lt;&lt; 8) + B00100100;</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
-      <c r="Z39" s="90"/>
-      <c r="AA39" s="90"/>
-      <c r="AB39" s="90"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="90"/>
-      <c r="AF39" s="90"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
       <c r="AG39" s="16">
         <f>AB38</f>
         <v>0</v>
@@ -6478,43 +6491,43 @@
       </c>
     </row>
     <row r="44" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="93" t="str">
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A48,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (two)</v>
       </c>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="94"/>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="94"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="95"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="71"/>
       <c r="AG44" s="22">
         <f>M38</f>
         <v>0</v>
@@ -6550,331 +6563,331 @@
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="86">
+      <c r="E45" s="59">
         <v>21</v>
       </c>
-      <c r="F45" s="91">
+      <c r="F45" s="63">
         <v>20</v>
       </c>
-      <c r="G45" s="91">
+      <c r="G45" s="63">
         <v>4</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="63">
         <v>19</v>
       </c>
-      <c r="I45" s="91">
+      <c r="I45" s="63">
         <v>16</v>
       </c>
-      <c r="J45" s="91">
+      <c r="J45" s="63">
         <v>18</v>
       </c>
-      <c r="K45" s="92"/>
-      <c r="L45" s="91">
+      <c r="K45" s="64"/>
+      <c r="L45" s="63">
         <v>17</v>
       </c>
-      <c r="M45" s="91">
+      <c r="M45" s="63">
         <v>16</v>
       </c>
-      <c r="N45" s="91">
+      <c r="N45" s="63">
         <v>5</v>
       </c>
-      <c r="O45" s="91">
+      <c r="O45" s="63">
         <v>15</v>
       </c>
-      <c r="P45" s="91">
+      <c r="P45" s="63">
         <v>14</v>
       </c>
-      <c r="Q45" s="91">
+      <c r="Q45" s="63">
         <v>13</v>
       </c>
-      <c r="R45" s="86">
+      <c r="R45" s="59">
         <v>12</v>
       </c>
-      <c r="S45" s="86">
+      <c r="S45" s="59">
         <v>11</v>
       </c>
-      <c r="T45" s="86">
+      <c r="T45" s="59">
         <v>10</v>
       </c>
-      <c r="U45" s="86">
+      <c r="U45" s="59">
         <v>6</v>
       </c>
-      <c r="V45" s="86">
+      <c r="V45" s="59">
         <v>9</v>
       </c>
-      <c r="W45" s="86">
+      <c r="W45" s="59">
         <v>8</v>
       </c>
-      <c r="X45" s="86">
+      <c r="X45" s="59">
         <v>7</v>
       </c>
-      <c r="Y45" s="86">
+      <c r="Y45" s="59">
         <v>6</v>
       </c>
-      <c r="Z45" s="86">
+      <c r="Z45" s="59">
         <v>5</v>
       </c>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="86">
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="59">
         <v>4</v>
       </c>
-      <c r="AC45" s="86">
+      <c r="AC45" s="59">
         <v>3</v>
       </c>
-      <c r="AD45" s="86">
+      <c r="AD45" s="59">
         <v>2</v>
       </c>
-      <c r="AE45" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="70" t="s">
+      <c r="AE45" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH45" s="70"/>
-      <c r="AI45" s="70"/>
-      <c r="AJ45" s="70"/>
-      <c r="AL45" s="70" t="s">
+      <c r="AH45" s="79"/>
+      <c r="AI45" s="79"/>
+      <c r="AJ45" s="79"/>
+      <c r="AL45" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="70"/>
-      <c r="AO45" s="70"/>
+      <c r="AM45" s="79"/>
+      <c r="AN45" s="79"/>
+      <c r="AO45" s="79"/>
     </row>
     <row r="46" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86">
-        <v>0</v>
-      </c>
-      <c r="B46" s="86">
-        <v>0</v>
-      </c>
-      <c r="C46" s="86">
-        <v>0</v>
-      </c>
-      <c r="D46" s="86">
-        <v>0</v>
-      </c>
-      <c r="E46" s="86">
-        <v>1</v>
-      </c>
-      <c r="F46" s="86">
-        <v>1</v>
-      </c>
-      <c r="G46" s="86">
-        <v>1</v>
-      </c>
-      <c r="H46" s="86">
-        <v>0</v>
-      </c>
-      <c r="I46" s="86">
-        <v>0</v>
-      </c>
-      <c r="J46" s="86">
-        <v>0</v>
-      </c>
-      <c r="K46" s="86">
-        <v>0</v>
-      </c>
-      <c r="L46" s="86">
-        <v>1</v>
-      </c>
-      <c r="M46" s="86">
-        <v>0</v>
-      </c>
-      <c r="N46" s="86">
-        <v>0</v>
-      </c>
-      <c r="O46" s="86">
-        <v>1</v>
-      </c>
-      <c r="P46" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="86">
-        <v>0</v>
-      </c>
-      <c r="R46" s="86">
-        <v>1</v>
-      </c>
-      <c r="S46" s="86">
-        <v>0</v>
-      </c>
-      <c r="T46" s="86">
-        <v>0</v>
-      </c>
-      <c r="U46" s="86">
-        <v>0</v>
-      </c>
-      <c r="V46" s="86">
-        <v>0</v>
-      </c>
-      <c r="W46" s="86">
-        <v>0</v>
-      </c>
-      <c r="X46" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71"/>
-      <c r="AJ46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
+      <c r="A46" s="59">
+        <v>0</v>
+      </c>
+      <c r="B46" s="59">
+        <v>0</v>
+      </c>
+      <c r="C46" s="59">
+        <v>0</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="59">
+        <v>1</v>
+      </c>
+      <c r="F46" s="59">
+        <v>1</v>
+      </c>
+      <c r="G46" s="59">
+        <v>1</v>
+      </c>
+      <c r="H46" s="59">
+        <v>0</v>
+      </c>
+      <c r="I46" s="59">
+        <v>0</v>
+      </c>
+      <c r="J46" s="59">
+        <v>0</v>
+      </c>
+      <c r="K46" s="59">
+        <v>0</v>
+      </c>
+      <c r="L46" s="59">
+        <v>1</v>
+      </c>
+      <c r="M46" s="59">
+        <v>0</v>
+      </c>
+      <c r="N46" s="59">
+        <v>0</v>
+      </c>
+      <c r="O46" s="59">
+        <v>1</v>
+      </c>
+      <c r="P46" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="59">
+        <v>0</v>
+      </c>
+      <c r="R46" s="59">
+        <v>1</v>
+      </c>
+      <c r="S46" s="59">
+        <v>0</v>
+      </c>
+      <c r="T46" s="59">
+        <v>0</v>
+      </c>
+      <c r="U46" s="59">
+        <v>0</v>
+      </c>
+      <c r="V46" s="59">
+        <v>0</v>
+      </c>
+      <c r="W46" s="59">
+        <v>0</v>
+      </c>
+      <c r="X46" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="81"/>
+      <c r="AJ46" s="81"/>
+      <c r="AL46" s="81"/>
+      <c r="AM46" s="81"/>
+      <c r="AN46" s="81"/>
+      <c r="AO46" s="81"/>
     </row>
     <row r="47" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86">
+      <c r="A47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B47" s="86">
+      <c r="B47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D47" s="86">
+      <c r="D47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E47" s="86">
+      <c r="E47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F47" s="86">
+      <c r="F47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G47" s="86">
+      <c r="G47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H47" s="86">
+      <c r="H47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I47" s="86">
+      <c r="I47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J47" s="86">
+      <c r="J47" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K47" s="86">
+      <c r="K47" s="59">
         <f>E46</f>
         <v>1</v>
       </c>
-      <c r="L47" s="86">
+      <c r="L47" s="59">
         <f>F46</f>
         <v>1</v>
       </c>
-      <c r="M47" s="86">
+      <c r="M47" s="59">
         <f>G46</f>
         <v>1</v>
       </c>
-      <c r="N47" s="86">
+      <c r="N47" s="59">
         <f>J46</f>
         <v>0</v>
       </c>
-      <c r="O47" s="86">
+      <c r="O47" s="59">
         <f>L46</f>
         <v>1</v>
       </c>
-      <c r="P47" s="86">
+      <c r="P47" s="59">
         <f>M46</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="86">
+      <c r="Q47" s="59">
         <f t="shared" ref="Q47:V47" si="24">O46</f>
         <v>1</v>
       </c>
-      <c r="R47" s="86">
+      <c r="R47" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S47" s="86">
+      <c r="S47" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T47" s="86">
+      <c r="T47" s="59">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="U47" s="86">
+      <c r="U47" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="V47" s="86">
+      <c r="V47" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W47" s="86">
+      <c r="W47" s="59">
         <f>V46</f>
         <v>0</v>
       </c>
-      <c r="X47" s="86">
+      <c r="X47" s="59">
         <f>W46</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="86">
+      <c r="Y47" s="59">
         <f>X46</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="86">
+      <c r="Z47" s="59">
         <f>Y46</f>
         <v>1</v>
       </c>
-      <c r="AA47" s="86">
+      <c r="AA47" s="59">
         <f>Z46</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="86">
+      <c r="AB47" s="59">
         <f>AB46</f>
         <v>1</v>
       </c>
-      <c r="AC47" s="86">
+      <c r="AC47" s="59">
         <f t="shared" ref="AC47" si="25">AC46</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="86">
+      <c r="AD47" s="59">
         <f t="shared" ref="AD47" si="26">AD46</f>
         <v>1</v>
       </c>
-      <c r="AE47" s="86">
+      <c r="AE47" s="59">
         <f t="shared" ref="AE47" si="27">AE46</f>
         <v>1</v>
       </c>
-      <c r="AF47" s="86">
+      <c r="AF47" s="59">
         <f>AF46</f>
         <v>0</v>
       </c>
@@ -6908,43 +6921,43 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88" t="str">
+      <c r="B48" s="82"/>
+      <c r="C48" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A48," = (B",A47,B47,C47,D47,E47,F47,G47,H47," &lt;&lt; 24) + (B",I47,J47,K47,L47,M47,N47,O47,P47," &lt;&lt; 16) + (B",Q47,R47,S47,T47,U47,V47,W47,X47," &lt;&lt; 8) + B",Y47,Z47,AA47,AB47,AC47,AD47,AE47,AF47,";")</f>
         <v>uint32_t two = (B00000000 &lt;&lt; 24) + (B00111010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01010110;</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="85"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="90"/>
-      <c r="AC48" s="90"/>
-      <c r="AD48" s="90"/>
-      <c r="AE48" s="90"/>
-      <c r="AF48" s="90"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="62"/>
+      <c r="AE48" s="62"/>
+      <c r="AF48" s="62"/>
       <c r="AG48" s="16">
         <f>AB47</f>
         <v>1</v>
@@ -7168,43 +7181,43 @@
       </c>
     </row>
     <row r="53" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="93" t="str">
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A57,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (three)</v>
       </c>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="94"/>
-      <c r="AC53" s="94"/>
-      <c r="AD53" s="94"/>
-      <c r="AE53" s="94"/>
-      <c r="AF53" s="95"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+      <c r="AE53" s="70"/>
+      <c r="AF53" s="71"/>
       <c r="AG53" s="22">
         <f>M47</f>
         <v>1</v>
@@ -7240,331 +7253,331 @@
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="86">
+      <c r="E54" s="59">
         <v>21</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="63">
         <v>20</v>
       </c>
-      <c r="G54" s="91">
+      <c r="G54" s="63">
         <v>4</v>
       </c>
-      <c r="H54" s="91">
+      <c r="H54" s="63">
         <v>19</v>
       </c>
-      <c r="I54" s="91">
+      <c r="I54" s="63">
         <v>16</v>
       </c>
-      <c r="J54" s="91">
+      <c r="J54" s="63">
         <v>18</v>
       </c>
-      <c r="K54" s="92"/>
-      <c r="L54" s="91">
+      <c r="K54" s="64"/>
+      <c r="L54" s="63">
         <v>17</v>
       </c>
-      <c r="M54" s="91">
+      <c r="M54" s="63">
         <v>16</v>
       </c>
-      <c r="N54" s="91">
+      <c r="N54" s="63">
         <v>5</v>
       </c>
-      <c r="O54" s="91">
+      <c r="O54" s="63">
         <v>15</v>
       </c>
-      <c r="P54" s="91">
+      <c r="P54" s="63">
         <v>14</v>
       </c>
-      <c r="Q54" s="91">
+      <c r="Q54" s="63">
         <v>13</v>
       </c>
-      <c r="R54" s="86">
+      <c r="R54" s="59">
         <v>12</v>
       </c>
-      <c r="S54" s="86">
+      <c r="S54" s="59">
         <v>11</v>
       </c>
-      <c r="T54" s="86">
+      <c r="T54" s="59">
         <v>10</v>
       </c>
-      <c r="U54" s="86">
+      <c r="U54" s="59">
         <v>6</v>
       </c>
-      <c r="V54" s="86">
+      <c r="V54" s="59">
         <v>9</v>
       </c>
-      <c r="W54" s="86">
+      <c r="W54" s="59">
         <v>8</v>
       </c>
-      <c r="X54" s="86">
+      <c r="X54" s="59">
         <v>7</v>
       </c>
-      <c r="Y54" s="86">
+      <c r="Y54" s="59">
         <v>6</v>
       </c>
-      <c r="Z54" s="86">
+      <c r="Z54" s="59">
         <v>5</v>
       </c>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="86">
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59">
         <v>4</v>
       </c>
-      <c r="AC54" s="86">
+      <c r="AC54" s="59">
         <v>3</v>
       </c>
-      <c r="AD54" s="86">
+      <c r="AD54" s="59">
         <v>2</v>
       </c>
-      <c r="AE54" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF54" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="70" t="s">
+      <c r="AE54" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH54" s="70"/>
-      <c r="AI54" s="70"/>
-      <c r="AJ54" s="70"/>
-      <c r="AL54" s="70" t="s">
+      <c r="AH54" s="79"/>
+      <c r="AI54" s="79"/>
+      <c r="AJ54" s="79"/>
+      <c r="AL54" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM54" s="70"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="70"/>
+      <c r="AM54" s="79"/>
+      <c r="AN54" s="79"/>
+      <c r="AO54" s="79"/>
     </row>
     <row r="55" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
-        <v>0</v>
-      </c>
-      <c r="B55" s="86">
-        <v>0</v>
-      </c>
-      <c r="C55" s="86">
-        <v>0</v>
-      </c>
-      <c r="D55" s="86">
-        <v>0</v>
-      </c>
-      <c r="E55" s="86">
-        <v>0</v>
-      </c>
-      <c r="F55" s="86">
-        <v>1</v>
-      </c>
-      <c r="G55" s="86">
-        <v>0</v>
-      </c>
-      <c r="H55" s="86">
-        <v>0</v>
-      </c>
-      <c r="I55" s="86">
-        <v>0</v>
-      </c>
-      <c r="J55" s="86">
-        <v>0</v>
-      </c>
-      <c r="K55" s="86">
-        <v>1</v>
-      </c>
-      <c r="L55" s="86">
-        <v>1</v>
-      </c>
-      <c r="M55" s="86">
-        <v>1</v>
-      </c>
-      <c r="N55" s="86">
-        <v>0</v>
-      </c>
-      <c r="O55" s="86">
-        <v>0</v>
-      </c>
-      <c r="P55" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="86">
-        <v>0</v>
-      </c>
-      <c r="R55" s="86">
-        <v>1</v>
-      </c>
-      <c r="S55" s="86">
-        <v>0</v>
-      </c>
-      <c r="T55" s="86">
-        <v>0</v>
-      </c>
-      <c r="U55" s="86">
-        <v>0</v>
-      </c>
-      <c r="V55" s="86">
-        <v>0</v>
-      </c>
-      <c r="W55" s="86">
-        <v>0</v>
-      </c>
-      <c r="X55" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71"/>
-      <c r="AJ55" s="71"/>
-      <c r="AL55" s="71"/>
-      <c r="AM55" s="71"/>
-      <c r="AN55" s="71"/>
-      <c r="AO55" s="71"/>
+      <c r="A55" s="59">
+        <v>0</v>
+      </c>
+      <c r="B55" s="59">
+        <v>0</v>
+      </c>
+      <c r="C55" s="59">
+        <v>0</v>
+      </c>
+      <c r="D55" s="59">
+        <v>0</v>
+      </c>
+      <c r="E55" s="59">
+        <v>0</v>
+      </c>
+      <c r="F55" s="59">
+        <v>1</v>
+      </c>
+      <c r="G55" s="59">
+        <v>0</v>
+      </c>
+      <c r="H55" s="59">
+        <v>0</v>
+      </c>
+      <c r="I55" s="59">
+        <v>0</v>
+      </c>
+      <c r="J55" s="59">
+        <v>0</v>
+      </c>
+      <c r="K55" s="59">
+        <v>1</v>
+      </c>
+      <c r="L55" s="59">
+        <v>1</v>
+      </c>
+      <c r="M55" s="59">
+        <v>1</v>
+      </c>
+      <c r="N55" s="59">
+        <v>0</v>
+      </c>
+      <c r="O55" s="59">
+        <v>0</v>
+      </c>
+      <c r="P55" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="59">
+        <v>0</v>
+      </c>
+      <c r="R55" s="59">
+        <v>1</v>
+      </c>
+      <c r="S55" s="59">
+        <v>0</v>
+      </c>
+      <c r="T55" s="59">
+        <v>0</v>
+      </c>
+      <c r="U55" s="59">
+        <v>0</v>
+      </c>
+      <c r="V55" s="59">
+        <v>0</v>
+      </c>
+      <c r="W55" s="59">
+        <v>0</v>
+      </c>
+      <c r="X55" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="81"/>
+      <c r="AH55" s="81"/>
+      <c r="AI55" s="81"/>
+      <c r="AJ55" s="81"/>
+      <c r="AL55" s="81"/>
+      <c r="AM55" s="81"/>
+      <c r="AN55" s="81"/>
+      <c r="AO55" s="81"/>
     </row>
     <row r="56" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
+      <c r="A56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B56" s="86">
+      <c r="B56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C56" s="86">
+      <c r="C56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D56" s="86">
+      <c r="D56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E56" s="86">
+      <c r="E56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F56" s="86">
+      <c r="F56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G56" s="86">
+      <c r="G56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H56" s="86">
+      <c r="H56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I56" s="86">
+      <c r="I56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J56" s="86">
+      <c r="J56" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K56" s="86">
+      <c r="K56" s="59">
         <f>E55</f>
         <v>0</v>
       </c>
-      <c r="L56" s="86">
+      <c r="L56" s="59">
         <f>F55</f>
         <v>1</v>
       </c>
-      <c r="M56" s="86">
+      <c r="M56" s="59">
         <f>G55</f>
         <v>0</v>
       </c>
-      <c r="N56" s="86">
+      <c r="N56" s="59">
         <f>J55</f>
         <v>0</v>
       </c>
-      <c r="O56" s="86">
+      <c r="O56" s="59">
         <f>L55</f>
         <v>1</v>
       </c>
-      <c r="P56" s="86">
+      <c r="P56" s="59">
         <f>M55</f>
         <v>1</v>
       </c>
-      <c r="Q56" s="86">
-        <f>O55</f>
-        <v>0</v>
-      </c>
-      <c r="R56" s="86">
-        <f>P55</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="86">
-        <f>Q55</f>
-        <v>0</v>
-      </c>
-      <c r="T56" s="86">
-        <f>R55</f>
-        <v>1</v>
-      </c>
-      <c r="U56" s="86">
-        <f>S55</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="86">
-        <f>T55</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="86">
+      <c r="Q56" s="59">
+        <f t="shared" ref="Q56:V56" si="28">O55</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="59">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="59">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="59">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="59">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="59">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="59">
         <f>V55</f>
         <v>0</v>
       </c>
-      <c r="X56" s="86">
+      <c r="X56" s="59">
         <f>W55</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="86">
+      <c r="Y56" s="59">
         <f>X55</f>
         <v>0</v>
       </c>
-      <c r="Z56" s="86">
+      <c r="Z56" s="59">
         <f>Y55</f>
         <v>1</v>
       </c>
-      <c r="AA56" s="86">
+      <c r="AA56" s="59">
         <f>Z55</f>
         <v>0</v>
       </c>
-      <c r="AB56" s="86">
+      <c r="AB56" s="59">
         <f>AB55</f>
         <v>1</v>
       </c>
-      <c r="AC56" s="86">
+      <c r="AC56" s="59">
         <f>AC55</f>
         <v>0</v>
       </c>
-      <c r="AD56" s="86">
+      <c r="AD56" s="59">
         <f>AD55</f>
         <v>1</v>
       </c>
-      <c r="AE56" s="86">
+      <c r="AE56" s="59">
         <f>AE55</f>
         <v>1</v>
       </c>
-      <c r="AF56" s="86">
+      <c r="AF56" s="59">
         <f>AF55</f>
         <v>0</v>
       </c>
@@ -7598,43 +7611,43 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="88" t="str">
+      <c r="B57" s="84"/>
+      <c r="C57" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A57," = (B",A56,B56,C56,D56,E56,F56,G56,H56," &lt;&lt; 24) + (B",I56,J56,K56,L56,M56,N56,O56,P56," &lt;&lt; 16) + (B",Q56,R56,S56,T56,U56,V56,W56,X56," &lt;&lt; 8) + B",Y56,Z56,AA56,AB56,AC56,AD56,AE56,AF56,";")</f>
         <v>uint32_t three = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00010000 &lt;&lt; 8) + B01010110;</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="89"/>
-      <c r="R57" s="89"/>
-      <c r="S57" s="89"/>
-      <c r="T57" s="89"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="90"/>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="90"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="62"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
       <c r="AG57" s="16">
         <f>AB56</f>
         <v>1</v>
@@ -7858,43 +7871,43 @@
       </c>
     </row>
     <row r="62" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="93" t="str">
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A66,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (four)</v>
       </c>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="94"/>
-      <c r="W62" s="94"/>
-      <c r="X62" s="94"/>
-      <c r="Y62" s="94"/>
-      <c r="Z62" s="94"/>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="94"/>
-      <c r="AC62" s="94"/>
-      <c r="AD62" s="94"/>
-      <c r="AE62" s="94"/>
-      <c r="AF62" s="95"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="70"/>
+      <c r="AE62" s="70"/>
+      <c r="AF62" s="71"/>
       <c r="AG62" s="22">
         <f>M56</f>
         <v>0</v>
@@ -7930,331 +7943,331 @@
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="86">
+      <c r="E63" s="59">
         <v>21</v>
       </c>
-      <c r="F63" s="91">
+      <c r="F63" s="63">
         <v>20</v>
       </c>
-      <c r="G63" s="91">
+      <c r="G63" s="63">
         <v>4</v>
       </c>
-      <c r="H63" s="91">
+      <c r="H63" s="63">
         <v>19</v>
       </c>
-      <c r="I63" s="91">
+      <c r="I63" s="63">
         <v>16</v>
       </c>
-      <c r="J63" s="91">
+      <c r="J63" s="63">
         <v>18</v>
       </c>
-      <c r="K63" s="92"/>
-      <c r="L63" s="91">
+      <c r="K63" s="64"/>
+      <c r="L63" s="63">
         <v>17</v>
       </c>
-      <c r="M63" s="91">
+      <c r="M63" s="63">
         <v>16</v>
       </c>
-      <c r="N63" s="91">
+      <c r="N63" s="63">
         <v>5</v>
       </c>
-      <c r="O63" s="91">
+      <c r="O63" s="63">
         <v>15</v>
       </c>
-      <c r="P63" s="91">
+      <c r="P63" s="63">
         <v>14</v>
       </c>
-      <c r="Q63" s="91">
+      <c r="Q63" s="63">
         <v>13</v>
       </c>
-      <c r="R63" s="86">
+      <c r="R63" s="59">
         <v>12</v>
       </c>
-      <c r="S63" s="86">
+      <c r="S63" s="59">
         <v>11</v>
       </c>
-      <c r="T63" s="86">
+      <c r="T63" s="59">
         <v>10</v>
       </c>
-      <c r="U63" s="86">
+      <c r="U63" s="59">
         <v>6</v>
       </c>
-      <c r="V63" s="86">
+      <c r="V63" s="59">
         <v>9</v>
       </c>
-      <c r="W63" s="86">
+      <c r="W63" s="59">
         <v>8</v>
       </c>
-      <c r="X63" s="86">
+      <c r="X63" s="59">
         <v>7</v>
       </c>
-      <c r="Y63" s="86">
+      <c r="Y63" s="59">
         <v>6</v>
       </c>
-      <c r="Z63" s="86">
+      <c r="Z63" s="59">
         <v>5</v>
       </c>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="86">
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="59">
         <v>4</v>
       </c>
-      <c r="AC63" s="86">
+      <c r="AC63" s="59">
         <v>3</v>
       </c>
-      <c r="AD63" s="86">
+      <c r="AD63" s="59">
         <v>2</v>
       </c>
-      <c r="AE63" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="70" t="s">
+      <c r="AE63" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="70"/>
-      <c r="AL63" s="70" t="s">
+      <c r="AH63" s="79"/>
+      <c r="AI63" s="79"/>
+      <c r="AJ63" s="79"/>
+      <c r="AL63" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM63" s="70"/>
-      <c r="AN63" s="70"/>
-      <c r="AO63" s="70"/>
+      <c r="AM63" s="79"/>
+      <c r="AN63" s="79"/>
+      <c r="AO63" s="79"/>
     </row>
     <row r="64" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86">
-        <v>0</v>
-      </c>
-      <c r="B64" s="86">
-        <v>0</v>
-      </c>
-      <c r="C64" s="86">
-        <v>0</v>
-      </c>
-      <c r="D64" s="86">
-        <v>0</v>
-      </c>
-      <c r="E64" s="86">
-        <v>1</v>
-      </c>
-      <c r="F64" s="86">
-        <v>0</v>
-      </c>
-      <c r="G64" s="86">
-        <v>0</v>
-      </c>
-      <c r="H64" s="86">
-        <v>0</v>
-      </c>
-      <c r="I64" s="86">
-        <v>0</v>
-      </c>
-      <c r="J64" s="86">
-        <v>0</v>
-      </c>
-      <c r="K64" s="86">
-        <v>0</v>
-      </c>
-      <c r="L64" s="86">
-        <v>0</v>
-      </c>
-      <c r="M64" s="86">
-        <v>1</v>
-      </c>
-      <c r="N64" s="86">
-        <v>0</v>
-      </c>
-      <c r="O64" s="86">
-        <v>1</v>
-      </c>
-      <c r="P64" s="86">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="86">
-        <v>1</v>
-      </c>
-      <c r="R64" s="86">
-        <v>0</v>
-      </c>
-      <c r="S64" s="86">
-        <v>0</v>
-      </c>
-      <c r="T64" s="86">
-        <v>1</v>
-      </c>
-      <c r="U64" s="86">
-        <v>0</v>
-      </c>
-      <c r="V64" s="86">
-        <v>0</v>
-      </c>
-      <c r="W64" s="86">
-        <v>1</v>
-      </c>
-      <c r="X64" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="86">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="86">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="86">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="71"/>
-      <c r="AH64" s="71"/>
-      <c r="AI64" s="71"/>
-      <c r="AJ64" s="71"/>
-      <c r="AL64" s="71"/>
-      <c r="AM64" s="71"/>
-      <c r="AN64" s="71"/>
-      <c r="AO64" s="71"/>
+      <c r="A64" s="59">
+        <v>0</v>
+      </c>
+      <c r="B64" s="59">
+        <v>0</v>
+      </c>
+      <c r="C64" s="59">
+        <v>0</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0</v>
+      </c>
+      <c r="E64" s="59">
+        <v>1</v>
+      </c>
+      <c r="F64" s="59">
+        <v>0</v>
+      </c>
+      <c r="G64" s="59">
+        <v>0</v>
+      </c>
+      <c r="H64" s="59">
+        <v>0</v>
+      </c>
+      <c r="I64" s="59">
+        <v>0</v>
+      </c>
+      <c r="J64" s="59">
+        <v>0</v>
+      </c>
+      <c r="K64" s="59">
+        <v>0</v>
+      </c>
+      <c r="L64" s="59">
+        <v>0</v>
+      </c>
+      <c r="M64" s="59">
+        <v>1</v>
+      </c>
+      <c r="N64" s="59">
+        <v>0</v>
+      </c>
+      <c r="O64" s="59">
+        <v>1</v>
+      </c>
+      <c r="P64" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="59">
+        <v>1</v>
+      </c>
+      <c r="R64" s="59">
+        <v>0</v>
+      </c>
+      <c r="S64" s="59">
+        <v>0</v>
+      </c>
+      <c r="T64" s="59">
+        <v>1</v>
+      </c>
+      <c r="U64" s="59">
+        <v>0</v>
+      </c>
+      <c r="V64" s="59">
+        <v>0</v>
+      </c>
+      <c r="W64" s="59">
+        <v>1</v>
+      </c>
+      <c r="X64" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="81"/>
+      <c r="AH64" s="81"/>
+      <c r="AI64" s="81"/>
+      <c r="AJ64" s="81"/>
+      <c r="AL64" s="81"/>
+      <c r="AM64" s="81"/>
+      <c r="AN64" s="81"/>
+      <c r="AO64" s="81"/>
     </row>
     <row r="65" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86">
+      <c r="A65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B65" s="86">
+      <c r="B65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C65" s="86">
+      <c r="C65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D65" s="86">
+      <c r="D65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E65" s="86">
+      <c r="E65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F65" s="86">
+      <c r="F65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G65" s="86">
+      <c r="G65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H65" s="86">
+      <c r="H65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I65" s="86">
+      <c r="I65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J65" s="86">
+      <c r="J65" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K65" s="86">
+      <c r="K65" s="59">
         <f>E64</f>
         <v>1</v>
       </c>
-      <c r="L65" s="86">
+      <c r="L65" s="59">
         <f>F64</f>
         <v>0</v>
       </c>
-      <c r="M65" s="86">
+      <c r="M65" s="59">
         <f>G64</f>
         <v>0</v>
       </c>
-      <c r="N65" s="86">
+      <c r="N65" s="59">
         <f>J64</f>
         <v>0</v>
       </c>
-      <c r="O65" s="86">
+      <c r="O65" s="59">
         <f>L64</f>
         <v>0</v>
       </c>
-      <c r="P65" s="86">
+      <c r="P65" s="59">
         <f>M64</f>
         <v>1</v>
       </c>
-      <c r="Q65" s="86">
-        <f t="shared" ref="Q65:V65" si="28">O64</f>
-        <v>1</v>
-      </c>
-      <c r="R65" s="86">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="S65" s="86">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="86">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="86">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="86">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="W65" s="86">
+      <c r="Q65" s="59">
+        <f t="shared" ref="Q65:V65" si="29">O64</f>
+        <v>1</v>
+      </c>
+      <c r="R65" s="59">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S65" s="59">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="59">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="W65" s="59">
         <f>V64</f>
         <v>0</v>
       </c>
-      <c r="X65" s="86">
+      <c r="X65" s="59">
         <f>W64</f>
         <v>1</v>
       </c>
-      <c r="Y65" s="86">
+      <c r="Y65" s="59">
         <f>X64</f>
         <v>0</v>
       </c>
-      <c r="Z65" s="86">
+      <c r="Z65" s="59">
         <f>Y64</f>
         <v>1</v>
       </c>
-      <c r="AA65" s="86">
+      <c r="AA65" s="59">
         <f>Z64</f>
         <v>1</v>
       </c>
-      <c r="AB65" s="86">
-        <f t="shared" ref="AB65" si="29">AB64</f>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="86">
-        <f t="shared" ref="AC65" si="30">AC64</f>
-        <v>1</v>
-      </c>
-      <c r="AD65" s="86">
-        <f t="shared" ref="AD65" si="31">AD64</f>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="86">
-        <f t="shared" ref="AE65" si="32">AE64</f>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="86">
+      <c r="AB65" s="59">
+        <f t="shared" ref="AB65" si="30">AB64</f>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="59">
+        <f t="shared" ref="AC65" si="31">AC64</f>
+        <v>1</v>
+      </c>
+      <c r="AD65" s="59">
+        <f t="shared" ref="AD65" si="32">AD64</f>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="59">
+        <f t="shared" ref="AE65" si="33">AE64</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="59">
         <f>AF64</f>
         <v>0</v>
       </c>
@@ -8288,43 +8301,43 @@
       </c>
     </row>
     <row r="66" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88" t="str">
+      <c r="B66" s="82"/>
+      <c r="C66" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A66," = (B",A65,B65,C65,D65,E65,F65,G65,H65," &lt;&lt; 24) + (B",I65,J65,K65,L65,M65,N65,O65,P65," &lt;&lt; 16) + (B",Q65,R65,S65,T65,U65,V65,W65,X65," &lt;&lt; 8) + B",Y65,Z65,AA65,AB65,AC65,AD65,AE65,AF65,";")</f>
         <v>uint32_t four = (B00000000 &lt;&lt; 24) + (B00100001 &lt;&lt; 16) + (B11100101 &lt;&lt; 8) + B01101000;</v>
       </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="89"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
-      <c r="T66" s="89"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="90"/>
-      <c r="Y66" s="90"/>
-      <c r="Z66" s="90"/>
-      <c r="AA66" s="90"/>
-      <c r="AB66" s="90"/>
-      <c r="AC66" s="90"/>
-      <c r="AD66" s="90"/>
-      <c r="AE66" s="90"/>
-      <c r="AF66" s="90"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="62"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="62"/>
+      <c r="Z66" s="62"/>
+      <c r="AA66" s="62"/>
+      <c r="AB66" s="62"/>
+      <c r="AC66" s="62"/>
+      <c r="AD66" s="62"/>
+      <c r="AE66" s="62"/>
+      <c r="AF66" s="62"/>
       <c r="AG66" s="16">
         <f>AB65</f>
         <v>0</v>
@@ -8548,43 +8561,43 @@
       </c>
     </row>
     <row r="71" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="97"/>
-      <c r="M71" s="97"/>
-      <c r="N71" s="97"/>
-      <c r="O71" s="97"/>
-      <c r="P71" s="97"/>
-      <c r="Q71" s="98"/>
-      <c r="R71" s="93" t="str">
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A75,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (five)</v>
       </c>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="94"/>
-      <c r="AA71" s="94"/>
-      <c r="AB71" s="94"/>
-      <c r="AC71" s="94"/>
-      <c r="AD71" s="94"/>
-      <c r="AE71" s="94"/>
-      <c r="AF71" s="95"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="70"/>
+      <c r="X71" s="70"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="70"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="70"/>
+      <c r="AD71" s="70"/>
+      <c r="AE71" s="70"/>
+      <c r="AF71" s="71"/>
       <c r="AG71" s="22">
         <f>M65</f>
         <v>0</v>
@@ -8620,331 +8633,331 @@
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="86">
+      <c r="E72" s="59">
         <v>21</v>
       </c>
-      <c r="F72" s="91">
+      <c r="F72" s="63">
         <v>20</v>
       </c>
-      <c r="G72" s="91">
+      <c r="G72" s="63">
         <v>4</v>
       </c>
-      <c r="H72" s="91">
+      <c r="H72" s="63">
         <v>19</v>
       </c>
-      <c r="I72" s="91">
+      <c r="I72" s="63">
         <v>16</v>
       </c>
-      <c r="J72" s="91">
+      <c r="J72" s="63">
         <v>18</v>
       </c>
-      <c r="K72" s="92"/>
-      <c r="L72" s="91">
+      <c r="K72" s="64"/>
+      <c r="L72" s="63">
         <v>17</v>
       </c>
-      <c r="M72" s="91">
+      <c r="M72" s="63">
         <v>16</v>
       </c>
-      <c r="N72" s="91">
+      <c r="N72" s="63">
         <v>5</v>
       </c>
-      <c r="O72" s="91">
+      <c r="O72" s="63">
         <v>15</v>
       </c>
-      <c r="P72" s="91">
+      <c r="P72" s="63">
         <v>14</v>
       </c>
-      <c r="Q72" s="91">
+      <c r="Q72" s="63">
         <v>13</v>
       </c>
-      <c r="R72" s="86">
+      <c r="R72" s="59">
         <v>12</v>
       </c>
-      <c r="S72" s="86">
+      <c r="S72" s="59">
         <v>11</v>
       </c>
-      <c r="T72" s="86">
+      <c r="T72" s="59">
         <v>10</v>
       </c>
-      <c r="U72" s="86">
+      <c r="U72" s="59">
         <v>6</v>
       </c>
-      <c r="V72" s="86">
+      <c r="V72" s="59">
         <v>9</v>
       </c>
-      <c r="W72" s="86">
+      <c r="W72" s="59">
         <v>8</v>
       </c>
-      <c r="X72" s="86">
+      <c r="X72" s="59">
         <v>7</v>
       </c>
-      <c r="Y72" s="86">
+      <c r="Y72" s="59">
         <v>6</v>
       </c>
-      <c r="Z72" s="86">
+      <c r="Z72" s="59">
         <v>5</v>
       </c>
-      <c r="AA72" s="99"/>
-      <c r="AB72" s="86">
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="59">
         <v>4</v>
       </c>
-      <c r="AC72" s="86">
+      <c r="AC72" s="59">
         <v>3</v>
       </c>
-      <c r="AD72" s="86">
+      <c r="AD72" s="59">
         <v>2</v>
       </c>
-      <c r="AE72" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="70" t="s">
+      <c r="AE72" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH72" s="70"/>
-      <c r="AI72" s="70"/>
-      <c r="AJ72" s="70"/>
-      <c r="AL72" s="70" t="s">
+      <c r="AH72" s="79"/>
+      <c r="AI72" s="79"/>
+      <c r="AJ72" s="79"/>
+      <c r="AL72" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM72" s="70"/>
-      <c r="AN72" s="70"/>
-      <c r="AO72" s="70"/>
+      <c r="AM72" s="79"/>
+      <c r="AN72" s="79"/>
+      <c r="AO72" s="79"/>
     </row>
     <row r="73" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86">
-        <v>0</v>
-      </c>
-      <c r="B73" s="86">
-        <v>0</v>
-      </c>
-      <c r="C73" s="86">
-        <v>0</v>
-      </c>
-      <c r="D73" s="86">
-        <v>0</v>
-      </c>
-      <c r="E73" s="86">
-        <v>0</v>
-      </c>
-      <c r="F73" s="86">
-        <v>1</v>
-      </c>
-      <c r="G73" s="86">
-        <v>0</v>
-      </c>
-      <c r="H73" s="86">
-        <v>0</v>
-      </c>
-      <c r="I73" s="86">
-        <v>0</v>
-      </c>
-      <c r="J73" s="86">
-        <v>0</v>
-      </c>
-      <c r="K73" s="86">
-        <v>0</v>
-      </c>
-      <c r="L73" s="86">
-        <v>1</v>
-      </c>
-      <c r="M73" s="86">
-        <v>1</v>
-      </c>
-      <c r="N73" s="86">
-        <v>0</v>
-      </c>
-      <c r="O73" s="86">
-        <v>0</v>
-      </c>
-      <c r="P73" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="86">
-        <v>1</v>
-      </c>
-      <c r="R73" s="86">
-        <v>0</v>
-      </c>
-      <c r="S73" s="86">
-        <v>0</v>
-      </c>
-      <c r="T73" s="86">
-        <v>0</v>
-      </c>
-      <c r="U73" s="86">
-        <v>0</v>
-      </c>
-      <c r="V73" s="86">
-        <v>1</v>
-      </c>
-      <c r="W73" s="86">
-        <v>1</v>
-      </c>
-      <c r="X73" s="86">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="86">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="86">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="86">
-        <v>1</v>
-      </c>
-      <c r="AG73" s="71"/>
-      <c r="AH73" s="71"/>
-      <c r="AI73" s="71"/>
-      <c r="AJ73" s="71"/>
-      <c r="AL73" s="71"/>
-      <c r="AM73" s="71"/>
-      <c r="AN73" s="71"/>
-      <c r="AO73" s="71"/>
+      <c r="A73" s="59">
+        <v>0</v>
+      </c>
+      <c r="B73" s="59">
+        <v>0</v>
+      </c>
+      <c r="C73" s="59">
+        <v>0</v>
+      </c>
+      <c r="D73" s="59">
+        <v>0</v>
+      </c>
+      <c r="E73" s="59">
+        <v>0</v>
+      </c>
+      <c r="F73" s="59">
+        <v>1</v>
+      </c>
+      <c r="G73" s="59">
+        <v>0</v>
+      </c>
+      <c r="H73" s="59">
+        <v>0</v>
+      </c>
+      <c r="I73" s="59">
+        <v>0</v>
+      </c>
+      <c r="J73" s="59">
+        <v>0</v>
+      </c>
+      <c r="K73" s="59">
+        <v>0</v>
+      </c>
+      <c r="L73" s="59">
+        <v>1</v>
+      </c>
+      <c r="M73" s="59">
+        <v>1</v>
+      </c>
+      <c r="N73" s="59">
+        <v>0</v>
+      </c>
+      <c r="O73" s="59">
+        <v>0</v>
+      </c>
+      <c r="P73" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="59">
+        <v>1</v>
+      </c>
+      <c r="R73" s="59">
+        <v>0</v>
+      </c>
+      <c r="S73" s="59">
+        <v>0</v>
+      </c>
+      <c r="T73" s="59">
+        <v>0</v>
+      </c>
+      <c r="U73" s="59">
+        <v>0</v>
+      </c>
+      <c r="V73" s="59">
+        <v>1</v>
+      </c>
+      <c r="W73" s="59">
+        <v>1</v>
+      </c>
+      <c r="X73" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="81"/>
+      <c r="AH73" s="81"/>
+      <c r="AI73" s="81"/>
+      <c r="AJ73" s="81"/>
+      <c r="AL73" s="81"/>
+      <c r="AM73" s="81"/>
+      <c r="AN73" s="81"/>
+      <c r="AO73" s="81"/>
     </row>
     <row r="74" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86">
+      <c r="A74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B74" s="86">
+      <c r="B74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C74" s="86">
+      <c r="C74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D74" s="86">
+      <c r="D74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E74" s="86">
+      <c r="E74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F74" s="86">
+      <c r="F74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G74" s="86">
+      <c r="G74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H74" s="86">
+      <c r="H74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I74" s="86">
+      <c r="I74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J74" s="86">
+      <c r="J74" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K74" s="86">
+      <c r="K74" s="59">
         <f>E73</f>
         <v>0</v>
       </c>
-      <c r="L74" s="86">
+      <c r="L74" s="59">
         <f>F73</f>
         <v>1</v>
       </c>
-      <c r="M74" s="86">
+      <c r="M74" s="59">
         <f>G73</f>
         <v>0</v>
       </c>
-      <c r="N74" s="86">
+      <c r="N74" s="59">
         <f>J73</f>
         <v>0</v>
       </c>
-      <c r="O74" s="86">
+      <c r="O74" s="59">
         <f>L73</f>
         <v>1</v>
       </c>
-      <c r="P74" s="86">
+      <c r="P74" s="59">
         <f>M73</f>
         <v>1</v>
       </c>
-      <c r="Q74" s="86">
-        <f t="shared" ref="Q74:V74" si="33">O73</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="86">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="86">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="T74" s="86">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="86">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="86">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="86">
+      <c r="Q74" s="59">
+        <f t="shared" ref="Q74:V74" si="34">O73</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="59">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="59">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="T74" s="59">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="59">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="59">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="59">
         <f>V73</f>
         <v>1</v>
       </c>
-      <c r="X74" s="86">
+      <c r="X74" s="59">
         <f>W73</f>
         <v>1</v>
       </c>
-      <c r="Y74" s="86">
+      <c r="Y74" s="59">
         <f>X73</f>
         <v>1</v>
       </c>
-      <c r="Z74" s="86">
+      <c r="Z74" s="59">
         <f>Y73</f>
         <v>0</v>
       </c>
-      <c r="AA74" s="86">
+      <c r="AA74" s="59">
         <f>Z73</f>
         <v>0</v>
       </c>
-      <c r="AB74" s="86">
-        <f t="shared" ref="AB74" si="34">AB73</f>
-        <v>1</v>
-      </c>
-      <c r="AC74" s="86">
-        <f t="shared" ref="AC74" si="35">AC73</f>
-        <v>1</v>
-      </c>
-      <c r="AD74" s="86">
-        <f t="shared" ref="AD74" si="36">AD73</f>
-        <v>1</v>
-      </c>
-      <c r="AE74" s="86">
-        <f t="shared" ref="AE74" si="37">AE73</f>
-        <v>1</v>
-      </c>
-      <c r="AF74" s="86">
+      <c r="AB74" s="59">
+        <f t="shared" ref="AB74" si="35">AB73</f>
+        <v>1</v>
+      </c>
+      <c r="AC74" s="59">
+        <f t="shared" ref="AC74" si="36">AC73</f>
+        <v>1</v>
+      </c>
+      <c r="AD74" s="59">
+        <f t="shared" ref="AD74" si="37">AD73</f>
+        <v>1</v>
+      </c>
+      <c r="AE74" s="59">
+        <f t="shared" ref="AE74" si="38">AE73</f>
+        <v>1</v>
+      </c>
+      <c r="AF74" s="59">
         <f>AF73</f>
         <v>1</v>
       </c>
@@ -8978,43 +8991,43 @@
       </c>
     </row>
     <row r="75" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="88" t="str">
+      <c r="B75" s="82"/>
+      <c r="C75" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A75," = (B",A74,B74,C74,D74,E74,F74,G74,H74," &lt;&lt; 24) + (B",I74,J74,K74,L74,M74,N74,O74,P74," &lt;&lt; 16) + (B",Q74,R74,S74,T74,U74,V74,W74,X74," &lt;&lt; 8) + B",Y74,Z74,AA74,AB74,AC74,AD74,AE74,AF74,";")</f>
         <v>uint32_t five = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00100011 &lt;&lt; 8) + B10011111;</v>
       </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
-      <c r="Z75" s="90"/>
-      <c r="AA75" s="90"/>
-      <c r="AB75" s="90"/>
-      <c r="AC75" s="90"/>
-      <c r="AD75" s="90"/>
-      <c r="AE75" s="90"/>
-      <c r="AF75" s="90"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="62"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="62"/>
+      <c r="Z75" s="62"/>
+      <c r="AA75" s="62"/>
+      <c r="AB75" s="62"/>
+      <c r="AC75" s="62"/>
+      <c r="AD75" s="62"/>
+      <c r="AE75" s="62"/>
+      <c r="AF75" s="62"/>
       <c r="AG75" s="16">
         <f>AB74</f>
         <v>1</v>
@@ -9238,43 +9251,43 @@
       </c>
     </row>
     <row r="80" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="96" t="s">
+      <c r="A80" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="97"/>
-      <c r="L80" s="97"/>
-      <c r="M80" s="97"/>
-      <c r="N80" s="97"/>
-      <c r="O80" s="97"/>
-      <c r="P80" s="97"/>
-      <c r="Q80" s="98"/>
-      <c r="R80" s="93" t="str">
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A84,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (six)</v>
       </c>
-      <c r="S80" s="94"/>
-      <c r="T80" s="94"/>
-      <c r="U80" s="94"/>
-      <c r="V80" s="94"/>
-      <c r="W80" s="94"/>
-      <c r="X80" s="94"/>
-      <c r="Y80" s="94"/>
-      <c r="Z80" s="94"/>
-      <c r="AA80" s="94"/>
-      <c r="AB80" s="94"/>
-      <c r="AC80" s="94"/>
-      <c r="AD80" s="94"/>
-      <c r="AE80" s="94"/>
-      <c r="AF80" s="95"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="V80" s="70"/>
+      <c r="W80" s="70"/>
+      <c r="X80" s="70"/>
+      <c r="Y80" s="70"/>
+      <c r="Z80" s="70"/>
+      <c r="AA80" s="70"/>
+      <c r="AB80" s="70"/>
+      <c r="AC80" s="70"/>
+      <c r="AD80" s="70"/>
+      <c r="AE80" s="70"/>
+      <c r="AF80" s="71"/>
       <c r="AG80" s="22">
         <f>M74</f>
         <v>0</v>
@@ -9310,331 +9323,331 @@
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="86">
+      <c r="E81" s="59">
         <v>21</v>
       </c>
-      <c r="F81" s="91">
+      <c r="F81" s="63">
         <v>20</v>
       </c>
-      <c r="G81" s="91">
+      <c r="G81" s="63">
         <v>4</v>
       </c>
-      <c r="H81" s="91">
+      <c r="H81" s="63">
         <v>19</v>
       </c>
-      <c r="I81" s="91">
+      <c r="I81" s="63">
         <v>16</v>
       </c>
-      <c r="J81" s="91">
+      <c r="J81" s="63">
         <v>18</v>
       </c>
-      <c r="K81" s="92"/>
-      <c r="L81" s="91">
+      <c r="K81" s="64"/>
+      <c r="L81" s="63">
         <v>17</v>
       </c>
-      <c r="M81" s="91">
+      <c r="M81" s="63">
         <v>16</v>
       </c>
-      <c r="N81" s="91">
+      <c r="N81" s="63">
         <v>5</v>
       </c>
-      <c r="O81" s="91">
+      <c r="O81" s="63">
         <v>15</v>
       </c>
-      <c r="P81" s="91">
+      <c r="P81" s="63">
         <v>14</v>
       </c>
-      <c r="Q81" s="91">
+      <c r="Q81" s="63">
         <v>13</v>
       </c>
-      <c r="R81" s="86">
+      <c r="R81" s="59">
         <v>12</v>
       </c>
-      <c r="S81" s="86">
+      <c r="S81" s="59">
         <v>11</v>
       </c>
-      <c r="T81" s="86">
+      <c r="T81" s="59">
         <v>10</v>
       </c>
-      <c r="U81" s="86">
+      <c r="U81" s="59">
         <v>6</v>
       </c>
-      <c r="V81" s="86">
+      <c r="V81" s="59">
         <v>9</v>
       </c>
-      <c r="W81" s="86">
+      <c r="W81" s="59">
         <v>8</v>
       </c>
-      <c r="X81" s="86">
+      <c r="X81" s="59">
         <v>7</v>
       </c>
-      <c r="Y81" s="86">
+      <c r="Y81" s="59">
         <v>6</v>
       </c>
-      <c r="Z81" s="86">
+      <c r="Z81" s="59">
         <v>5</v>
       </c>
-      <c r="AA81" s="99"/>
-      <c r="AB81" s="86">
+      <c r="AA81" s="65"/>
+      <c r="AB81" s="59">
         <v>4</v>
       </c>
-      <c r="AC81" s="86">
+      <c r="AC81" s="59">
         <v>3</v>
       </c>
-      <c r="AD81" s="86">
+      <c r="AD81" s="59">
         <v>2</v>
       </c>
-      <c r="AE81" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="70" t="s">
+      <c r="AE81" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH81" s="70"/>
-      <c r="AI81" s="70"/>
-      <c r="AJ81" s="70"/>
-      <c r="AL81" s="70" t="s">
+      <c r="AH81" s="79"/>
+      <c r="AI81" s="79"/>
+      <c r="AJ81" s="79"/>
+      <c r="AL81" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM81" s="70"/>
-      <c r="AN81" s="70"/>
-      <c r="AO81" s="70"/>
+      <c r="AM81" s="79"/>
+      <c r="AN81" s="79"/>
+      <c r="AO81" s="79"/>
     </row>
     <row r="82" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86">
-        <v>0</v>
-      </c>
-      <c r="B82" s="86">
-        <v>0</v>
-      </c>
-      <c r="C82" s="86">
-        <v>0</v>
-      </c>
-      <c r="D82" s="86">
-        <v>0</v>
-      </c>
-      <c r="E82" s="86">
-        <v>0</v>
-      </c>
-      <c r="F82" s="86">
-        <v>1</v>
-      </c>
-      <c r="G82" s="86">
-        <v>0</v>
-      </c>
-      <c r="H82" s="86">
-        <v>0</v>
-      </c>
-      <c r="I82" s="86">
-        <v>0</v>
-      </c>
-      <c r="J82" s="86">
-        <v>0</v>
-      </c>
-      <c r="K82" s="86">
-        <v>0</v>
-      </c>
-      <c r="L82" s="86">
-        <v>1</v>
-      </c>
-      <c r="M82" s="86">
-        <v>1</v>
-      </c>
-      <c r="N82" s="86">
-        <v>0</v>
-      </c>
-      <c r="O82" s="86">
-        <v>0</v>
-      </c>
-      <c r="P82" s="86">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="86">
-        <v>0</v>
-      </c>
-      <c r="R82" s="86">
-        <v>1</v>
-      </c>
-      <c r="S82" s="86">
-        <v>1</v>
-      </c>
-      <c r="T82" s="86">
-        <v>1</v>
-      </c>
-      <c r="U82" s="86">
-        <v>0</v>
-      </c>
-      <c r="V82" s="86">
-        <v>0</v>
-      </c>
-      <c r="W82" s="86">
-        <v>0</v>
-      </c>
-      <c r="X82" s="86">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="86">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE82" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="71"/>
-      <c r="AH82" s="71"/>
-      <c r="AI82" s="71"/>
-      <c r="AJ82" s="71"/>
-      <c r="AL82" s="71"/>
-      <c r="AM82" s="71"/>
-      <c r="AN82" s="71"/>
-      <c r="AO82" s="71"/>
+      <c r="A82" s="59">
+        <v>0</v>
+      </c>
+      <c r="B82" s="59">
+        <v>0</v>
+      </c>
+      <c r="C82" s="59">
+        <v>0</v>
+      </c>
+      <c r="D82" s="59">
+        <v>0</v>
+      </c>
+      <c r="E82" s="59">
+        <v>0</v>
+      </c>
+      <c r="F82" s="59">
+        <v>1</v>
+      </c>
+      <c r="G82" s="59">
+        <v>0</v>
+      </c>
+      <c r="H82" s="59">
+        <v>0</v>
+      </c>
+      <c r="I82" s="59">
+        <v>0</v>
+      </c>
+      <c r="J82" s="59">
+        <v>0</v>
+      </c>
+      <c r="K82" s="59">
+        <v>0</v>
+      </c>
+      <c r="L82" s="59">
+        <v>1</v>
+      </c>
+      <c r="M82" s="59">
+        <v>1</v>
+      </c>
+      <c r="N82" s="59">
+        <v>0</v>
+      </c>
+      <c r="O82" s="59">
+        <v>0</v>
+      </c>
+      <c r="P82" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="59">
+        <v>0</v>
+      </c>
+      <c r="R82" s="59">
+        <v>1</v>
+      </c>
+      <c r="S82" s="59">
+        <v>1</v>
+      </c>
+      <c r="T82" s="59">
+        <v>1</v>
+      </c>
+      <c r="U82" s="59">
+        <v>0</v>
+      </c>
+      <c r="V82" s="59">
+        <v>0</v>
+      </c>
+      <c r="W82" s="59">
+        <v>0</v>
+      </c>
+      <c r="X82" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF82" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="81"/>
+      <c r="AH82" s="81"/>
+      <c r="AI82" s="81"/>
+      <c r="AJ82" s="81"/>
+      <c r="AL82" s="81"/>
+      <c r="AM82" s="81"/>
+      <c r="AN82" s="81"/>
+      <c r="AO82" s="81"/>
     </row>
     <row r="83" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86">
+      <c r="A83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B83" s="86">
+      <c r="B83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C83" s="86">
+      <c r="C83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D83" s="86">
+      <c r="D83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E83" s="86">
+      <c r="E83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F83" s="86">
+      <c r="F83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G83" s="86">
+      <c r="G83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H83" s="86">
+      <c r="H83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I83" s="86">
+      <c r="I83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J83" s="86">
+      <c r="J83" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K83" s="86">
+      <c r="K83" s="59">
         <f>E82</f>
         <v>0</v>
       </c>
-      <c r="L83" s="86">
+      <c r="L83" s="59">
         <f>F82</f>
         <v>1</v>
       </c>
-      <c r="M83" s="86">
+      <c r="M83" s="59">
         <f>G82</f>
         <v>0</v>
       </c>
-      <c r="N83" s="86">
+      <c r="N83" s="59">
         <f>J82</f>
         <v>0</v>
       </c>
-      <c r="O83" s="86">
+      <c r="O83" s="59">
         <f>L82</f>
         <v>1</v>
       </c>
-      <c r="P83" s="86">
+      <c r="P83" s="59">
         <f>M82</f>
         <v>1</v>
       </c>
-      <c r="Q83" s="86">
-        <f t="shared" ref="Q83:V83" si="38">O82</f>
-        <v>0</v>
-      </c>
-      <c r="R83" s="86">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="S83" s="86">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="86">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="U83" s="86">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="V83" s="86">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="W83" s="86">
+      <c r="Q83" s="59">
+        <f t="shared" ref="Q83:V83" si="39">O82</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="59">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="S83" s="59">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="59">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="U83" s="59">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="59">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="W83" s="59">
         <f>V82</f>
         <v>0</v>
       </c>
-      <c r="X83" s="86">
+      <c r="X83" s="59">
         <f>W82</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="86">
+      <c r="Y83" s="59">
         <f>X82</f>
         <v>1</v>
       </c>
-      <c r="Z83" s="86">
+      <c r="Z83" s="59">
         <f>Y82</f>
         <v>0</v>
       </c>
-      <c r="AA83" s="86">
+      <c r="AA83" s="59">
         <f>Z82</f>
         <v>0</v>
       </c>
-      <c r="AB83" s="86">
-        <f t="shared" ref="AB83" si="39">AB82</f>
-        <v>1</v>
-      </c>
-      <c r="AC83" s="86">
-        <f t="shared" ref="AC83" si="40">AC82</f>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="86">
-        <f t="shared" ref="AD83" si="41">AD82</f>
-        <v>1</v>
-      </c>
-      <c r="AE83" s="86">
-        <f t="shared" ref="AE83" si="42">AE82</f>
-        <v>1</v>
-      </c>
-      <c r="AF83" s="86">
+      <c r="AB83" s="59">
+        <f t="shared" ref="AB83" si="40">AB82</f>
+        <v>1</v>
+      </c>
+      <c r="AC83" s="59">
+        <f t="shared" ref="AC83" si="41">AC82</f>
+        <v>0</v>
+      </c>
+      <c r="AD83" s="59">
+        <f t="shared" ref="AD83" si="42">AD82</f>
+        <v>1</v>
+      </c>
+      <c r="AE83" s="59">
+        <f t="shared" ref="AE83" si="43">AE82</f>
+        <v>1</v>
+      </c>
+      <c r="AF83" s="59">
         <f>AF82</f>
         <v>0</v>
       </c>
@@ -9668,43 +9681,43 @@
       </c>
     </row>
     <row r="84" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="88" t="str">
+      <c r="B84" s="82"/>
+      <c r="C84" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A84," = (B",A83,B83,C83,D83,E83,F83,G83,H83," &lt;&lt; 24) + (B",I83,J83,K83,L83,M83,N83,O83,P83," &lt;&lt; 16) + (B",Q83,R83,S83,T83,U83,V83,W83,X83," &lt;&lt; 8) + B",Y83,Z83,AA83,AB83,AC83,AD83,AE83,AF83,";")</f>
         <v>uint32_t six = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011100 &lt;&lt; 8) + B10010110;</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="85"/>
-      <c r="Q84" s="89"/>
-      <c r="R84" s="89"/>
-      <c r="S84" s="89"/>
-      <c r="T84" s="89"/>
-      <c r="U84" s="84"/>
-      <c r="V84" s="84"/>
-      <c r="W84" s="90"/>
-      <c r="X84" s="90"/>
-      <c r="Y84" s="90"/>
-      <c r="Z84" s="90"/>
-      <c r="AA84" s="90"/>
-      <c r="AB84" s="90"/>
-      <c r="AC84" s="90"/>
-      <c r="AD84" s="90"/>
-      <c r="AE84" s="90"/>
-      <c r="AF84" s="90"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
+      <c r="W84" s="62"/>
+      <c r="X84" s="62"/>
+      <c r="Y84" s="62"/>
+      <c r="Z84" s="62"/>
+      <c r="AA84" s="62"/>
+      <c r="AB84" s="62"/>
+      <c r="AC84" s="62"/>
+      <c r="AD84" s="62"/>
+      <c r="AE84" s="62"/>
+      <c r="AF84" s="62"/>
       <c r="AG84" s="16">
         <f>AB83</f>
         <v>1</v>
@@ -9928,43 +9941,43 @@
       </c>
     </row>
     <row r="89" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="97"/>
-      <c r="L89" s="97"/>
-      <c r="M89" s="97"/>
-      <c r="N89" s="97"/>
-      <c r="O89" s="97"/>
-      <c r="P89" s="97"/>
-      <c r="Q89" s="98"/>
-      <c r="R89" s="93" t="str">
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="73"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A93,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (seven)</v>
       </c>
-      <c r="S89" s="94"/>
-      <c r="T89" s="94"/>
-      <c r="U89" s="94"/>
-      <c r="V89" s="94"/>
-      <c r="W89" s="94"/>
-      <c r="X89" s="94"/>
-      <c r="Y89" s="94"/>
-      <c r="Z89" s="94"/>
-      <c r="AA89" s="94"/>
-      <c r="AB89" s="94"/>
-      <c r="AC89" s="94"/>
-      <c r="AD89" s="94"/>
-      <c r="AE89" s="94"/>
-      <c r="AF89" s="95"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
+      <c r="Y89" s="70"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="70"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="70"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="70"/>
+      <c r="AF89" s="71"/>
       <c r="AG89" s="22">
         <f>M83</f>
         <v>0</v>
@@ -10000,331 +10013,331 @@
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="86">
+      <c r="E90" s="59">
         <v>21</v>
       </c>
-      <c r="F90" s="91">
+      <c r="F90" s="63">
         <v>20</v>
       </c>
-      <c r="G90" s="91">
+      <c r="G90" s="63">
         <v>4</v>
       </c>
-      <c r="H90" s="91">
+      <c r="H90" s="63">
         <v>19</v>
       </c>
-      <c r="I90" s="91">
+      <c r="I90" s="63">
         <v>16</v>
       </c>
-      <c r="J90" s="91">
+      <c r="J90" s="63">
         <v>18</v>
       </c>
-      <c r="K90" s="92"/>
-      <c r="L90" s="91">
+      <c r="K90" s="64"/>
+      <c r="L90" s="63">
         <v>17</v>
       </c>
-      <c r="M90" s="91">
+      <c r="M90" s="63">
         <v>16</v>
       </c>
-      <c r="N90" s="91">
+      <c r="N90" s="63">
         <v>5</v>
       </c>
-      <c r="O90" s="91">
+      <c r="O90" s="63">
         <v>15</v>
       </c>
-      <c r="P90" s="91">
+      <c r="P90" s="63">
         <v>14</v>
       </c>
-      <c r="Q90" s="91">
+      <c r="Q90" s="63">
         <v>13</v>
       </c>
-      <c r="R90" s="86">
+      <c r="R90" s="59">
         <v>12</v>
       </c>
-      <c r="S90" s="86">
+      <c r="S90" s="59">
         <v>11</v>
       </c>
-      <c r="T90" s="86">
+      <c r="T90" s="59">
         <v>10</v>
       </c>
-      <c r="U90" s="86">
+      <c r="U90" s="59">
         <v>6</v>
       </c>
-      <c r="V90" s="86">
+      <c r="V90" s="59">
         <v>9</v>
       </c>
-      <c r="W90" s="86">
+      <c r="W90" s="59">
         <v>8</v>
       </c>
-      <c r="X90" s="86">
+      <c r="X90" s="59">
         <v>7</v>
       </c>
-      <c r="Y90" s="86">
+      <c r="Y90" s="59">
         <v>6</v>
       </c>
-      <c r="Z90" s="86">
+      <c r="Z90" s="59">
         <v>5</v>
       </c>
-      <c r="AA90" s="99"/>
-      <c r="AB90" s="86">
+      <c r="AA90" s="65"/>
+      <c r="AB90" s="59">
         <v>4</v>
       </c>
-      <c r="AC90" s="86">
+      <c r="AC90" s="59">
         <v>3</v>
       </c>
-      <c r="AD90" s="86">
+      <c r="AD90" s="59">
         <v>2</v>
       </c>
-      <c r="AE90" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF90" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="70" t="s">
+      <c r="AE90" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH90" s="70"/>
-      <c r="AI90" s="70"/>
-      <c r="AJ90" s="70"/>
-      <c r="AL90" s="70" t="s">
+      <c r="AH90" s="79"/>
+      <c r="AI90" s="79"/>
+      <c r="AJ90" s="79"/>
+      <c r="AL90" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM90" s="70"/>
-      <c r="AN90" s="70"/>
-      <c r="AO90" s="70"/>
+      <c r="AM90" s="79"/>
+      <c r="AN90" s="79"/>
+      <c r="AO90" s="79"/>
     </row>
     <row r="91" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86">
-        <v>0</v>
-      </c>
-      <c r="B91" s="86">
-        <v>0</v>
-      </c>
-      <c r="C91" s="86">
-        <v>0</v>
-      </c>
-      <c r="D91" s="86">
-        <v>0</v>
-      </c>
-      <c r="E91" s="86">
-        <v>0</v>
-      </c>
-      <c r="F91" s="86">
-        <v>0</v>
-      </c>
-      <c r="G91" s="86">
-        <v>0</v>
-      </c>
-      <c r="H91" s="86">
-        <v>1</v>
-      </c>
-      <c r="I91" s="86">
-        <v>0</v>
-      </c>
-      <c r="J91" s="86">
-        <v>0</v>
-      </c>
-      <c r="K91" s="86">
-        <v>0</v>
-      </c>
-      <c r="L91" s="86">
-        <v>1</v>
-      </c>
-      <c r="M91" s="86">
-        <v>0</v>
-      </c>
-      <c r="N91" s="86">
-        <v>0</v>
-      </c>
-      <c r="O91" s="86">
-        <v>1</v>
-      </c>
-      <c r="P91" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="86">
-        <v>0</v>
-      </c>
-      <c r="R91" s="86">
-        <v>1</v>
-      </c>
-      <c r="S91" s="86">
-        <v>0</v>
-      </c>
-      <c r="T91" s="86">
-        <v>0</v>
-      </c>
-      <c r="U91" s="86">
-        <v>0</v>
-      </c>
-      <c r="V91" s="86">
-        <v>0</v>
-      </c>
-      <c r="W91" s="86">
-        <v>0</v>
-      </c>
-      <c r="X91" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z91" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="86">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="86">
-        <v>1</v>
-      </c>
-      <c r="AD91" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE91" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF91" s="86">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="71"/>
-      <c r="AH91" s="71"/>
-      <c r="AI91" s="71"/>
-      <c r="AJ91" s="71"/>
-      <c r="AL91" s="71"/>
-      <c r="AM91" s="71"/>
-      <c r="AN91" s="71"/>
-      <c r="AO91" s="71"/>
+      <c r="A91" s="59">
+        <v>0</v>
+      </c>
+      <c r="B91" s="59">
+        <v>0</v>
+      </c>
+      <c r="C91" s="59">
+        <v>0</v>
+      </c>
+      <c r="D91" s="59">
+        <v>0</v>
+      </c>
+      <c r="E91" s="59">
+        <v>0</v>
+      </c>
+      <c r="F91" s="59">
+        <v>0</v>
+      </c>
+      <c r="G91" s="59">
+        <v>0</v>
+      </c>
+      <c r="H91" s="59">
+        <v>1</v>
+      </c>
+      <c r="I91" s="59">
+        <v>0</v>
+      </c>
+      <c r="J91" s="59">
+        <v>0</v>
+      </c>
+      <c r="K91" s="59">
+        <v>0</v>
+      </c>
+      <c r="L91" s="59">
+        <v>1</v>
+      </c>
+      <c r="M91" s="59">
+        <v>0</v>
+      </c>
+      <c r="N91" s="59">
+        <v>0</v>
+      </c>
+      <c r="O91" s="59">
+        <v>1</v>
+      </c>
+      <c r="P91" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="59">
+        <v>0</v>
+      </c>
+      <c r="R91" s="59">
+        <v>1</v>
+      </c>
+      <c r="S91" s="59">
+        <v>0</v>
+      </c>
+      <c r="T91" s="59">
+        <v>0</v>
+      </c>
+      <c r="U91" s="59">
+        <v>0</v>
+      </c>
+      <c r="V91" s="59">
+        <v>0</v>
+      </c>
+      <c r="W91" s="59">
+        <v>0</v>
+      </c>
+      <c r="X91" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG91" s="81"/>
+      <c r="AH91" s="81"/>
+      <c r="AI91" s="81"/>
+      <c r="AJ91" s="81"/>
+      <c r="AL91" s="81"/>
+      <c r="AM91" s="81"/>
+      <c r="AN91" s="81"/>
+      <c r="AO91" s="81"/>
     </row>
     <row r="92" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86">
+      <c r="A92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B92" s="86">
+      <c r="B92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C92" s="86">
+      <c r="C92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D92" s="86">
+      <c r="D92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E92" s="86">
+      <c r="E92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F92" s="86">
+      <c r="F92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G92" s="86">
+      <c r="G92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H92" s="86">
+      <c r="H92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I92" s="86">
+      <c r="I92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J92" s="86">
+      <c r="J92" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K92" s="86">
+      <c r="K92" s="59">
         <f>E91</f>
         <v>0</v>
       </c>
-      <c r="L92" s="86">
+      <c r="L92" s="59">
         <f>F91</f>
         <v>0</v>
       </c>
-      <c r="M92" s="86">
+      <c r="M92" s="59">
         <f>H91</f>
         <v>1</v>
       </c>
-      <c r="N92" s="86">
+      <c r="N92" s="59">
         <f>J91</f>
         <v>0</v>
       </c>
-      <c r="O92" s="86">
+      <c r="O92" s="59">
         <f>L91</f>
         <v>1</v>
       </c>
-      <c r="P92" s="86">
+      <c r="P92" s="59">
         <f>M91</f>
         <v>0</v>
       </c>
-      <c r="Q92" s="86">
-        <f t="shared" ref="Q92:V92" si="43">O91</f>
-        <v>1</v>
-      </c>
-      <c r="R92" s="86">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="86">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="T92" s="86">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="U92" s="86">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="86">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="86">
+      <c r="Q92" s="59">
+        <f t="shared" ref="Q92:V92" si="44">O91</f>
+        <v>1</v>
+      </c>
+      <c r="R92" s="59">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="59">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="59">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="U92" s="59">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="59">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="59">
         <f>V91</f>
         <v>0</v>
       </c>
-      <c r="X92" s="86">
+      <c r="X92" s="59">
         <f>W91</f>
         <v>0</v>
       </c>
-      <c r="Y92" s="86">
+      <c r="Y92" s="59">
         <f>X91</f>
         <v>0</v>
       </c>
-      <c r="Z92" s="86">
+      <c r="Z92" s="59">
         <f>Y91</f>
         <v>1</v>
       </c>
-      <c r="AA92" s="86">
+      <c r="AA92" s="59">
         <f>Z91</f>
         <v>0</v>
       </c>
-      <c r="AB92" s="86">
-        <f t="shared" ref="AB92" si="44">AB91</f>
-        <v>0</v>
-      </c>
-      <c r="AC92" s="86">
-        <f t="shared" ref="AC92" si="45">AC91</f>
-        <v>1</v>
-      </c>
-      <c r="AD92" s="86">
-        <f t="shared" ref="AD92" si="46">AD91</f>
-        <v>1</v>
-      </c>
-      <c r="AE92" s="86">
-        <f t="shared" ref="AE92" si="47">AE91</f>
-        <v>1</v>
-      </c>
-      <c r="AF92" s="86">
+      <c r="AB92" s="59">
+        <f t="shared" ref="AB92" si="45">AB91</f>
+        <v>0</v>
+      </c>
+      <c r="AC92" s="59">
+        <f t="shared" ref="AC92" si="46">AC91</f>
+        <v>1</v>
+      </c>
+      <c r="AD92" s="59">
+        <f t="shared" ref="AD92" si="47">AD91</f>
+        <v>1</v>
+      </c>
+      <c r="AE92" s="59">
+        <f t="shared" ref="AE92" si="48">AE91</f>
+        <v>1</v>
+      </c>
+      <c r="AF92" s="59">
         <f>AF91</f>
         <v>1</v>
       </c>
@@ -10358,43 +10371,43 @@
       </c>
     </row>
     <row r="93" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="87" t="s">
+      <c r="A93" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="87"/>
-      <c r="C93" s="88" t="str">
+      <c r="B93" s="82"/>
+      <c r="C93" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A93," = (B",A92,B92,C92,D92,E92,F92,G92,H92," &lt;&lt; 24) + (B",I92,J92,K92,L92,M92,N92,O92,P92," &lt;&lt; 16) + (B",Q92,R92,S92,T92,U92,V92,W92,X92," &lt;&lt; 8) + B",Y92,Z92,AA92,AB92,AC92,AD92,AE92,AF92,";")</f>
         <v>uint32_t seven = (B00000000 &lt;&lt; 24) + (B00001010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01001111;</v>
       </c>
-      <c r="D93" s="89"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="89"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="85"/>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="84"/>
-      <c r="V93" s="84"/>
-      <c r="W93" s="90"/>
-      <c r="X93" s="90"/>
-      <c r="Y93" s="90"/>
-      <c r="Z93" s="90"/>
-      <c r="AA93" s="90"/>
-      <c r="AB93" s="90"/>
-      <c r="AC93" s="90"/>
-      <c r="AD93" s="90"/>
-      <c r="AE93" s="90"/>
-      <c r="AF93" s="90"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
+      <c r="S93" s="61"/>
+      <c r="T93" s="61"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="57"/>
+      <c r="W93" s="62"/>
+      <c r="X93" s="62"/>
+      <c r="Y93" s="62"/>
+      <c r="Z93" s="62"/>
+      <c r="AA93" s="62"/>
+      <c r="AB93" s="62"/>
+      <c r="AC93" s="62"/>
+      <c r="AD93" s="62"/>
+      <c r="AE93" s="62"/>
+      <c r="AF93" s="62"/>
       <c r="AG93" s="16">
         <f>AB92</f>
         <v>0</v>
@@ -10618,43 +10631,43 @@
       </c>
     </row>
     <row r="98" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="97"/>
-      <c r="J98" s="97"/>
-      <c r="K98" s="97"/>
-      <c r="L98" s="97"/>
-      <c r="M98" s="97"/>
-      <c r="N98" s="97"/>
-      <c r="O98" s="97"/>
-      <c r="P98" s="97"/>
-      <c r="Q98" s="98"/>
-      <c r="R98" s="93" t="str">
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73"/>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="74"/>
+      <c r="R98" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A102,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (eight)</v>
       </c>
-      <c r="S98" s="94"/>
-      <c r="T98" s="94"/>
-      <c r="U98" s="94"/>
-      <c r="V98" s="94"/>
-      <c r="W98" s="94"/>
-      <c r="X98" s="94"/>
-      <c r="Y98" s="94"/>
-      <c r="Z98" s="94"/>
-      <c r="AA98" s="94"/>
-      <c r="AB98" s="94"/>
-      <c r="AC98" s="94"/>
-      <c r="AD98" s="94"/>
-      <c r="AE98" s="94"/>
-      <c r="AF98" s="95"/>
+      <c r="S98" s="70"/>
+      <c r="T98" s="70"/>
+      <c r="U98" s="70"/>
+      <c r="V98" s="70"/>
+      <c r="W98" s="70"/>
+      <c r="X98" s="70"/>
+      <c r="Y98" s="70"/>
+      <c r="Z98" s="70"/>
+      <c r="AA98" s="70"/>
+      <c r="AB98" s="70"/>
+      <c r="AC98" s="70"/>
+      <c r="AD98" s="70"/>
+      <c r="AE98" s="70"/>
+      <c r="AF98" s="71"/>
       <c r="AG98" s="22">
         <f>M92</f>
         <v>1</v>
@@ -10690,331 +10703,331 @@
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="86">
+      <c r="E99" s="59">
         <v>21</v>
       </c>
-      <c r="F99" s="91">
+      <c r="F99" s="63">
         <v>20</v>
       </c>
-      <c r="G99" s="91">
+      <c r="G99" s="63">
         <v>4</v>
       </c>
-      <c r="H99" s="91">
+      <c r="H99" s="63">
         <v>19</v>
       </c>
-      <c r="I99" s="91">
+      <c r="I99" s="63">
         <v>16</v>
       </c>
-      <c r="J99" s="91">
+      <c r="J99" s="63">
         <v>18</v>
       </c>
-      <c r="K99" s="92"/>
-      <c r="L99" s="91">
+      <c r="K99" s="64"/>
+      <c r="L99" s="63">
         <v>17</v>
       </c>
-      <c r="M99" s="91">
+      <c r="M99" s="63">
         <v>16</v>
       </c>
-      <c r="N99" s="91">
+      <c r="N99" s="63">
         <v>5</v>
       </c>
-      <c r="O99" s="91">
+      <c r="O99" s="63">
         <v>15</v>
       </c>
-      <c r="P99" s="91">
+      <c r="P99" s="63">
         <v>14</v>
       </c>
-      <c r="Q99" s="91">
+      <c r="Q99" s="63">
         <v>13</v>
       </c>
-      <c r="R99" s="86">
+      <c r="R99" s="59">
         <v>12</v>
       </c>
-      <c r="S99" s="86">
+      <c r="S99" s="59">
         <v>11</v>
       </c>
-      <c r="T99" s="86">
+      <c r="T99" s="59">
         <v>10</v>
       </c>
-      <c r="U99" s="86">
+      <c r="U99" s="59">
         <v>6</v>
       </c>
-      <c r="V99" s="86">
+      <c r="V99" s="59">
         <v>9</v>
       </c>
-      <c r="W99" s="86">
+      <c r="W99" s="59">
         <v>8</v>
       </c>
-      <c r="X99" s="86">
+      <c r="X99" s="59">
         <v>7</v>
       </c>
-      <c r="Y99" s="86">
+      <c r="Y99" s="59">
         <v>6</v>
       </c>
-      <c r="Z99" s="86">
+      <c r="Z99" s="59">
         <v>5</v>
       </c>
-      <c r="AA99" s="99"/>
-      <c r="AB99" s="86">
+      <c r="AA99" s="65"/>
+      <c r="AB99" s="59">
         <v>4</v>
       </c>
-      <c r="AC99" s="86">
+      <c r="AC99" s="59">
         <v>3</v>
       </c>
-      <c r="AD99" s="86">
+      <c r="AD99" s="59">
         <v>2</v>
       </c>
-      <c r="AE99" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="70" t="s">
+      <c r="AE99" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH99" s="70"/>
-      <c r="AI99" s="70"/>
-      <c r="AJ99" s="70"/>
-      <c r="AL99" s="70" t="s">
+      <c r="AH99" s="79"/>
+      <c r="AI99" s="79"/>
+      <c r="AJ99" s="79"/>
+      <c r="AL99" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM99" s="70"/>
-      <c r="AN99" s="70"/>
-      <c r="AO99" s="70"/>
+      <c r="AM99" s="79"/>
+      <c r="AN99" s="79"/>
+      <c r="AO99" s="79"/>
     </row>
     <row r="100" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86">
-        <v>0</v>
-      </c>
-      <c r="B100" s="86">
-        <v>0</v>
-      </c>
-      <c r="C100" s="86">
-        <v>0</v>
-      </c>
-      <c r="D100" s="86">
-        <v>0</v>
-      </c>
-      <c r="E100" s="86">
-        <v>0</v>
-      </c>
-      <c r="F100" s="86">
-        <v>1</v>
-      </c>
-      <c r="G100" s="86">
-        <v>0</v>
-      </c>
-      <c r="H100" s="86">
-        <v>0</v>
-      </c>
-      <c r="I100" s="86">
-        <v>0</v>
-      </c>
-      <c r="J100" s="86">
-        <v>0</v>
-      </c>
-      <c r="K100" s="86">
-        <v>0</v>
-      </c>
-      <c r="L100" s="86">
-        <v>1</v>
-      </c>
-      <c r="M100" s="86">
-        <v>1</v>
-      </c>
-      <c r="N100" s="86">
-        <v>0</v>
-      </c>
-      <c r="O100" s="86">
-        <v>0</v>
-      </c>
-      <c r="P100" s="86">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="86">
-        <v>0</v>
-      </c>
-      <c r="R100" s="86">
-        <v>1</v>
-      </c>
-      <c r="S100" s="86">
-        <v>1</v>
-      </c>
-      <c r="T100" s="86">
-        <v>0</v>
-      </c>
-      <c r="U100" s="86">
-        <v>0</v>
-      </c>
-      <c r="V100" s="86">
-        <v>0</v>
-      </c>
-      <c r="W100" s="86">
-        <v>0</v>
-      </c>
-      <c r="X100" s="86">
-        <v>1</v>
-      </c>
-      <c r="Y100" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC100" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE100" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF100" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="71"/>
-      <c r="AH100" s="71"/>
-      <c r="AI100" s="71"/>
-      <c r="AJ100" s="71"/>
-      <c r="AL100" s="71"/>
-      <c r="AM100" s="71"/>
-      <c r="AN100" s="71"/>
-      <c r="AO100" s="71"/>
+      <c r="A100" s="59">
+        <v>0</v>
+      </c>
+      <c r="B100" s="59">
+        <v>0</v>
+      </c>
+      <c r="C100" s="59">
+        <v>0</v>
+      </c>
+      <c r="D100" s="59">
+        <v>0</v>
+      </c>
+      <c r="E100" s="59">
+        <v>0</v>
+      </c>
+      <c r="F100" s="59">
+        <v>1</v>
+      </c>
+      <c r="G100" s="59">
+        <v>0</v>
+      </c>
+      <c r="H100" s="59">
+        <v>0</v>
+      </c>
+      <c r="I100" s="59">
+        <v>0</v>
+      </c>
+      <c r="J100" s="59">
+        <v>0</v>
+      </c>
+      <c r="K100" s="59">
+        <v>0</v>
+      </c>
+      <c r="L100" s="59">
+        <v>1</v>
+      </c>
+      <c r="M100" s="59">
+        <v>1</v>
+      </c>
+      <c r="N100" s="59">
+        <v>0</v>
+      </c>
+      <c r="O100" s="59">
+        <v>0</v>
+      </c>
+      <c r="P100" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="59">
+        <v>0</v>
+      </c>
+      <c r="R100" s="59">
+        <v>1</v>
+      </c>
+      <c r="S100" s="59">
+        <v>1</v>
+      </c>
+      <c r="T100" s="59">
+        <v>0</v>
+      </c>
+      <c r="U100" s="59">
+        <v>0</v>
+      </c>
+      <c r="V100" s="59">
+        <v>0</v>
+      </c>
+      <c r="W100" s="59">
+        <v>0</v>
+      </c>
+      <c r="X100" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE100" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF100" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="81"/>
+      <c r="AH100" s="81"/>
+      <c r="AI100" s="81"/>
+      <c r="AJ100" s="81"/>
+      <c r="AL100" s="81"/>
+      <c r="AM100" s="81"/>
+      <c r="AN100" s="81"/>
+      <c r="AO100" s="81"/>
     </row>
     <row r="101" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="86">
+      <c r="A101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B101" s="86">
+      <c r="B101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C101" s="86">
+      <c r="C101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D101" s="86">
+      <c r="D101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E101" s="86">
+      <c r="E101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F101" s="86">
+      <c r="F101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G101" s="86">
+      <c r="G101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H101" s="86">
+      <c r="H101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I101" s="86">
+      <c r="I101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J101" s="86">
+      <c r="J101" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K101" s="86">
+      <c r="K101" s="59">
         <f>E100</f>
         <v>0</v>
       </c>
-      <c r="L101" s="86">
+      <c r="L101" s="59">
         <f>F100</f>
         <v>1</v>
       </c>
-      <c r="M101" s="86">
+      <c r="M101" s="59">
         <f>G100</f>
         <v>0</v>
       </c>
-      <c r="N101" s="86">
+      <c r="N101" s="59">
         <f>J100</f>
         <v>0</v>
       </c>
-      <c r="O101" s="86">
+      <c r="O101" s="59">
         <f>L100</f>
         <v>1</v>
       </c>
-      <c r="P101" s="86">
+      <c r="P101" s="59">
         <f>M100</f>
         <v>1</v>
       </c>
-      <c r="Q101" s="86">
-        <f t="shared" ref="Q101:V101" si="48">O100</f>
-        <v>0</v>
-      </c>
-      <c r="R101" s="86">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="S101" s="86">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="T101" s="86">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="U101" s="86">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="V101" s="86">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="W101" s="86">
+      <c r="Q101" s="59">
+        <f t="shared" ref="Q101:V101" si="49">O100</f>
+        <v>0</v>
+      </c>
+      <c r="R101" s="59">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="S101" s="59">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="59">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="U101" s="59">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="V101" s="59">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="59">
         <f>V100</f>
         <v>0</v>
       </c>
-      <c r="X101" s="86">
+      <c r="X101" s="59">
         <f>W100</f>
         <v>0</v>
       </c>
-      <c r="Y101" s="86">
+      <c r="Y101" s="59">
         <f>X100</f>
         <v>1</v>
       </c>
-      <c r="Z101" s="86">
+      <c r="Z101" s="59">
         <f>Y100</f>
         <v>1</v>
       </c>
-      <c r="AA101" s="86">
+      <c r="AA101" s="59">
         <f>Z100</f>
         <v>0</v>
       </c>
-      <c r="AB101" s="86">
-        <f t="shared" ref="AB101" si="49">AB100</f>
-        <v>1</v>
-      </c>
-      <c r="AC101" s="86">
-        <f t="shared" ref="AC101" si="50">AC100</f>
-        <v>0</v>
-      </c>
-      <c r="AD101" s="86">
-        <f t="shared" ref="AD101" si="51">AD100</f>
-        <v>1</v>
-      </c>
-      <c r="AE101" s="86">
-        <f t="shared" ref="AE101" si="52">AE100</f>
-        <v>1</v>
-      </c>
-      <c r="AF101" s="86">
+      <c r="AB101" s="59">
+        <f t="shared" ref="AB101" si="50">AB100</f>
+        <v>1</v>
+      </c>
+      <c r="AC101" s="59">
+        <f t="shared" ref="AC101" si="51">AC100</f>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="59">
+        <f t="shared" ref="AD101" si="52">AD100</f>
+        <v>1</v>
+      </c>
+      <c r="AE101" s="59">
+        <f t="shared" ref="AE101" si="53">AE100</f>
+        <v>1</v>
+      </c>
+      <c r="AF101" s="59">
         <f>AF100</f>
         <v>0</v>
       </c>
@@ -11048,43 +11061,43 @@
       </c>
     </row>
     <row r="102" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="87" t="s">
+      <c r="A102" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="87"/>
-      <c r="C102" s="88" t="str">
+      <c r="B102" s="82"/>
+      <c r="C102" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A102," = (B",A101,B101,C101,D101,E101,F101,G101,H101," &lt;&lt; 24) + (B",I101,J101,K101,L101,M101,N101,O101,P101," &lt;&lt; 16) + (B",Q101,R101,S101,T101,U101,V101,W101,X101," &lt;&lt; 8) + B",Y101,Z101,AA101,AB101,AC101,AD101,AE101,AF101,";")</f>
         <v>uint32_t eight = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011000 &lt;&lt; 8) + B11010110;</v>
       </c>
-      <c r="D102" s="89"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="89"/>
-      <c r="M102" s="89"/>
-      <c r="N102" s="89"/>
-      <c r="O102" s="89"/>
-      <c r="P102" s="85"/>
-      <c r="Q102" s="89"/>
-      <c r="R102" s="89"/>
-      <c r="S102" s="89"/>
-      <c r="T102" s="89"/>
-      <c r="U102" s="84"/>
-      <c r="V102" s="84"/>
-      <c r="W102" s="90"/>
-      <c r="X102" s="90"/>
-      <c r="Y102" s="90"/>
-      <c r="Z102" s="90"/>
-      <c r="AA102" s="90"/>
-      <c r="AB102" s="90"/>
-      <c r="AC102" s="90"/>
-      <c r="AD102" s="90"/>
-      <c r="AE102" s="90"/>
-      <c r="AF102" s="90"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="61"/>
+      <c r="P102" s="58"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="61"/>
+      <c r="S102" s="61"/>
+      <c r="T102" s="61"/>
+      <c r="U102" s="57"/>
+      <c r="V102" s="57"/>
+      <c r="W102" s="62"/>
+      <c r="X102" s="62"/>
+      <c r="Y102" s="62"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="62"/>
+      <c r="AB102" s="62"/>
+      <c r="AC102" s="62"/>
+      <c r="AD102" s="62"/>
+      <c r="AE102" s="62"/>
+      <c r="AF102" s="62"/>
       <c r="AG102" s="16">
         <f>AB101</f>
         <v>1</v>
@@ -11308,43 +11321,43 @@
       </c>
     </row>
     <row r="107" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="96" t="s">
+      <c r="A107" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="97"/>
-      <c r="G107" s="97"/>
-      <c r="H107" s="97"/>
-      <c r="I107" s="97"/>
-      <c r="J107" s="97"/>
-      <c r="K107" s="97"/>
-      <c r="L107" s="97"/>
-      <c r="M107" s="97"/>
-      <c r="N107" s="97"/>
-      <c r="O107" s="97"/>
-      <c r="P107" s="97"/>
-      <c r="Q107" s="98"/>
-      <c r="R107" s="93" t="str">
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="73"/>
+      <c r="Q107" s="74"/>
+      <c r="R107" s="69" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A111,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (nine)</v>
       </c>
-      <c r="S107" s="94"/>
-      <c r="T107" s="94"/>
-      <c r="U107" s="94"/>
-      <c r="V107" s="94"/>
-      <c r="W107" s="94"/>
-      <c r="X107" s="94"/>
-      <c r="Y107" s="94"/>
-      <c r="Z107" s="94"/>
-      <c r="AA107" s="94"/>
-      <c r="AB107" s="94"/>
-      <c r="AC107" s="94"/>
-      <c r="AD107" s="94"/>
-      <c r="AE107" s="94"/>
-      <c r="AF107" s="95"/>
+      <c r="S107" s="70"/>
+      <c r="T107" s="70"/>
+      <c r="U107" s="70"/>
+      <c r="V107" s="70"/>
+      <c r="W107" s="70"/>
+      <c r="X107" s="70"/>
+      <c r="Y107" s="70"/>
+      <c r="Z107" s="70"/>
+      <c r="AA107" s="70"/>
+      <c r="AB107" s="70"/>
+      <c r="AC107" s="70"/>
+      <c r="AD107" s="70"/>
+      <c r="AE107" s="70"/>
+      <c r="AF107" s="71"/>
       <c r="AG107" s="22">
         <f>M101</f>
         <v>0</v>
@@ -11380,331 +11393,331 @@
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
-      <c r="E108" s="86">
+      <c r="E108" s="59">
         <v>21</v>
       </c>
-      <c r="F108" s="91">
+      <c r="F108" s="63">
         <v>20</v>
       </c>
-      <c r="G108" s="91">
+      <c r="G108" s="63">
         <v>4</v>
       </c>
-      <c r="H108" s="91">
+      <c r="H108" s="63">
         <v>19</v>
       </c>
-      <c r="I108" s="91">
+      <c r="I108" s="63">
         <v>16</v>
       </c>
-      <c r="J108" s="91">
+      <c r="J108" s="63">
         <v>18</v>
       </c>
-      <c r="K108" s="92"/>
-      <c r="L108" s="91">
+      <c r="K108" s="64"/>
+      <c r="L108" s="63">
         <v>17</v>
       </c>
-      <c r="M108" s="91">
+      <c r="M108" s="63">
         <v>16</v>
       </c>
-      <c r="N108" s="91">
+      <c r="N108" s="63">
         <v>5</v>
       </c>
-      <c r="O108" s="91">
+      <c r="O108" s="63">
         <v>15</v>
       </c>
-      <c r="P108" s="91">
+      <c r="P108" s="63">
         <v>14</v>
       </c>
-      <c r="Q108" s="91">
+      <c r="Q108" s="63">
         <v>13</v>
       </c>
-      <c r="R108" s="86">
+      <c r="R108" s="59">
         <v>12</v>
       </c>
-      <c r="S108" s="86">
+      <c r="S108" s="59">
         <v>11</v>
       </c>
-      <c r="T108" s="86">
+      <c r="T108" s="59">
         <v>10</v>
       </c>
-      <c r="U108" s="86">
+      <c r="U108" s="59">
         <v>6</v>
       </c>
-      <c r="V108" s="86">
+      <c r="V108" s="59">
         <v>9</v>
       </c>
-      <c r="W108" s="86">
+      <c r="W108" s="59">
         <v>8</v>
       </c>
-      <c r="X108" s="86">
+      <c r="X108" s="59">
         <v>7</v>
       </c>
-      <c r="Y108" s="86">
+      <c r="Y108" s="59">
         <v>6</v>
       </c>
-      <c r="Z108" s="86">
+      <c r="Z108" s="59">
         <v>5</v>
       </c>
-      <c r="AA108" s="99"/>
-      <c r="AB108" s="86">
+      <c r="AA108" s="65"/>
+      <c r="AB108" s="59">
         <v>4</v>
       </c>
-      <c r="AC108" s="86">
+      <c r="AC108" s="59">
         <v>3</v>
       </c>
-      <c r="AD108" s="86">
+      <c r="AD108" s="59">
         <v>2</v>
       </c>
-      <c r="AE108" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG108" s="70" t="s">
+      <c r="AE108" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AH108" s="70"/>
-      <c r="AI108" s="70"/>
-      <c r="AJ108" s="70"/>
-      <c r="AL108" s="70" t="s">
+      <c r="AH108" s="79"/>
+      <c r="AI108" s="79"/>
+      <c r="AJ108" s="79"/>
+      <c r="AL108" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AM108" s="70"/>
-      <c r="AN108" s="70"/>
-      <c r="AO108" s="70"/>
+      <c r="AM108" s="79"/>
+      <c r="AN108" s="79"/>
+      <c r="AO108" s="79"/>
     </row>
     <row r="109" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="86">
-        <v>0</v>
-      </c>
-      <c r="B109" s="86">
-        <v>0</v>
-      </c>
-      <c r="C109" s="86">
-        <v>0</v>
-      </c>
-      <c r="D109" s="86">
-        <v>0</v>
-      </c>
-      <c r="E109" s="86">
-        <v>0</v>
-      </c>
-      <c r="F109" s="86">
-        <v>1</v>
-      </c>
-      <c r="G109" s="86">
-        <v>0</v>
-      </c>
-      <c r="H109" s="86">
-        <v>0</v>
-      </c>
-      <c r="I109" s="86">
-        <v>0</v>
-      </c>
-      <c r="J109" s="86">
-        <v>0</v>
-      </c>
-      <c r="K109" s="86">
-        <v>0</v>
-      </c>
-      <c r="L109" s="86">
-        <v>0</v>
-      </c>
-      <c r="M109" s="86">
-        <v>1</v>
-      </c>
-      <c r="N109" s="86">
-        <v>0</v>
-      </c>
-      <c r="O109" s="86">
-        <v>0</v>
-      </c>
-      <c r="P109" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="86">
-        <v>1</v>
-      </c>
-      <c r="R109" s="86">
-        <v>1</v>
-      </c>
-      <c r="S109" s="86">
-        <v>1</v>
-      </c>
-      <c r="T109" s="86">
-        <v>0</v>
-      </c>
-      <c r="U109" s="86">
-        <v>0</v>
-      </c>
-      <c r="V109" s="86">
-        <v>0</v>
-      </c>
-      <c r="W109" s="86">
-        <v>0</v>
-      </c>
-      <c r="X109" s="86">
-        <v>1</v>
-      </c>
-      <c r="Y109" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB109" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD109" s="86">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="86">
-        <v>1</v>
-      </c>
-      <c r="AF109" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG109" s="71"/>
-      <c r="AH109" s="71"/>
-      <c r="AI109" s="71"/>
-      <c r="AJ109" s="71"/>
-      <c r="AL109" s="71"/>
-      <c r="AM109" s="71"/>
-      <c r="AN109" s="71"/>
-      <c r="AO109" s="71"/>
+      <c r="A109" s="59">
+        <v>0</v>
+      </c>
+      <c r="B109" s="59">
+        <v>0</v>
+      </c>
+      <c r="C109" s="59">
+        <v>0</v>
+      </c>
+      <c r="D109" s="59">
+        <v>0</v>
+      </c>
+      <c r="E109" s="59">
+        <v>0</v>
+      </c>
+      <c r="F109" s="59">
+        <v>1</v>
+      </c>
+      <c r="G109" s="59">
+        <v>0</v>
+      </c>
+      <c r="H109" s="59">
+        <v>0</v>
+      </c>
+      <c r="I109" s="59">
+        <v>0</v>
+      </c>
+      <c r="J109" s="59">
+        <v>0</v>
+      </c>
+      <c r="K109" s="59">
+        <v>0</v>
+      </c>
+      <c r="L109" s="59">
+        <v>0</v>
+      </c>
+      <c r="M109" s="59">
+        <v>1</v>
+      </c>
+      <c r="N109" s="59">
+        <v>0</v>
+      </c>
+      <c r="O109" s="59">
+        <v>0</v>
+      </c>
+      <c r="P109" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="59">
+        <v>1</v>
+      </c>
+      <c r="R109" s="59">
+        <v>1</v>
+      </c>
+      <c r="S109" s="59">
+        <v>1</v>
+      </c>
+      <c r="T109" s="59">
+        <v>0</v>
+      </c>
+      <c r="U109" s="59">
+        <v>0</v>
+      </c>
+      <c r="V109" s="59">
+        <v>0</v>
+      </c>
+      <c r="W109" s="59">
+        <v>0</v>
+      </c>
+      <c r="X109" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF109" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="81"/>
+      <c r="AH109" s="81"/>
+      <c r="AI109" s="81"/>
+      <c r="AJ109" s="81"/>
+      <c r="AL109" s="81"/>
+      <c r="AM109" s="81"/>
+      <c r="AN109" s="81"/>
+      <c r="AO109" s="81"/>
     </row>
     <row r="110" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="86">
+      <c r="A110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B110" s="86">
+      <c r="B110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C110" s="86">
+      <c r="C110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D110" s="86">
+      <c r="D110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F110" s="86">
+      <c r="F110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G110" s="86">
+      <c r="G110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H110" s="86">
+      <c r="H110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I110" s="86">
+      <c r="I110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J110" s="86">
+      <c r="J110" s="59">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K110" s="86">
+      <c r="K110" s="59">
         <f>E109</f>
         <v>0</v>
       </c>
-      <c r="L110" s="86">
+      <c r="L110" s="59">
         <f>F109</f>
         <v>1</v>
       </c>
-      <c r="M110" s="86">
+      <c r="M110" s="59">
         <f>G109</f>
         <v>0</v>
       </c>
-      <c r="N110" s="86">
+      <c r="N110" s="59">
         <f>J109</f>
         <v>0</v>
       </c>
-      <c r="O110" s="86">
+      <c r="O110" s="59">
         <f>L109</f>
         <v>0</v>
       </c>
-      <c r="P110" s="86">
+      <c r="P110" s="59">
         <f>M109</f>
         <v>1</v>
       </c>
-      <c r="Q110" s="86">
-        <f t="shared" ref="Q110:V110" si="53">O109</f>
-        <v>0</v>
-      </c>
-      <c r="R110" s="86">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="S110" s="86">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="T110" s="86">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="U110" s="86">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="V110" s="86">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="W110" s="86">
+      <c r="Q110" s="59">
+        <f t="shared" ref="Q110:V110" si="54">O109</f>
+        <v>0</v>
+      </c>
+      <c r="R110" s="59">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="59">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="T110" s="59">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="U110" s="59">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="V110" s="59">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="59">
         <f>V109</f>
         <v>0</v>
       </c>
-      <c r="X110" s="86">
+      <c r="X110" s="59">
         <f>W109</f>
         <v>0</v>
       </c>
-      <c r="Y110" s="86">
+      <c r="Y110" s="59">
         <f>X109</f>
         <v>1</v>
       </c>
-      <c r="Z110" s="86">
+      <c r="Z110" s="59">
         <f>Y109</f>
         <v>1</v>
       </c>
-      <c r="AA110" s="86">
+      <c r="AA110" s="59">
         <f>Z109</f>
         <v>0</v>
       </c>
-      <c r="AB110" s="86">
-        <f t="shared" ref="AB110" si="54">AB109</f>
-        <v>1</v>
-      </c>
-      <c r="AC110" s="86">
-        <f t="shared" ref="AC110" si="55">AC109</f>
-        <v>0</v>
-      </c>
-      <c r="AD110" s="86">
-        <f t="shared" ref="AD110" si="56">AD109</f>
-        <v>1</v>
-      </c>
-      <c r="AE110" s="86">
-        <f t="shared" ref="AE110" si="57">AE109</f>
-        <v>1</v>
-      </c>
-      <c r="AF110" s="86">
+      <c r="AB110" s="59">
+        <f t="shared" ref="AB110" si="55">AB109</f>
+        <v>1</v>
+      </c>
+      <c r="AC110" s="59">
+        <f t="shared" ref="AC110" si="56">AC109</f>
+        <v>0</v>
+      </c>
+      <c r="AD110" s="59">
+        <f t="shared" ref="AD110" si="57">AD109</f>
+        <v>1</v>
+      </c>
+      <c r="AE110" s="59">
+        <f t="shared" ref="AE110" si="58">AE109</f>
+        <v>1</v>
+      </c>
+      <c r="AF110" s="59">
         <f>AF109</f>
         <v>0</v>
       </c>
@@ -11738,43 +11751,43 @@
       </c>
     </row>
     <row r="111" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="87" t="s">
+      <c r="A111" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88" t="str">
+      <c r="B111" s="82"/>
+      <c r="C111" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A111," = (B",A110,B110,C110,D110,E110,F110,G110,H110," &lt;&lt; 24) + (B",I110,J110,K110,L110,M110,N110,O110,P110," &lt;&lt; 16) + (B",Q110,R110,S110,T110,U110,V110,W110,X110," &lt;&lt; 8) + B",Y110,Z110,AA110,AB110,AC110,AD110,AE110,AF110,";")</f>
         <v>uint32_t nine = (B00000000 &lt;&lt; 24) + (B00010001 &lt;&lt; 16) + (B00111000 &lt;&lt; 8) + B11010110;</v>
       </c>
-      <c r="D111" s="89"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="89"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="89"/>
-      <c r="M111" s="89"/>
-      <c r="N111" s="89"/>
-      <c r="O111" s="89"/>
-      <c r="P111" s="85"/>
-      <c r="Q111" s="89"/>
-      <c r="R111" s="89"/>
-      <c r="S111" s="89"/>
-      <c r="T111" s="89"/>
-      <c r="U111" s="84"/>
-      <c r="V111" s="84"/>
-      <c r="W111" s="90"/>
-      <c r="X111" s="90"/>
-      <c r="Y111" s="90"/>
-      <c r="Z111" s="90"/>
-      <c r="AA111" s="90"/>
-      <c r="AB111" s="90"/>
-      <c r="AC111" s="90"/>
-      <c r="AD111" s="90"/>
-      <c r="AE111" s="90"/>
-      <c r="AF111" s="90"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="58"/>
+      <c r="K111" s="58"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="58"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="57"/>
+      <c r="W111" s="62"/>
+      <c r="X111" s="62"/>
+      <c r="Y111" s="62"/>
+      <c r="Z111" s="62"/>
+      <c r="AA111" s="62"/>
+      <c r="AB111" s="62"/>
+      <c r="AC111" s="62"/>
+      <c r="AD111" s="62"/>
+      <c r="AE111" s="62"/>
+      <c r="AF111" s="62"/>
       <c r="AG111" s="16">
         <f>AB110</f>
         <v>1</v>
@@ -12050,12 +12063,46 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="R26:AF26"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="R35:AF35"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="R44:AF44"/>
+    <mergeCell ref="A22:AF22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="AG19:AJ25"/>
+    <mergeCell ref="AL19:AO25"/>
+    <mergeCell ref="C23:AF23"/>
+    <mergeCell ref="V1:Y2"/>
+    <mergeCell ref="AA1:AD2"/>
+    <mergeCell ref="A19:AF19"/>
+    <mergeCell ref="A20:AF20"/>
+    <mergeCell ref="A21:AF21"/>
+    <mergeCell ref="AL63:AO64"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="AG63:AJ64"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="R53:AF53"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="R62:AF62"/>
+    <mergeCell ref="AL27:AO28"/>
+    <mergeCell ref="AL36:AO37"/>
+    <mergeCell ref="AL45:AO46"/>
+    <mergeCell ref="AL54:AO55"/>
+    <mergeCell ref="AG36:AJ37"/>
+    <mergeCell ref="AG45:AJ46"/>
+    <mergeCell ref="AG54:AJ55"/>
+    <mergeCell ref="AG27:AJ28"/>
+    <mergeCell ref="R107:AF107"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="AG72:AJ73"/>
+    <mergeCell ref="AL72:AO73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A71:Q71"/>
+    <mergeCell ref="R71:AF71"/>
+    <mergeCell ref="A80:Q80"/>
+    <mergeCell ref="R80:AF80"/>
+    <mergeCell ref="AG81:AJ82"/>
+    <mergeCell ref="AL81:AO82"/>
     <mergeCell ref="AL8:AO11"/>
     <mergeCell ref="AI7:AK10"/>
     <mergeCell ref="AG108:AJ109"/>
@@ -12072,46 +12119,12 @@
     <mergeCell ref="A98:Q98"/>
     <mergeCell ref="R98:AF98"/>
     <mergeCell ref="A107:Q107"/>
-    <mergeCell ref="R107:AF107"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="AG72:AJ73"/>
-    <mergeCell ref="AL72:AO73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A71:Q71"/>
-    <mergeCell ref="R71:AF71"/>
-    <mergeCell ref="A80:Q80"/>
-    <mergeCell ref="R80:AF80"/>
-    <mergeCell ref="AG81:AJ82"/>
-    <mergeCell ref="AL81:AO82"/>
-    <mergeCell ref="AL27:AO28"/>
-    <mergeCell ref="AL36:AO37"/>
-    <mergeCell ref="AL45:AO46"/>
-    <mergeCell ref="AL54:AO55"/>
-    <mergeCell ref="AG36:AJ37"/>
-    <mergeCell ref="AG45:AJ46"/>
-    <mergeCell ref="AG54:AJ55"/>
-    <mergeCell ref="AG27:AJ28"/>
-    <mergeCell ref="AL63:AO64"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="AG63:AJ64"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="R53:AF53"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="R62:AF62"/>
-    <mergeCell ref="V1:Y2"/>
-    <mergeCell ref="AA1:AD2"/>
-    <mergeCell ref="A19:AF19"/>
-    <mergeCell ref="A20:AF20"/>
-    <mergeCell ref="A21:AF21"/>
-    <mergeCell ref="A22:AF22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="AG19:AJ25"/>
-    <mergeCell ref="AL19:AO25"/>
-    <mergeCell ref="C23:AF23"/>
+    <mergeCell ref="R26:AF26"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="R35:AF35"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="R44:AF44"/>
   </mergeCells>
   <conditionalFormatting sqref="AG14 AI14:AJ14 AG15:AJ18 AG26:AJ116 AG19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/header_pin_map.xlsx
+++ b/header_pin_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="111">
   <si>
     <t>B2</t>
   </si>
@@ -414,6 +414,12 @@
   <si>
     <t>(new form)</t>
   </si>
+  <si>
+    <t>GLYPH_NINE</t>
+  </si>
+  <si>
+    <t>Manual display mapper. Orange boxes are unmappable</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +514,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +893,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -889,60 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,12 +948,270 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1356,12 +1573,12 @@
       <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
     </row>
     <row r="2" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1427,19 +1644,19 @@
       <c r="U2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
     </row>
     <row r="3" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U3" s="2"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
@@ -1524,10 +1741,10 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -1611,12 +1828,12 @@
       <c r="U6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="66" t="s">
+      <c r="V6" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
@@ -1700,19 +1917,19 @@
       <c r="U7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
     </row>
     <row r="8" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U8" s="2"/>
-      <c r="V8" s="66" t="s">
+      <c r="V8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
     </row>
     <row r="9" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
@@ -1795,10 +2012,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
     </row>
     <row r="17" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA17" s="7"/>
@@ -1822,10 +2039,10 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="4"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
+      <c r="AV17" s="67"/>
+      <c r="AW17" s="67"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
     </row>
     <row r="18" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA18" s="3"/>
@@ -1849,10 +2066,10 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
     </row>
     <row r="19" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA19" s="3"/>
@@ -1876,10 +2093,10 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
     </row>
     <row r="20" spans="27:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA20" s="3"/>
@@ -1903,10 +2120,10 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="4"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
+      <c r="AV20" s="67"/>
+      <c r="AW20" s="67"/>
+      <c r="AX20" s="67"/>
+      <c r="AY20" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2017,12 +2234,12 @@
       <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
@@ -2106,10 +2323,10 @@
       <c r="U2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
     </row>
     <row r="3" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -2133,12 +2350,12 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
@@ -2223,10 +2440,10 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
     </row>
     <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -2319,12 +2536,12 @@
       <c r="U6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="67" t="s">
+      <c r="V6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
     </row>
     <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -2390,10 +2607,10 @@
       <c r="U7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
     </row>
     <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -2417,12 +2634,12 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="66" t="s">
+      <c r="V8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
     </row>
     <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
@@ -2507,10 +2724,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2531,8 +2748,8 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2578,12 +2795,12 @@
       <c r="T1" s="49">
         <v>30</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
@@ -2622,18 +2839,18 @@
       <c r="T2" s="51">
         <v>10</v>
       </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49">
@@ -2699,10 +2916,10 @@
       <c r="U4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
@@ -2729,10 +2946,10 @@
       </c>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="102">
+      <c r="M6" s="66">
         <v>23</v>
       </c>
-      <c r="N6" s="102">
+      <c r="N6" s="66">
         <v>24</v>
       </c>
       <c r="O6" s="49">
@@ -2749,12 +2966,12 @@
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
-      <c r="V6" s="66" t="s">
+      <c r="V6" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -2805,18 +3022,18 @@
       <c r="T7" s="49">
         <v>10</v>
       </c>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V8" s="66" t="s">
+      <c r="V8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -2882,10 +3099,10 @@
       <c r="U9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
@@ -2924,12 +3141,12 @@
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
-      <c r="V11" s="66" t="s">
+      <c r="V11" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
@@ -2980,18 +3197,18 @@
       <c r="T12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V13" s="66" t="s">
+      <c r="V13" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49">
@@ -3057,10 +3274,10 @@
       <c r="U14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
@@ -3091,12 +3308,12 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
-      <c r="V16" s="66" t="s">
+      <c r="V16" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
@@ -3119,18 +3336,18 @@
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
     </row>
     <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V18" s="66" t="s">
+      <c r="V18" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
@@ -3196,10 +3413,10 @@
       <c r="U19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
@@ -3230,12 +3447,12 @@
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
-      <c r="V21" s="66" t="s">
+      <c r="V21" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
@@ -3258,18 +3475,18 @@
       <c r="R22" s="49"/>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
     </row>
     <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V23" s="66" t="s">
+      <c r="V23" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
@@ -3335,10 +3552,10 @@
       <c r="U24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49">
@@ -3404,12 +3621,12 @@
       <c r="U26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V26" s="68" t="s">
+      <c r="V26" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
@@ -3475,18 +3692,18 @@
       <c r="U27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V28" s="66" t="s">
+      <c r="V28" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49">
@@ -3552,10 +3769,10 @@
       <c r="U29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3583,10 +3800,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO116"/>
+  <dimension ref="A1:AT156"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3658,18 +3875,18 @@
       <c r="T1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="AA1" s="79" t="s">
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="AA1" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3732,14 +3949,14 @@
       <c r="T2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
     </row>
     <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -4164,11 +4381,11 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AI7" s="75" t="s">
+      <c r="AI7" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
       <c r="AL7" s="56"/>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4219,15 +4436,15 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="75" t="s">
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="77"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="100"/>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -4338,23 +4555,23 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="80"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="102"/>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AH10" s="53"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="80"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="102"/>
     </row>
     <row r="11" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -4490,10 +4707,10 @@
       <c r="AI11" s="54"/>
       <c r="AJ11" s="54"/>
       <c r="AK11" s="54"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="80"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="102"/>
     </row>
     <row r="12" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
@@ -4853,230 +5070,230 @@
       </c>
     </row>
     <row r="19" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="90" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="92"/>
-      <c r="AL19" s="90" t="s">
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="75"/>
+      <c r="AL19" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="92"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="75"/>
     </row>
     <row r="20" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="95"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="95"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="78"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="78"/>
     </row>
     <row r="21" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="95"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="94"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="95"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="78"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="78"/>
     </row>
     <row r="22" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="94"/>
-      <c r="AJ22" s="95"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="94"/>
-      <c r="AO22" s="95"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="78"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="78"/>
     </row>
     <row r="23" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="99" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="95"/>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="94"/>
-      <c r="AN23" s="94"/>
-      <c r="AO23" s="95"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="78"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="78"/>
     </row>
     <row r="24" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -5099,14 +5316,14 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="95"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="95"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="78"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="78"/>
     </row>
     <row r="25" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
@@ -5129,53 +5346,53 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="98"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="97"/>
-      <c r="AN25" s="97"/>
-      <c r="AO25" s="98"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="81"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="81"/>
     </row>
     <row r="26" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="69" t="str">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A30,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (zero)</v>
       </c>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="71"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="97"/>
       <c r="AL26" s="33"/>
     </row>
     <row r="27" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5263,18 +5480,18 @@
       <c r="AF27" s="59">
         <v>0</v>
       </c>
-      <c r="AG27" s="79" t="s">
+      <c r="AG27" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AL27" s="79" t="s">
+      <c r="AH27" s="85"/>
+      <c r="AI27" s="85"/>
+      <c r="AJ27" s="85"/>
+      <c r="AL27" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
+      <c r="AM27" s="85"/>
+      <c r="AN27" s="85"/>
+      <c r="AO27" s="85"/>
     </row>
     <row r="28" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59">
@@ -5373,14 +5590,14 @@
       <c r="AF28" s="59">
         <v>0</v>
       </c>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="81"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="86"/>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="86"/>
+      <c r="AO28" s="86"/>
     </row>
     <row r="29" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59">
@@ -5541,10 +5758,10 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="82"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A30," = (B",A29,B29,C29,D29,E29,F29,G29,H29," &lt;&lt; 24) + (B",I29,J29,K29,L29,M29,N29,O29,P29," &lt;&lt; 16) + (B",Q29,R29,S29,T29,U29,V29,W29,X29," &lt;&lt; 8) + B",Y29,Z29,AA29,AB29,AC29,AD29,AE29,AF29,";")</f>
         <v>uint32_t zero = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01100100 &lt;&lt; 8) + B11010110;</v>
@@ -5801,43 +6018,43 @@
       </c>
     </row>
     <row r="35" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="69" t="str">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A39,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (one)</v>
       </c>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="70"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="71"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="96"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="97"/>
       <c r="AG35" s="22">
         <f>M29</f>
         <v>0</v>
@@ -5953,18 +6170,18 @@
       <c r="AF36" s="59">
         <v>0</v>
       </c>
-      <c r="AG36" s="79" t="s">
+      <c r="AG36" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AL36" s="79" t="s">
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AL36" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
     </row>
     <row r="37" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59">
@@ -6063,14 +6280,14 @@
       <c r="AF37" s="59">
         <v>0</v>
       </c>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="81"/>
-      <c r="AJ37" s="81"/>
-      <c r="AL37" s="81"/>
-      <c r="AM37" s="81"/>
-      <c r="AN37" s="81"/>
-      <c r="AO37" s="81"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="86"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="86"/>
+      <c r="AL37" s="86"/>
+      <c r="AM37" s="86"/>
+      <c r="AN37" s="86"/>
+      <c r="AO37" s="86"/>
     </row>
     <row r="38" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59">
@@ -6231,10 +6448,10 @@
       </c>
     </row>
     <row r="39" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="82"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A39," = (B",A38,B38,C38,D38,E38,F38,G38,H38," &lt;&lt; 24) + (B",I38,J38,K38,L38,M38,N38,O38,P38," &lt;&lt; 16) + (B",Q38,R38,S38,T38,U38,V38,W38,X38," &lt;&lt; 8) + B",Y38,Z38,AA38,AB38,AC38,AD38,AE38,AF38,";")</f>
         <v>uint32_t one = (B00000000 &lt;&lt; 24) + (B00010100 &lt;&lt; 16) + (B00010010 &lt;&lt; 8) + B00100100;</v>
@@ -6491,43 +6708,43 @@
       </c>
     </row>
     <row r="44" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="69" t="str">
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A48,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (two)</v>
       </c>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="71"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="97"/>
       <c r="AG44" s="22">
         <f>M38</f>
         <v>0</v>
@@ -6643,18 +6860,18 @@
       <c r="AF45" s="59">
         <v>0</v>
       </c>
-      <c r="AG45" s="79" t="s">
+      <c r="AG45" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH45" s="79"/>
-      <c r="AI45" s="79"/>
-      <c r="AJ45" s="79"/>
-      <c r="AL45" s="79" t="s">
+      <c r="AH45" s="85"/>
+      <c r="AI45" s="85"/>
+      <c r="AJ45" s="85"/>
+      <c r="AL45" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM45" s="79"/>
-      <c r="AN45" s="79"/>
-      <c r="AO45" s="79"/>
+      <c r="AM45" s="85"/>
+      <c r="AN45" s="85"/>
+      <c r="AO45" s="85"/>
     </row>
     <row r="46" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59">
@@ -6753,14 +6970,14 @@
       <c r="AF46" s="59">
         <v>0</v>
       </c>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="81"/>
+      <c r="AG46" s="86"/>
+      <c r="AH46" s="86"/>
+      <c r="AI46" s="86"/>
+      <c r="AJ46" s="86"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
     </row>
     <row r="47" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59">
@@ -6921,10 +7138,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A48," = (B",A47,B47,C47,D47,E47,F47,G47,H47," &lt;&lt; 24) + (B",I47,J47,K47,L47,M47,N47,O47,P47," &lt;&lt; 16) + (B",Q47,R47,S47,T47,U47,V47,W47,X47," &lt;&lt; 8) + B",Y47,Z47,AA47,AB47,AC47,AD47,AE47,AF47,";")</f>
         <v>uint32_t two = (B00000000 &lt;&lt; 24) + (B00111010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01010110;</v>
@@ -7181,43 +7398,43 @@
       </c>
     </row>
     <row r="53" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="69" t="str">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A57,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (three)</v>
       </c>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
-      <c r="AE53" s="70"/>
-      <c r="AF53" s="71"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
+      <c r="W53" s="96"/>
+      <c r="X53" s="96"/>
+      <c r="Y53" s="96"/>
+      <c r="Z53" s="96"/>
+      <c r="AA53" s="96"/>
+      <c r="AB53" s="96"/>
+      <c r="AC53" s="96"/>
+      <c r="AD53" s="96"/>
+      <c r="AE53" s="96"/>
+      <c r="AF53" s="97"/>
       <c r="AG53" s="22">
         <f>M47</f>
         <v>1</v>
@@ -7333,18 +7550,18 @@
       <c r="AF54" s="59">
         <v>0</v>
       </c>
-      <c r="AG54" s="79" t="s">
+      <c r="AG54" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH54" s="79"/>
-      <c r="AI54" s="79"/>
-      <c r="AJ54" s="79"/>
-      <c r="AL54" s="79" t="s">
+      <c r="AH54" s="85"/>
+      <c r="AI54" s="85"/>
+      <c r="AJ54" s="85"/>
+      <c r="AL54" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM54" s="79"/>
-      <c r="AN54" s="79"/>
-      <c r="AO54" s="79"/>
+      <c r="AM54" s="85"/>
+      <c r="AN54" s="85"/>
+      <c r="AO54" s="85"/>
     </row>
     <row r="55" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59">
@@ -7443,14 +7660,14 @@
       <c r="AF55" s="59">
         <v>0</v>
       </c>
-      <c r="AG55" s="81"/>
-      <c r="AH55" s="81"/>
-      <c r="AI55" s="81"/>
-      <c r="AJ55" s="81"/>
-      <c r="AL55" s="81"/>
-      <c r="AM55" s="81"/>
-      <c r="AN55" s="81"/>
-      <c r="AO55" s="81"/>
+      <c r="AG55" s="86"/>
+      <c r="AH55" s="86"/>
+      <c r="AI55" s="86"/>
+      <c r="AJ55" s="86"/>
+      <c r="AL55" s="86"/>
+      <c r="AM55" s="86"/>
+      <c r="AN55" s="86"/>
+      <c r="AO55" s="86"/>
     </row>
     <row r="56" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59">
@@ -7611,10 +7828,10 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="84"/>
+      <c r="B57" s="91"/>
       <c r="C57" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A57," = (B",A56,B56,C56,D56,E56,F56,G56,H56," &lt;&lt; 24) + (B",I56,J56,K56,L56,M56,N56,O56,P56," &lt;&lt; 16) + (B",Q56,R56,S56,T56,U56,V56,W56,X56," &lt;&lt; 8) + B",Y56,Z56,AA56,AB56,AC56,AD56,AE56,AF56,";")</f>
         <v>uint32_t three = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00010000 &lt;&lt; 8) + B01010110;</v>
@@ -7871,43 +8088,43 @@
       </c>
     </row>
     <row r="62" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="69" t="str">
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A66,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (four)</v>
       </c>
-      <c r="S62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="70"/>
-      <c r="AE62" s="70"/>
-      <c r="AF62" s="71"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="96"/>
+      <c r="Y62" s="96"/>
+      <c r="Z62" s="96"/>
+      <c r="AA62" s="96"/>
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="96"/>
+      <c r="AD62" s="96"/>
+      <c r="AE62" s="96"/>
+      <c r="AF62" s="97"/>
       <c r="AG62" s="22">
         <f>M56</f>
         <v>0</v>
@@ -8023,18 +8240,18 @@
       <c r="AF63" s="59">
         <v>0</v>
       </c>
-      <c r="AG63" s="79" t="s">
+      <c r="AG63" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH63" s="79"/>
-      <c r="AI63" s="79"/>
-      <c r="AJ63" s="79"/>
-      <c r="AL63" s="79" t="s">
+      <c r="AH63" s="85"/>
+      <c r="AI63" s="85"/>
+      <c r="AJ63" s="85"/>
+      <c r="AL63" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM63" s="79"/>
-      <c r="AN63" s="79"/>
-      <c r="AO63" s="79"/>
+      <c r="AM63" s="85"/>
+      <c r="AN63" s="85"/>
+      <c r="AO63" s="85"/>
     </row>
     <row r="64" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59">
@@ -8133,14 +8350,14 @@
       <c r="AF64" s="59">
         <v>0</v>
       </c>
-      <c r="AG64" s="81"/>
-      <c r="AH64" s="81"/>
-      <c r="AI64" s="81"/>
-      <c r="AJ64" s="81"/>
-      <c r="AL64" s="81"/>
-      <c r="AM64" s="81"/>
-      <c r="AN64" s="81"/>
-      <c r="AO64" s="81"/>
+      <c r="AG64" s="86"/>
+      <c r="AH64" s="86"/>
+      <c r="AI64" s="86"/>
+      <c r="AJ64" s="86"/>
+      <c r="AL64" s="86"/>
+      <c r="AM64" s="86"/>
+      <c r="AN64" s="86"/>
+      <c r="AO64" s="86"/>
     </row>
     <row r="65" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59">
@@ -8301,10 +8518,10 @@
       </c>
     </row>
     <row r="66" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="82"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A66," = (B",A65,B65,C65,D65,E65,F65,G65,H65," &lt;&lt; 24) + (B",I65,J65,K65,L65,M65,N65,O65,P65," &lt;&lt; 16) + (B",Q65,R65,S65,T65,U65,V65,W65,X65," &lt;&lt; 8) + B",Y65,Z65,AA65,AB65,AC65,AD65,AE65,AF65,";")</f>
         <v>uint32_t four = (B00000000 &lt;&lt; 24) + (B00100001 &lt;&lt; 16) + (B11100101 &lt;&lt; 8) + B01101000;</v>
@@ -8561,43 +8778,43 @@
       </c>
     </row>
     <row r="71" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="73"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="69" t="str">
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A75,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (five)</v>
       </c>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="70"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="70"/>
-      <c r="AE71" s="70"/>
-      <c r="AF71" s="71"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
+      <c r="W71" s="96"/>
+      <c r="X71" s="96"/>
+      <c r="Y71" s="96"/>
+      <c r="Z71" s="96"/>
+      <c r="AA71" s="96"/>
+      <c r="AB71" s="96"/>
+      <c r="AC71" s="96"/>
+      <c r="AD71" s="96"/>
+      <c r="AE71" s="96"/>
+      <c r="AF71" s="97"/>
       <c r="AG71" s="22">
         <f>M65</f>
         <v>0</v>
@@ -8713,18 +8930,18 @@
       <c r="AF72" s="59">
         <v>0</v>
       </c>
-      <c r="AG72" s="79" t="s">
+      <c r="AG72" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH72" s="79"/>
-      <c r="AI72" s="79"/>
-      <c r="AJ72" s="79"/>
-      <c r="AL72" s="79" t="s">
+      <c r="AH72" s="85"/>
+      <c r="AI72" s="85"/>
+      <c r="AJ72" s="85"/>
+      <c r="AL72" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM72" s="79"/>
-      <c r="AN72" s="79"/>
-      <c r="AO72" s="79"/>
+      <c r="AM72" s="85"/>
+      <c r="AN72" s="85"/>
+      <c r="AO72" s="85"/>
     </row>
     <row r="73" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59">
@@ -8823,14 +9040,14 @@
       <c r="AF73" s="59">
         <v>1</v>
       </c>
-      <c r="AG73" s="81"/>
-      <c r="AH73" s="81"/>
-      <c r="AI73" s="81"/>
-      <c r="AJ73" s="81"/>
-      <c r="AL73" s="81"/>
-      <c r="AM73" s="81"/>
-      <c r="AN73" s="81"/>
-      <c r="AO73" s="81"/>
+      <c r="AG73" s="86"/>
+      <c r="AH73" s="86"/>
+      <c r="AI73" s="86"/>
+      <c r="AJ73" s="86"/>
+      <c r="AL73" s="86"/>
+      <c r="AM73" s="86"/>
+      <c r="AN73" s="86"/>
+      <c r="AO73" s="86"/>
     </row>
     <row r="74" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="59">
@@ -8991,10 +9208,10 @@
       </c>
     </row>
     <row r="75" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="82"/>
+      <c r="B75" s="89"/>
       <c r="C75" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A75," = (B",A74,B74,C74,D74,E74,F74,G74,H74," &lt;&lt; 24) + (B",I74,J74,K74,L74,M74,N74,O74,P74," &lt;&lt; 16) + (B",Q74,R74,S74,T74,U74,V74,W74,X74," &lt;&lt; 8) + B",Y74,Z74,AA74,AB74,AC74,AD74,AE74,AF74,";")</f>
         <v>uint32_t five = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00100011 &lt;&lt; 8) + B10011111;</v>
@@ -9251,43 +9468,43 @@
       </c>
     </row>
     <row r="80" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72" t="s">
+      <c r="A80" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="74"/>
-      <c r="R80" s="69" t="str">
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
+      <c r="O80" s="93"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A84,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (six)</v>
       </c>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
-      <c r="V80" s="70"/>
-      <c r="W80" s="70"/>
-      <c r="X80" s="70"/>
-      <c r="Y80" s="70"/>
-      <c r="Z80" s="70"/>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
-      <c r="AE80" s="70"/>
-      <c r="AF80" s="71"/>
+      <c r="S80" s="96"/>
+      <c r="T80" s="96"/>
+      <c r="U80" s="96"/>
+      <c r="V80" s="96"/>
+      <c r="W80" s="96"/>
+      <c r="X80" s="96"/>
+      <c r="Y80" s="96"/>
+      <c r="Z80" s="96"/>
+      <c r="AA80" s="96"/>
+      <c r="AB80" s="96"/>
+      <c r="AC80" s="96"/>
+      <c r="AD80" s="96"/>
+      <c r="AE80" s="96"/>
+      <c r="AF80" s="97"/>
       <c r="AG80" s="22">
         <f>M74</f>
         <v>0</v>
@@ -9403,18 +9620,18 @@
       <c r="AF81" s="59">
         <v>0</v>
       </c>
-      <c r="AG81" s="79" t="s">
+      <c r="AG81" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH81" s="79"/>
-      <c r="AI81" s="79"/>
-      <c r="AJ81" s="79"/>
-      <c r="AL81" s="79" t="s">
+      <c r="AH81" s="85"/>
+      <c r="AI81" s="85"/>
+      <c r="AJ81" s="85"/>
+      <c r="AL81" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM81" s="79"/>
-      <c r="AN81" s="79"/>
-      <c r="AO81" s="79"/>
+      <c r="AM81" s="85"/>
+      <c r="AN81" s="85"/>
+      <c r="AO81" s="85"/>
     </row>
     <row r="82" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="59">
@@ -9513,14 +9730,14 @@
       <c r="AF82" s="59">
         <v>0</v>
       </c>
-      <c r="AG82" s="81"/>
-      <c r="AH82" s="81"/>
-      <c r="AI82" s="81"/>
-      <c r="AJ82" s="81"/>
-      <c r="AL82" s="81"/>
-      <c r="AM82" s="81"/>
-      <c r="AN82" s="81"/>
-      <c r="AO82" s="81"/>
+      <c r="AG82" s="86"/>
+      <c r="AH82" s="86"/>
+      <c r="AI82" s="86"/>
+      <c r="AJ82" s="86"/>
+      <c r="AL82" s="86"/>
+      <c r="AM82" s="86"/>
+      <c r="AN82" s="86"/>
+      <c r="AO82" s="86"/>
     </row>
     <row r="83" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="59">
@@ -9681,10 +9898,10 @@
       </c>
     </row>
     <row r="84" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="82"/>
+      <c r="B84" s="89"/>
       <c r="C84" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A84," = (B",A83,B83,C83,D83,E83,F83,G83,H83," &lt;&lt; 24) + (B",I83,J83,K83,L83,M83,N83,O83,P83," &lt;&lt; 16) + (B",Q83,R83,S83,T83,U83,V83,W83,X83," &lt;&lt; 8) + B",Y83,Z83,AA83,AB83,AC83,AD83,AE83,AF83,";")</f>
         <v>uint32_t six = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011100 &lt;&lt; 8) + B10010110;</v>
@@ -9941,43 +10158,43 @@
       </c>
     </row>
     <row r="89" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="72" t="s">
+      <c r="A89" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="73"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="73"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="69" t="str">
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="93"/>
+      <c r="M89" s="93"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A93,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (seven)</v>
       </c>
-      <c r="S89" s="70"/>
-      <c r="T89" s="70"/>
-      <c r="U89" s="70"/>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="70"/>
-      <c r="Y89" s="70"/>
-      <c r="Z89" s="70"/>
-      <c r="AA89" s="70"/>
-      <c r="AB89" s="70"/>
-      <c r="AC89" s="70"/>
-      <c r="AD89" s="70"/>
-      <c r="AE89" s="70"/>
-      <c r="AF89" s="71"/>
+      <c r="S89" s="96"/>
+      <c r="T89" s="96"/>
+      <c r="U89" s="96"/>
+      <c r="V89" s="96"/>
+      <c r="W89" s="96"/>
+      <c r="X89" s="96"/>
+      <c r="Y89" s="96"/>
+      <c r="Z89" s="96"/>
+      <c r="AA89" s="96"/>
+      <c r="AB89" s="96"/>
+      <c r="AC89" s="96"/>
+      <c r="AD89" s="96"/>
+      <c r="AE89" s="96"/>
+      <c r="AF89" s="97"/>
       <c r="AG89" s="22">
         <f>M83</f>
         <v>0</v>
@@ -10093,18 +10310,18 @@
       <c r="AF90" s="59">
         <v>0</v>
       </c>
-      <c r="AG90" s="79" t="s">
+      <c r="AG90" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH90" s="79"/>
-      <c r="AI90" s="79"/>
-      <c r="AJ90" s="79"/>
-      <c r="AL90" s="79" t="s">
+      <c r="AH90" s="85"/>
+      <c r="AI90" s="85"/>
+      <c r="AJ90" s="85"/>
+      <c r="AL90" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM90" s="79"/>
-      <c r="AN90" s="79"/>
-      <c r="AO90" s="79"/>
+      <c r="AM90" s="85"/>
+      <c r="AN90" s="85"/>
+      <c r="AO90" s="85"/>
     </row>
     <row r="91" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="59">
@@ -10203,14 +10420,14 @@
       <c r="AF91" s="59">
         <v>1</v>
       </c>
-      <c r="AG91" s="81"/>
-      <c r="AH91" s="81"/>
-      <c r="AI91" s="81"/>
-      <c r="AJ91" s="81"/>
-      <c r="AL91" s="81"/>
-      <c r="AM91" s="81"/>
-      <c r="AN91" s="81"/>
-      <c r="AO91" s="81"/>
+      <c r="AG91" s="86"/>
+      <c r="AH91" s="86"/>
+      <c r="AI91" s="86"/>
+      <c r="AJ91" s="86"/>
+      <c r="AL91" s="86"/>
+      <c r="AM91" s="86"/>
+      <c r="AN91" s="86"/>
+      <c r="AO91" s="86"/>
     </row>
     <row r="92" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="59">
@@ -10371,10 +10588,10 @@
       </c>
     </row>
     <row r="93" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="82"/>
+      <c r="B93" s="89"/>
       <c r="C93" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A93," = (B",A92,B92,C92,D92,E92,F92,G92,H92," &lt;&lt; 24) + (B",I92,J92,K92,L92,M92,N92,O92,P92," &lt;&lt; 16) + (B",Q92,R92,S92,T92,U92,V92,W92,X92," &lt;&lt; 8) + B",Y92,Z92,AA92,AB92,AC92,AD92,AE92,AF92,";")</f>
         <v>uint32_t seven = (B00000000 &lt;&lt; 24) + (B00001010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01001111;</v>
@@ -10631,43 +10848,43 @@
       </c>
     </row>
     <row r="98" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="72" t="s">
+      <c r="A98" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="73"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73"/>
-      <c r="O98" s="73"/>
-      <c r="P98" s="73"/>
-      <c r="Q98" s="74"/>
-      <c r="R98" s="69" t="str">
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="93"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="93"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="93"/>
+      <c r="K98" s="93"/>
+      <c r="L98" s="93"/>
+      <c r="M98" s="93"/>
+      <c r="N98" s="93"/>
+      <c r="O98" s="93"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="94"/>
+      <c r="R98" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A102,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (eight)</v>
       </c>
-      <c r="S98" s="70"/>
-      <c r="T98" s="70"/>
-      <c r="U98" s="70"/>
-      <c r="V98" s="70"/>
-      <c r="W98" s="70"/>
-      <c r="X98" s="70"/>
-      <c r="Y98" s="70"/>
-      <c r="Z98" s="70"/>
-      <c r="AA98" s="70"/>
-      <c r="AB98" s="70"/>
-      <c r="AC98" s="70"/>
-      <c r="AD98" s="70"/>
-      <c r="AE98" s="70"/>
-      <c r="AF98" s="71"/>
+      <c r="S98" s="96"/>
+      <c r="T98" s="96"/>
+      <c r="U98" s="96"/>
+      <c r="V98" s="96"/>
+      <c r="W98" s="96"/>
+      <c r="X98" s="96"/>
+      <c r="Y98" s="96"/>
+      <c r="Z98" s="96"/>
+      <c r="AA98" s="96"/>
+      <c r="AB98" s="96"/>
+      <c r="AC98" s="96"/>
+      <c r="AD98" s="96"/>
+      <c r="AE98" s="96"/>
+      <c r="AF98" s="97"/>
       <c r="AG98" s="22">
         <f>M92</f>
         <v>1</v>
@@ -10783,18 +11000,18 @@
       <c r="AF99" s="59">
         <v>0</v>
       </c>
-      <c r="AG99" s="79" t="s">
+      <c r="AG99" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH99" s="79"/>
-      <c r="AI99" s="79"/>
-      <c r="AJ99" s="79"/>
-      <c r="AL99" s="79" t="s">
+      <c r="AH99" s="85"/>
+      <c r="AI99" s="85"/>
+      <c r="AJ99" s="85"/>
+      <c r="AL99" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM99" s="79"/>
-      <c r="AN99" s="79"/>
-      <c r="AO99" s="79"/>
+      <c r="AM99" s="85"/>
+      <c r="AN99" s="85"/>
+      <c r="AO99" s="85"/>
     </row>
     <row r="100" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="59">
@@ -10893,14 +11110,14 @@
       <c r="AF100" s="59">
         <v>0</v>
       </c>
-      <c r="AG100" s="81"/>
-      <c r="AH100" s="81"/>
-      <c r="AI100" s="81"/>
-      <c r="AJ100" s="81"/>
-      <c r="AL100" s="81"/>
-      <c r="AM100" s="81"/>
-      <c r="AN100" s="81"/>
-      <c r="AO100" s="81"/>
+      <c r="AG100" s="86"/>
+      <c r="AH100" s="86"/>
+      <c r="AI100" s="86"/>
+      <c r="AJ100" s="86"/>
+      <c r="AL100" s="86"/>
+      <c r="AM100" s="86"/>
+      <c r="AN100" s="86"/>
+      <c r="AO100" s="86"/>
     </row>
     <row r="101" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="59">
@@ -11061,10 +11278,10 @@
       </c>
     </row>
     <row r="102" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="82"/>
+      <c r="B102" s="89"/>
       <c r="C102" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A102," = (B",A101,B101,C101,D101,E101,F101,G101,H101," &lt;&lt; 24) + (B",I101,J101,K101,L101,M101,N101,O101,P101," &lt;&lt; 16) + (B",Q101,R101,S101,T101,U101,V101,W101,X101," &lt;&lt; 8) + B",Y101,Z101,AA101,AB101,AC101,AD101,AE101,AF101,";")</f>
         <v>uint32_t eight = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011000 &lt;&lt; 8) + B11010110;</v>
@@ -11321,43 +11538,43 @@
       </c>
     </row>
     <row r="107" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="72" t="s">
+      <c r="A107" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="73"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
-      <c r="K107" s="73"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="73"/>
-      <c r="N107" s="73"/>
-      <c r="O107" s="73"/>
-      <c r="P107" s="73"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="69" t="str">
+      <c r="B107" s="93"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="93"/>
+      <c r="J107" s="93"/>
+      <c r="K107" s="93"/>
+      <c r="L107" s="93"/>
+      <c r="M107" s="93"/>
+      <c r="N107" s="93"/>
+      <c r="O107" s="93"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="94"/>
+      <c r="R107" s="95" t="str">
         <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A111,")")</f>
         <v>&lt;- the original 28-bit representation of decimal glyph (nine)</v>
       </c>
-      <c r="S107" s="70"/>
-      <c r="T107" s="70"/>
-      <c r="U107" s="70"/>
-      <c r="V107" s="70"/>
-      <c r="W107" s="70"/>
-      <c r="X107" s="70"/>
-      <c r="Y107" s="70"/>
-      <c r="Z107" s="70"/>
-      <c r="AA107" s="70"/>
-      <c r="AB107" s="70"/>
-      <c r="AC107" s="70"/>
-      <c r="AD107" s="70"/>
-      <c r="AE107" s="70"/>
-      <c r="AF107" s="71"/>
+      <c r="S107" s="96"/>
+      <c r="T107" s="96"/>
+      <c r="U107" s="96"/>
+      <c r="V107" s="96"/>
+      <c r="W107" s="96"/>
+      <c r="X107" s="96"/>
+      <c r="Y107" s="96"/>
+      <c r="Z107" s="96"/>
+      <c r="AA107" s="96"/>
+      <c r="AB107" s="96"/>
+      <c r="AC107" s="96"/>
+      <c r="AD107" s="96"/>
+      <c r="AE107" s="96"/>
+      <c r="AF107" s="97"/>
       <c r="AG107" s="22">
         <f>M101</f>
         <v>0</v>
@@ -11473,18 +11690,18 @@
       <c r="AF108" s="59">
         <v>0</v>
       </c>
-      <c r="AG108" s="79" t="s">
+      <c r="AG108" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH108" s="79"/>
-      <c r="AI108" s="79"/>
-      <c r="AJ108" s="79"/>
-      <c r="AL108" s="79" t="s">
+      <c r="AH108" s="85"/>
+      <c r="AI108" s="85"/>
+      <c r="AJ108" s="85"/>
+      <c r="AL108" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="AM108" s="79"/>
-      <c r="AN108" s="79"/>
-      <c r="AO108" s="79"/>
+      <c r="AM108" s="85"/>
+      <c r="AN108" s="85"/>
+      <c r="AO108" s="85"/>
     </row>
     <row r="109" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="59">
@@ -11583,14 +11800,14 @@
       <c r="AF109" s="59">
         <v>0</v>
       </c>
-      <c r="AG109" s="81"/>
-      <c r="AH109" s="81"/>
-      <c r="AI109" s="81"/>
-      <c r="AJ109" s="81"/>
-      <c r="AL109" s="81"/>
-      <c r="AM109" s="81"/>
-      <c r="AN109" s="81"/>
-      <c r="AO109" s="81"/>
+      <c r="AG109" s="86"/>
+      <c r="AH109" s="86"/>
+      <c r="AI109" s="86"/>
+      <c r="AJ109" s="86"/>
+      <c r="AL109" s="86"/>
+      <c r="AM109" s="86"/>
+      <c r="AN109" s="86"/>
+      <c r="AO109" s="86"/>
     </row>
     <row r="110" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="59">
@@ -11751,10 +11968,10 @@
       </c>
     </row>
     <row r="111" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="82" t="s">
+      <c r="A111" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B111" s="82"/>
+      <c r="B111" s="89"/>
       <c r="C111" s="60" t="str">
         <f>CONCATENATE("uint32_t ",A111," = (B",A110,B110,C110,D110,E110,F110,G110,H110," &lt;&lt; 24) + (B",I110,J110,K110,L110,M110,N110,O110,P110," &lt;&lt; 16) + (B",Q110,R110,S110,T110,U110,V110,W110,X110," &lt;&lt; 8) + B",Y110,Z110,AA110,AB110,AC110,AD110,AE110,AF110,";")</f>
         <v>uint32_t nine = (B00000000 &lt;&lt; 24) + (B00010001 &lt;&lt; 16) + (B00111000 &lt;&lt; 8) + B11010110;</v>
@@ -11863,7 +12080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="35"/>
@@ -11913,7 +12130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="35"/>
@@ -11964,7 +12181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -12010,7 +12227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -12061,48 +12278,3656 @@
         <v>21</v>
       </c>
     </row>
+    <row r="117" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="93"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="93"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="93"/>
+      <c r="H117" s="93"/>
+      <c r="I117" s="93"/>
+      <c r="J117" s="93"/>
+      <c r="K117" s="93"/>
+      <c r="L117" s="93"/>
+      <c r="M117" s="93"/>
+      <c r="N117" s="93"/>
+      <c r="O117" s="93"/>
+      <c r="P117" s="93"/>
+      <c r="Q117" s="94"/>
+      <c r="R117" s="95" t="str">
+        <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A121,")")</f>
+        <v>&lt;- the original 28-bit representation of decimal glyph (GLYPH_NINE)</v>
+      </c>
+      <c r="S117" s="96"/>
+      <c r="T117" s="96"/>
+      <c r="U117" s="96"/>
+      <c r="V117" s="96"/>
+      <c r="W117" s="96"/>
+      <c r="X117" s="96"/>
+      <c r="Y117" s="96"/>
+      <c r="Z117" s="96"/>
+      <c r="AA117" s="96"/>
+      <c r="AB117" s="96"/>
+      <c r="AC117" s="96"/>
+      <c r="AD117" s="96"/>
+      <c r="AE117" s="96"/>
+      <c r="AF117" s="97"/>
+      <c r="AG117" s="18"/>
+      <c r="AH117" s="36"/>
+      <c r="AI117" s="18"/>
+      <c r="AJ117" s="18"/>
+      <c r="AK117" s="62"/>
+      <c r="AL117" s="18"/>
+      <c r="AM117" s="36"/>
+      <c r="AN117" s="18"/>
+      <c r="AO117" s="18"/>
+      <c r="AP117" s="62"/>
+    </row>
+    <row r="118" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="59">
+        <v>21</v>
+      </c>
+      <c r="F118" s="63">
+        <v>20</v>
+      </c>
+      <c r="G118" s="63">
+        <v>4</v>
+      </c>
+      <c r="H118" s="63">
+        <v>19</v>
+      </c>
+      <c r="I118" s="63">
+        <v>16</v>
+      </c>
+      <c r="J118" s="63">
+        <v>18</v>
+      </c>
+      <c r="K118" s="64"/>
+      <c r="L118" s="63">
+        <v>17</v>
+      </c>
+      <c r="M118" s="63">
+        <v>16</v>
+      </c>
+      <c r="N118" s="63">
+        <v>5</v>
+      </c>
+      <c r="O118" s="63">
+        <v>15</v>
+      </c>
+      <c r="P118" s="63">
+        <v>14</v>
+      </c>
+      <c r="Q118" s="63">
+        <v>13</v>
+      </c>
+      <c r="R118" s="59">
+        <v>12</v>
+      </c>
+      <c r="S118" s="59">
+        <v>11</v>
+      </c>
+      <c r="T118" s="59">
+        <v>10</v>
+      </c>
+      <c r="U118" s="59">
+        <v>6</v>
+      </c>
+      <c r="V118" s="59">
+        <v>9</v>
+      </c>
+      <c r="W118" s="59">
+        <v>8</v>
+      </c>
+      <c r="X118" s="59">
+        <v>7</v>
+      </c>
+      <c r="Y118" s="59">
+        <v>6</v>
+      </c>
+      <c r="Z118" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA118" s="65"/>
+      <c r="AB118" s="59">
+        <v>4</v>
+      </c>
+      <c r="AC118" s="59">
+        <v>3</v>
+      </c>
+      <c r="AD118" s="59">
+        <v>2</v>
+      </c>
+      <c r="AE118" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF118" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH118" s="85"/>
+      <c r="AI118" s="85"/>
+      <c r="AJ118" s="85"/>
+      <c r="AK118" s="62"/>
+      <c r="AL118" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM118" s="85"/>
+      <c r="AN118" s="85"/>
+      <c r="AO118" s="85"/>
+      <c r="AP118" s="62"/>
+      <c r="AQ118" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR118" s="85"/>
+      <c r="AS118" s="85"/>
+      <c r="AT118" s="85"/>
+    </row>
+    <row r="119" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="59">
+        <v>0</v>
+      </c>
+      <c r="B119" s="59">
+        <v>0</v>
+      </c>
+      <c r="C119" s="59">
+        <v>0</v>
+      </c>
+      <c r="D119" s="59">
+        <v>0</v>
+      </c>
+      <c r="E119" s="59">
+        <f>AT126</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="59">
+        <f>AS126</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="59">
+        <f>AQ126</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="59">
+        <f>AQ126</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="59">
+        <f>AT125</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="59">
+        <f>AS125</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="59">
+        <v>0</v>
+      </c>
+      <c r="L119" s="59">
+        <f>AQ125</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="59">
+        <f>AT124</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="59">
+        <f>AS121</f>
+        <v>0</v>
+      </c>
+      <c r="O119" s="59">
+        <f>AR124</f>
+        <v>0</v>
+      </c>
+      <c r="P119" s="59">
+        <f>AQ124</f>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="59">
+        <f>AT123</f>
+        <v>0</v>
+      </c>
+      <c r="R119" s="59">
+        <f>AS123</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="59">
+        <f>AR123</f>
+        <v>0</v>
+      </c>
+      <c r="T119" s="59">
+        <f>AQ123</f>
+        <v>0</v>
+      </c>
+      <c r="U119" s="59">
+        <f>AT121</f>
+        <v>0</v>
+      </c>
+      <c r="V119" s="59">
+        <f>AS122</f>
+        <v>0</v>
+      </c>
+      <c r="W119" s="59">
+        <f>AR122</f>
+        <v>0</v>
+      </c>
+      <c r="X119" s="59">
+        <f>AQ122</f>
+        <v>0</v>
+      </c>
+      <c r="Y119" s="59">
+        <f>AT121</f>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="59">
+        <f>AS121</f>
+        <v>0</v>
+      </c>
+      <c r="AA119" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="59">
+        <f>AQ121</f>
+        <v>0</v>
+      </c>
+      <c r="AC119" s="59">
+        <f>AT120</f>
+        <v>0</v>
+      </c>
+      <c r="AD119" s="59">
+        <f>AS120</f>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="59">
+        <f>AR120</f>
+        <v>0</v>
+      </c>
+      <c r="AF119" s="59">
+        <f>AQ120</f>
+        <v>0</v>
+      </c>
+      <c r="AG119" s="86"/>
+      <c r="AH119" s="86"/>
+      <c r="AI119" s="86"/>
+      <c r="AJ119" s="86"/>
+      <c r="AK119" s="62"/>
+      <c r="AL119" s="86"/>
+      <c r="AM119" s="86"/>
+      <c r="AN119" s="86"/>
+      <c r="AO119" s="86"/>
+      <c r="AP119" s="62"/>
+      <c r="AQ119" s="86"/>
+      <c r="AR119" s="86"/>
+      <c r="AS119" s="86"/>
+      <c r="AT119" s="86"/>
+    </row>
+    <row r="120" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="59">
+        <f>E119</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="59">
+        <f>F119</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="59">
+        <f>G119</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="59">
+        <f>J119</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="59">
+        <f>L119</f>
+        <v>0</v>
+      </c>
+      <c r="P120" s="59">
+        <f>M119</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="59">
+        <f t="shared" ref="Q120" si="59">O119</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="59">
+        <f t="shared" ref="R120" si="60">P119</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="59">
+        <f t="shared" ref="S120" si="61">Q119</f>
+        <v>0</v>
+      </c>
+      <c r="T120" s="59">
+        <f t="shared" ref="T120" si="62">R119</f>
+        <v>0</v>
+      </c>
+      <c r="U120" s="59">
+        <f t="shared" ref="U120" si="63">S119</f>
+        <v>0</v>
+      </c>
+      <c r="V120" s="59">
+        <f t="shared" ref="V120" si="64">T119</f>
+        <v>0</v>
+      </c>
+      <c r="W120" s="59">
+        <f>V119</f>
+        <v>0</v>
+      </c>
+      <c r="X120" s="59">
+        <f>W119</f>
+        <v>0</v>
+      </c>
+      <c r="Y120" s="59">
+        <f>X119</f>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="59">
+        <f>Y119</f>
+        <v>0</v>
+      </c>
+      <c r="AA120" s="59">
+        <f>Z119</f>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="59">
+        <f t="shared" ref="AB120:AE120" si="65">AB119</f>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="59">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="59">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="59">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF120" s="59">
+        <f>AF119</f>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="18">
+        <f>AF120</f>
+        <v>0</v>
+      </c>
+      <c r="AH120" s="18">
+        <f>AE120</f>
+        <v>0</v>
+      </c>
+      <c r="AI120" s="18">
+        <f>AD120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="19">
+        <f>AC120</f>
+        <v>0</v>
+      </c>
+      <c r="AL120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM120" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN120" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO120" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ120" s="104">
+        <v>0</v>
+      </c>
+      <c r="AR120" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS120" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT120" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="89"/>
+      <c r="C121" s="60" t="str">
+        <f>CONCATENATE("#define ",A121," = (B",A120,B120,C120,D120,E120,F120,G120,H120," &lt;&lt; 24) + (B",I120,J120,K120,L120,M120,N120,O120,P120," &lt;&lt; 16) + (B",Q120,R120,S120,T120,U120,V120,W120,X120," &lt;&lt; 8) + B",Y120,Z120,AA120,AB120,AC120,AD120,AE120,AF120,";")</f>
+        <v>#define GLYPH_NINE = (B00000000 &lt;&lt; 24) + (B00000000 &lt;&lt; 16) + (B00000000 &lt;&lt; 8) + B00000000;</v>
+      </c>
+      <c r="D121" s="61"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="58"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="58"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="61"/>
+      <c r="S121" s="61"/>
+      <c r="T121" s="61"/>
+      <c r="U121" s="57"/>
+      <c r="V121" s="57"/>
+      <c r="W121" s="62"/>
+      <c r="X121" s="62"/>
+      <c r="Y121" s="62"/>
+      <c r="Z121" s="62"/>
+      <c r="AA121" s="62"/>
+      <c r="AB121" s="62"/>
+      <c r="AC121" s="62"/>
+      <c r="AD121" s="62"/>
+      <c r="AE121" s="62"/>
+      <c r="AF121" s="62"/>
+      <c r="AG121" s="16">
+        <f>AB120</f>
+        <v>0</v>
+      </c>
+      <c r="AH121" s="17"/>
+      <c r="AI121" s="18">
+        <f>AA120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ121" s="19">
+        <f>Z120</f>
+        <v>0</v>
+      </c>
+      <c r="AL121" s="16">
+        <v>4</v>
+      </c>
+      <c r="AM121" s="17"/>
+      <c r="AN121" s="18">
+        <v>5</v>
+      </c>
+      <c r="AO121" s="19">
+        <v>6</v>
+      </c>
+      <c r="AQ121" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR121" s="106"/>
+      <c r="AS121" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT121" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="36"/>
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="AG122" s="16">
+        <f>Y120</f>
+        <v>0</v>
+      </c>
+      <c r="AH122" s="18">
+        <f>X120</f>
+        <v>0</v>
+      </c>
+      <c r="AI122" s="18">
+        <f>W120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="19">
+        <f>Z120</f>
+        <v>0</v>
+      </c>
+      <c r="AL122" s="16">
+        <v>7</v>
+      </c>
+      <c r="AM122" s="18">
+        <v>8</v>
+      </c>
+      <c r="AN122" s="18">
+        <v>9</v>
+      </c>
+      <c r="AO122" s="19">
+        <f>AO121</f>
+        <v>6</v>
+      </c>
+      <c r="AQ122" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR122" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS122" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT122" s="129">
+        <f>AT121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="36"/>
+      <c r="R123" s="36"/>
+      <c r="S123" s="36"/>
+      <c r="T123" s="36"/>
+      <c r="AG123" s="16">
+        <f>V120</f>
+        <v>0</v>
+      </c>
+      <c r="AH123" s="18">
+        <f>U120</f>
+        <v>0</v>
+      </c>
+      <c r="AI123" s="18">
+        <f>T120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="19">
+        <f>S120</f>
+        <v>0</v>
+      </c>
+      <c r="AL123" s="16">
+        <v>10</v>
+      </c>
+      <c r="AM123" s="18">
+        <v>11</v>
+      </c>
+      <c r="AN123" s="18">
+        <v>12</v>
+      </c>
+      <c r="AO123" s="19">
+        <v>13</v>
+      </c>
+      <c r="AQ123" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR123" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS123" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT123" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="36"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="36"/>
+      <c r="R124" s="36"/>
+      <c r="S124" s="36"/>
+      <c r="T124" s="36"/>
+      <c r="AG124" s="16">
+        <f>R120</f>
+        <v>0</v>
+      </c>
+      <c r="AH124" s="20">
+        <f>Q120</f>
+        <v>0</v>
+      </c>
+      <c r="AI124" s="18">
+        <f>AA120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="21">
+        <f>P120</f>
+        <v>0</v>
+      </c>
+      <c r="AL124" s="16">
+        <v>14</v>
+      </c>
+      <c r="AM124" s="20">
+        <v>15</v>
+      </c>
+      <c r="AN124" s="18">
+        <f>AN121</f>
+        <v>5</v>
+      </c>
+      <c r="AO124" s="21">
+        <v>16</v>
+      </c>
+      <c r="AQ124" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR124" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS124" s="130">
+        <f>AS121</f>
+        <v>0</v>
+      </c>
+      <c r="AT124" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="36"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="36"/>
+      <c r="R125" s="36"/>
+      <c r="S125" s="36"/>
+      <c r="T125" s="36"/>
+      <c r="AG125" s="16">
+        <f>O120</f>
+        <v>0</v>
+      </c>
+      <c r="AH125" s="17"/>
+      <c r="AI125" s="18">
+        <f>N120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="21">
+        <f>P120</f>
+        <v>0</v>
+      </c>
+      <c r="AL125" s="16">
+        <v>17</v>
+      </c>
+      <c r="AM125" s="17"/>
+      <c r="AN125" s="18">
+        <v>18</v>
+      </c>
+      <c r="AO125" s="21">
+        <f>AO124</f>
+        <v>16</v>
+      </c>
+      <c r="AQ125" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR125" s="106"/>
+      <c r="AS125" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT125" s="129">
+        <f>AT124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="36"/>
+      <c r="S126" s="36"/>
+      <c r="T126" s="36"/>
+      <c r="AG126" s="22">
+        <f>M120</f>
+        <v>0</v>
+      </c>
+      <c r="AH126" s="23">
+        <f>AB120</f>
+        <v>0</v>
+      </c>
+      <c r="AI126" s="24">
+        <f>L120</f>
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="25">
+        <f>K120</f>
+        <v>0</v>
+      </c>
+      <c r="AL126" s="22">
+        <v>19</v>
+      </c>
+      <c r="AM126" s="23">
+        <f>AL121</f>
+        <v>4</v>
+      </c>
+      <c r="AN126" s="24">
+        <v>20</v>
+      </c>
+      <c r="AO126" s="25">
+        <v>21</v>
+      </c>
+      <c r="AQ126" s="111">
+        <v>0</v>
+      </c>
+      <c r="AR126" s="131">
+        <f>AQ121</f>
+        <v>0</v>
+      </c>
+      <c r="AS126" s="113">
+        <v>0</v>
+      </c>
+      <c r="AT126" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="93"/>
+      <c r="L127" s="93"/>
+      <c r="M127" s="93"/>
+      <c r="N127" s="93"/>
+      <c r="O127" s="93"/>
+      <c r="P127" s="93"/>
+      <c r="Q127" s="94"/>
+      <c r="R127" s="95" t="str">
+        <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A131,")")</f>
+        <v>&lt;- the original 28-bit representation of decimal glyph (GLYPH_NINE)</v>
+      </c>
+      <c r="S127" s="96"/>
+      <c r="T127" s="96"/>
+      <c r="U127" s="96"/>
+      <c r="V127" s="96"/>
+      <c r="W127" s="96"/>
+      <c r="X127" s="96"/>
+      <c r="Y127" s="96"/>
+      <c r="Z127" s="96"/>
+      <c r="AA127" s="96"/>
+      <c r="AB127" s="96"/>
+      <c r="AC127" s="96"/>
+      <c r="AD127" s="96"/>
+      <c r="AE127" s="96"/>
+      <c r="AF127" s="97"/>
+      <c r="AG127" s="107"/>
+      <c r="AH127" s="117"/>
+      <c r="AI127" s="107"/>
+      <c r="AJ127" s="107"/>
+      <c r="AK127" s="125"/>
+      <c r="AL127" s="107"/>
+      <c r="AM127" s="117"/>
+      <c r="AN127" s="107"/>
+      <c r="AO127" s="107"/>
+      <c r="AP127" s="125"/>
+      <c r="AQ127" s="103"/>
+      <c r="AR127" s="103"/>
+      <c r="AS127" s="103"/>
+      <c r="AT127" s="103"/>
+    </row>
+    <row r="128" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="115"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="115"/>
+      <c r="D128" s="115"/>
+      <c r="E128" s="122">
+        <v>21</v>
+      </c>
+      <c r="F128" s="126">
+        <v>20</v>
+      </c>
+      <c r="G128" s="126">
+        <v>4</v>
+      </c>
+      <c r="H128" s="126">
+        <v>19</v>
+      </c>
+      <c r="I128" s="126">
+        <v>16</v>
+      </c>
+      <c r="J128" s="126">
+        <v>18</v>
+      </c>
+      <c r="K128" s="127"/>
+      <c r="L128" s="126">
+        <v>17</v>
+      </c>
+      <c r="M128" s="126">
+        <v>16</v>
+      </c>
+      <c r="N128" s="126">
+        <v>5</v>
+      </c>
+      <c r="O128" s="126">
+        <v>15</v>
+      </c>
+      <c r="P128" s="126">
+        <v>14</v>
+      </c>
+      <c r="Q128" s="126">
+        <v>13</v>
+      </c>
+      <c r="R128" s="122">
+        <v>12</v>
+      </c>
+      <c r="S128" s="122">
+        <v>11</v>
+      </c>
+      <c r="T128" s="122">
+        <v>10</v>
+      </c>
+      <c r="U128" s="122">
+        <v>6</v>
+      </c>
+      <c r="V128" s="122">
+        <v>9</v>
+      </c>
+      <c r="W128" s="122">
+        <v>8</v>
+      </c>
+      <c r="X128" s="122">
+        <v>7</v>
+      </c>
+      <c r="Y128" s="122">
+        <v>6</v>
+      </c>
+      <c r="Z128" s="122">
+        <v>5</v>
+      </c>
+      <c r="AA128" s="128"/>
+      <c r="AB128" s="122">
+        <v>4</v>
+      </c>
+      <c r="AC128" s="122">
+        <v>3</v>
+      </c>
+      <c r="AD128" s="122">
+        <v>2</v>
+      </c>
+      <c r="AE128" s="122">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="122">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH128" s="85"/>
+      <c r="AI128" s="85"/>
+      <c r="AJ128" s="85"/>
+      <c r="AK128" s="125"/>
+      <c r="AL128" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM128" s="85"/>
+      <c r="AN128" s="85"/>
+      <c r="AO128" s="85"/>
+      <c r="AP128" s="125"/>
+      <c r="AQ128" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR128" s="85"/>
+      <c r="AS128" s="85"/>
+      <c r="AT128" s="85"/>
+    </row>
+    <row r="129" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="122">
+        <v>0</v>
+      </c>
+      <c r="B129" s="122">
+        <v>0</v>
+      </c>
+      <c r="C129" s="122">
+        <v>0</v>
+      </c>
+      <c r="D129" s="122">
+        <v>0</v>
+      </c>
+      <c r="E129" s="122">
+        <f>AT136</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="122">
+        <f>AS136</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="122">
+        <f>AQ136</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="122">
+        <f>AQ136</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="122">
+        <f>AT135</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="122">
+        <f>AS135</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="122">
+        <v>0</v>
+      </c>
+      <c r="L129" s="122">
+        <f>AQ135</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="122">
+        <f>AT134</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="122">
+        <f>AS131</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="122">
+        <f>AR134</f>
+        <v>0</v>
+      </c>
+      <c r="P129" s="122">
+        <f>AQ134</f>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="122">
+        <f>AT133</f>
+        <v>0</v>
+      </c>
+      <c r="R129" s="122">
+        <f>AS133</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="122">
+        <f>AR133</f>
+        <v>0</v>
+      </c>
+      <c r="T129" s="122">
+        <f>AQ133</f>
+        <v>0</v>
+      </c>
+      <c r="U129" s="122">
+        <f>AT131</f>
+        <v>0</v>
+      </c>
+      <c r="V129" s="122">
+        <f>AS132</f>
+        <v>0</v>
+      </c>
+      <c r="W129" s="122">
+        <f>AR132</f>
+        <v>0</v>
+      </c>
+      <c r="X129" s="122">
+        <f>AQ132</f>
+        <v>0</v>
+      </c>
+      <c r="Y129" s="122">
+        <f>AT131</f>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="122">
+        <f>AS131</f>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="122">
+        <f>AQ131</f>
+        <v>0</v>
+      </c>
+      <c r="AC129" s="122">
+        <f>AT130</f>
+        <v>0</v>
+      </c>
+      <c r="AD129" s="122">
+        <f>AS130</f>
+        <v>0</v>
+      </c>
+      <c r="AE129" s="122">
+        <f>AR130</f>
+        <v>0</v>
+      </c>
+      <c r="AF129" s="122">
+        <f>AQ130</f>
+        <v>0</v>
+      </c>
+      <c r="AG129" s="86"/>
+      <c r="AH129" s="86"/>
+      <c r="AI129" s="86"/>
+      <c r="AJ129" s="86"/>
+      <c r="AK129" s="125"/>
+      <c r="AL129" s="86"/>
+      <c r="AM129" s="86"/>
+      <c r="AN129" s="86"/>
+      <c r="AO129" s="86"/>
+      <c r="AP129" s="125"/>
+      <c r="AQ129" s="86"/>
+      <c r="AR129" s="86"/>
+      <c r="AS129" s="86"/>
+      <c r="AT129" s="86"/>
+    </row>
+    <row r="130" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="122">
+        <f>E129</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="122">
+        <f>F129</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="122">
+        <f>G129</f>
+        <v>0</v>
+      </c>
+      <c r="N130" s="122">
+        <f>J129</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="122">
+        <f>L129</f>
+        <v>0</v>
+      </c>
+      <c r="P130" s="122">
+        <f>M129</f>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="122">
+        <f t="shared" ref="Q130" si="66">O129</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="122">
+        <f t="shared" ref="R130" si="67">P129</f>
+        <v>0</v>
+      </c>
+      <c r="S130" s="122">
+        <f t="shared" ref="S130" si="68">Q129</f>
+        <v>0</v>
+      </c>
+      <c r="T130" s="122">
+        <f t="shared" ref="T130" si="69">R129</f>
+        <v>0</v>
+      </c>
+      <c r="U130" s="122">
+        <f t="shared" ref="U130" si="70">S129</f>
+        <v>0</v>
+      </c>
+      <c r="V130" s="122">
+        <f t="shared" ref="V130" si="71">T129</f>
+        <v>0</v>
+      </c>
+      <c r="W130" s="122">
+        <f>V129</f>
+        <v>0</v>
+      </c>
+      <c r="X130" s="122">
+        <f>W129</f>
+        <v>0</v>
+      </c>
+      <c r="Y130" s="122">
+        <f>X129</f>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="122">
+        <f>Y129</f>
+        <v>0</v>
+      </c>
+      <c r="AA130" s="122">
+        <f>Z129</f>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="122">
+        <f t="shared" ref="AB130:AE130" si="72">AB129</f>
+        <v>0</v>
+      </c>
+      <c r="AC130" s="122">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AD130" s="122">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AE130" s="122">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AF130" s="122">
+        <f>AF129</f>
+        <v>0</v>
+      </c>
+      <c r="AG130" s="107">
+        <f>AF130</f>
+        <v>0</v>
+      </c>
+      <c r="AH130" s="107">
+        <f>AE130</f>
+        <v>0</v>
+      </c>
+      <c r="AI130" s="107">
+        <f>AD130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="108">
+        <f>AC130</f>
+        <v>0</v>
+      </c>
+      <c r="AK130" s="103"/>
+      <c r="AL130" s="105">
+        <v>0</v>
+      </c>
+      <c r="AM130" s="107">
+        <v>1</v>
+      </c>
+      <c r="AN130" s="107">
+        <v>2</v>
+      </c>
+      <c r="AO130" s="108">
+        <v>3</v>
+      </c>
+      <c r="AP130" s="103"/>
+      <c r="AQ130" s="104">
+        <v>0</v>
+      </c>
+      <c r="AR130" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS130" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT130" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="89"/>
+      <c r="C131" s="123" t="str">
+        <f>CONCATENATE("#define ",A131," = (B",A130,B130,C130,D130,E130,F130,G130,H130," &lt;&lt; 24) + (B",I130,J130,K130,L130,M130,N130,O130,P130," &lt;&lt; 16) + (B",Q130,R130,S130,T130,U130,V130,W130,X130," &lt;&lt; 8) + B",Y130,Z130,AA130,AB130,AC130,AD130,AE130,AF130,";")</f>
+        <v>#define GLYPH_NINE = (B00000000 &lt;&lt; 24) + (B00000000 &lt;&lt; 16) + (B00000000 &lt;&lt; 8) + B00000000;</v>
+      </c>
+      <c r="D131" s="124"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="124"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="124"/>
+      <c r="J131" s="121"/>
+      <c r="K131" s="121"/>
+      <c r="L131" s="124"/>
+      <c r="M131" s="124"/>
+      <c r="N131" s="124"/>
+      <c r="O131" s="124"/>
+      <c r="P131" s="121"/>
+      <c r="Q131" s="124"/>
+      <c r="R131" s="124"/>
+      <c r="S131" s="124"/>
+      <c r="T131" s="124"/>
+      <c r="U131" s="120"/>
+      <c r="V131" s="120"/>
+      <c r="W131" s="125"/>
+      <c r="X131" s="125"/>
+      <c r="Y131" s="125"/>
+      <c r="Z131" s="125"/>
+      <c r="AA131" s="125"/>
+      <c r="AB131" s="125"/>
+      <c r="AC131" s="125"/>
+      <c r="AD131" s="125"/>
+      <c r="AE131" s="125"/>
+      <c r="AF131" s="125"/>
+      <c r="AG131" s="105">
+        <f>AB130</f>
+        <v>0</v>
+      </c>
+      <c r="AH131" s="106"/>
+      <c r="AI131" s="107">
+        <f>AA130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ131" s="108">
+        <f>Z130</f>
+        <v>0</v>
+      </c>
+      <c r="AK131" s="103"/>
+      <c r="AL131" s="105">
+        <v>4</v>
+      </c>
+      <c r="AM131" s="106"/>
+      <c r="AN131" s="107">
+        <v>5</v>
+      </c>
+      <c r="AO131" s="108">
+        <v>6</v>
+      </c>
+      <c r="AP131" s="103"/>
+      <c r="AQ131" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR131" s="106"/>
+      <c r="AS131" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT131" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="119"/>
+      <c r="B132" s="119"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="117"/>
+      <c r="E132" s="118"/>
+      <c r="F132" s="117"/>
+      <c r="G132" s="117"/>
+      <c r="H132" s="117"/>
+      <c r="I132" s="117"/>
+      <c r="J132" s="118"/>
+      <c r="K132" s="118"/>
+      <c r="L132" s="117"/>
+      <c r="M132" s="117"/>
+      <c r="N132" s="117"/>
+      <c r="O132" s="117"/>
+      <c r="P132" s="118"/>
+      <c r="Q132" s="117"/>
+      <c r="R132" s="117"/>
+      <c r="S132" s="117"/>
+      <c r="T132" s="117"/>
+      <c r="U132" s="103"/>
+      <c r="V132" s="103"/>
+      <c r="W132" s="103"/>
+      <c r="X132" s="103"/>
+      <c r="Y132" s="103"/>
+      <c r="Z132" s="103"/>
+      <c r="AA132" s="103"/>
+      <c r="AB132" s="103"/>
+      <c r="AC132" s="103"/>
+      <c r="AD132" s="103"/>
+      <c r="AE132" s="103"/>
+      <c r="AF132" s="103"/>
+      <c r="AG132" s="105">
+        <f>Y130</f>
+        <v>0</v>
+      </c>
+      <c r="AH132" s="107">
+        <f>X130</f>
+        <v>0</v>
+      </c>
+      <c r="AI132" s="107">
+        <f>W130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="108">
+        <f>Z130</f>
+        <v>0</v>
+      </c>
+      <c r="AK132" s="103"/>
+      <c r="AL132" s="105">
+        <v>7</v>
+      </c>
+      <c r="AM132" s="107">
+        <v>8</v>
+      </c>
+      <c r="AN132" s="107">
+        <v>9</v>
+      </c>
+      <c r="AO132" s="108">
+        <f>AO131</f>
+        <v>6</v>
+      </c>
+      <c r="AP132" s="103"/>
+      <c r="AQ132" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR132" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS132" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT132" s="129">
+        <f>AT131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="119"/>
+      <c r="B133" s="119"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="117"/>
+      <c r="E133" s="118"/>
+      <c r="F133" s="117"/>
+      <c r="G133" s="117"/>
+      <c r="H133" s="117"/>
+      <c r="I133" s="117"/>
+      <c r="J133" s="118"/>
+      <c r="K133" s="118"/>
+      <c r="L133" s="117"/>
+      <c r="M133" s="117"/>
+      <c r="N133" s="117"/>
+      <c r="O133" s="117"/>
+      <c r="P133" s="118"/>
+      <c r="Q133" s="117"/>
+      <c r="R133" s="117"/>
+      <c r="S133" s="117"/>
+      <c r="T133" s="117"/>
+      <c r="U133" s="103"/>
+      <c r="V133" s="103"/>
+      <c r="W133" s="103"/>
+      <c r="X133" s="103"/>
+      <c r="Y133" s="103"/>
+      <c r="Z133" s="103"/>
+      <c r="AA133" s="103"/>
+      <c r="AB133" s="103"/>
+      <c r="AC133" s="103"/>
+      <c r="AD133" s="103"/>
+      <c r="AE133" s="103"/>
+      <c r="AF133" s="103"/>
+      <c r="AG133" s="105">
+        <f>V130</f>
+        <v>0</v>
+      </c>
+      <c r="AH133" s="107">
+        <f>U130</f>
+        <v>0</v>
+      </c>
+      <c r="AI133" s="107">
+        <f>T130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="108">
+        <f>S130</f>
+        <v>0</v>
+      </c>
+      <c r="AK133" s="103"/>
+      <c r="AL133" s="105">
+        <v>10</v>
+      </c>
+      <c r="AM133" s="107">
+        <v>11</v>
+      </c>
+      <c r="AN133" s="107">
+        <v>12</v>
+      </c>
+      <c r="AO133" s="108">
+        <v>13</v>
+      </c>
+      <c r="AP133" s="103"/>
+      <c r="AQ133" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR133" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT133" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="119"/>
+      <c r="B134" s="119"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="117"/>
+      <c r="E134" s="118"/>
+      <c r="F134" s="117"/>
+      <c r="G134" s="117"/>
+      <c r="H134" s="117"/>
+      <c r="I134" s="117"/>
+      <c r="J134" s="118"/>
+      <c r="K134" s="118"/>
+      <c r="L134" s="117"/>
+      <c r="M134" s="117"/>
+      <c r="N134" s="117"/>
+      <c r="O134" s="117"/>
+      <c r="P134" s="118"/>
+      <c r="Q134" s="117"/>
+      <c r="R134" s="117"/>
+      <c r="S134" s="117"/>
+      <c r="T134" s="117"/>
+      <c r="U134" s="103"/>
+      <c r="V134" s="103"/>
+      <c r="W134" s="103"/>
+      <c r="X134" s="103"/>
+      <c r="Y134" s="103"/>
+      <c r="Z134" s="103"/>
+      <c r="AA134" s="103"/>
+      <c r="AB134" s="103"/>
+      <c r="AC134" s="103"/>
+      <c r="AD134" s="103"/>
+      <c r="AE134" s="103"/>
+      <c r="AF134" s="103"/>
+      <c r="AG134" s="105">
+        <f>R130</f>
+        <v>0</v>
+      </c>
+      <c r="AH134" s="109">
+        <f>Q130</f>
+        <v>0</v>
+      </c>
+      <c r="AI134" s="107">
+        <f>AA130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="110">
+        <f>P130</f>
+        <v>0</v>
+      </c>
+      <c r="AK134" s="103"/>
+      <c r="AL134" s="105">
+        <v>14</v>
+      </c>
+      <c r="AM134" s="109">
+        <v>15</v>
+      </c>
+      <c r="AN134" s="107">
+        <f>AN131</f>
+        <v>5</v>
+      </c>
+      <c r="AO134" s="110">
+        <v>16</v>
+      </c>
+      <c r="AP134" s="103"/>
+      <c r="AQ134" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR134" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="130">
+        <f>AS131</f>
+        <v>0</v>
+      </c>
+      <c r="AT134" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="117"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="118"/>
+      <c r="F135" s="117"/>
+      <c r="G135" s="117"/>
+      <c r="H135" s="117"/>
+      <c r="I135" s="117"/>
+      <c r="J135" s="118"/>
+      <c r="K135" s="118"/>
+      <c r="L135" s="117"/>
+      <c r="M135" s="117"/>
+      <c r="N135" s="117"/>
+      <c r="O135" s="117"/>
+      <c r="P135" s="118"/>
+      <c r="Q135" s="117"/>
+      <c r="R135" s="117"/>
+      <c r="S135" s="117"/>
+      <c r="T135" s="117"/>
+      <c r="U135" s="103"/>
+      <c r="V135" s="103"/>
+      <c r="W135" s="103"/>
+      <c r="X135" s="103"/>
+      <c r="Y135" s="103"/>
+      <c r="Z135" s="103"/>
+      <c r="AA135" s="103"/>
+      <c r="AB135" s="103"/>
+      <c r="AC135" s="103"/>
+      <c r="AD135" s="103"/>
+      <c r="AE135" s="103"/>
+      <c r="AF135" s="103"/>
+      <c r="AG135" s="105">
+        <f>O130</f>
+        <v>0</v>
+      </c>
+      <c r="AH135" s="106"/>
+      <c r="AI135" s="107">
+        <f>N130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="110">
+        <f>P130</f>
+        <v>0</v>
+      </c>
+      <c r="AK135" s="103"/>
+      <c r="AL135" s="105">
+        <v>17</v>
+      </c>
+      <c r="AM135" s="106"/>
+      <c r="AN135" s="107">
+        <v>18</v>
+      </c>
+      <c r="AO135" s="110">
+        <f>AO134</f>
+        <v>16</v>
+      </c>
+      <c r="AP135" s="103"/>
+      <c r="AQ135" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR135" s="106"/>
+      <c r="AS135" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT135" s="129">
+        <f>AT134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="117"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="117"/>
+      <c r="E136" s="118"/>
+      <c r="F136" s="117"/>
+      <c r="G136" s="117"/>
+      <c r="H136" s="117"/>
+      <c r="I136" s="117"/>
+      <c r="J136" s="118"/>
+      <c r="K136" s="118"/>
+      <c r="L136" s="117"/>
+      <c r="M136" s="117"/>
+      <c r="N136" s="117"/>
+      <c r="O136" s="117"/>
+      <c r="P136" s="118"/>
+      <c r="Q136" s="117"/>
+      <c r="R136" s="117"/>
+      <c r="S136" s="117"/>
+      <c r="T136" s="117"/>
+      <c r="U136" s="103"/>
+      <c r="V136" s="103"/>
+      <c r="W136" s="103"/>
+      <c r="X136" s="103"/>
+      <c r="Y136" s="103"/>
+      <c r="Z136" s="103"/>
+      <c r="AA136" s="103"/>
+      <c r="AB136" s="103"/>
+      <c r="AC136" s="103"/>
+      <c r="AD136" s="103"/>
+      <c r="AE136" s="103"/>
+      <c r="AF136" s="103"/>
+      <c r="AG136" s="111">
+        <f>M130</f>
+        <v>0</v>
+      </c>
+      <c r="AH136" s="112">
+        <f>AB130</f>
+        <v>0</v>
+      </c>
+      <c r="AI136" s="113">
+        <f>L130</f>
+        <v>0</v>
+      </c>
+      <c r="AJ136" s="114">
+        <f>K130</f>
+        <v>0</v>
+      </c>
+      <c r="AK136" s="103"/>
+      <c r="AL136" s="111">
+        <v>19</v>
+      </c>
+      <c r="AM136" s="112">
+        <f>AL131</f>
+        <v>4</v>
+      </c>
+      <c r="AN136" s="113">
+        <v>20</v>
+      </c>
+      <c r="AO136" s="114">
+        <v>21</v>
+      </c>
+      <c r="AP136" s="103"/>
+      <c r="AQ136" s="111">
+        <v>0</v>
+      </c>
+      <c r="AR136" s="131">
+        <f>AQ131</f>
+        <v>0</v>
+      </c>
+      <c r="AS136" s="113">
+        <v>0</v>
+      </c>
+      <c r="AT136" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="93"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="93"/>
+      <c r="H137" s="93"/>
+      <c r="I137" s="93"/>
+      <c r="J137" s="93"/>
+      <c r="K137" s="93"/>
+      <c r="L137" s="93"/>
+      <c r="M137" s="93"/>
+      <c r="N137" s="93"/>
+      <c r="O137" s="93"/>
+      <c r="P137" s="93"/>
+      <c r="Q137" s="94"/>
+      <c r="R137" s="95" t="str">
+        <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A141,")")</f>
+        <v>&lt;- the original 28-bit representation of decimal glyph (GLYPH_NINE)</v>
+      </c>
+      <c r="S137" s="96"/>
+      <c r="T137" s="96"/>
+      <c r="U137" s="96"/>
+      <c r="V137" s="96"/>
+      <c r="W137" s="96"/>
+      <c r="X137" s="96"/>
+      <c r="Y137" s="96"/>
+      <c r="Z137" s="96"/>
+      <c r="AA137" s="96"/>
+      <c r="AB137" s="96"/>
+      <c r="AC137" s="96"/>
+      <c r="AD137" s="96"/>
+      <c r="AE137" s="96"/>
+      <c r="AF137" s="97"/>
+      <c r="AG137" s="107"/>
+      <c r="AH137" s="117"/>
+      <c r="AI137" s="107"/>
+      <c r="AJ137" s="107"/>
+      <c r="AK137" s="125"/>
+      <c r="AL137" s="107"/>
+      <c r="AM137" s="117"/>
+      <c r="AN137" s="107"/>
+      <c r="AO137" s="107"/>
+      <c r="AP137" s="125"/>
+      <c r="AQ137" s="103"/>
+      <c r="AR137" s="103"/>
+      <c r="AS137" s="103"/>
+      <c r="AT137" s="103"/>
+    </row>
+    <row r="138" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="115"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="122">
+        <v>21</v>
+      </c>
+      <c r="F138" s="126">
+        <v>20</v>
+      </c>
+      <c r="G138" s="126">
+        <v>4</v>
+      </c>
+      <c r="H138" s="126">
+        <v>19</v>
+      </c>
+      <c r="I138" s="126">
+        <v>16</v>
+      </c>
+      <c r="J138" s="126">
+        <v>18</v>
+      </c>
+      <c r="K138" s="127"/>
+      <c r="L138" s="126">
+        <v>17</v>
+      </c>
+      <c r="M138" s="126">
+        <v>16</v>
+      </c>
+      <c r="N138" s="126">
+        <v>5</v>
+      </c>
+      <c r="O138" s="126">
+        <v>15</v>
+      </c>
+      <c r="P138" s="126">
+        <v>14</v>
+      </c>
+      <c r="Q138" s="126">
+        <v>13</v>
+      </c>
+      <c r="R138" s="122">
+        <v>12</v>
+      </c>
+      <c r="S138" s="122">
+        <v>11</v>
+      </c>
+      <c r="T138" s="122">
+        <v>10</v>
+      </c>
+      <c r="U138" s="122">
+        <v>6</v>
+      </c>
+      <c r="V138" s="122">
+        <v>9</v>
+      </c>
+      <c r="W138" s="122">
+        <v>8</v>
+      </c>
+      <c r="X138" s="122">
+        <v>7</v>
+      </c>
+      <c r="Y138" s="122">
+        <v>6</v>
+      </c>
+      <c r="Z138" s="122">
+        <v>5</v>
+      </c>
+      <c r="AA138" s="128"/>
+      <c r="AB138" s="122">
+        <v>4</v>
+      </c>
+      <c r="AC138" s="122">
+        <v>3</v>
+      </c>
+      <c r="AD138" s="122">
+        <v>2</v>
+      </c>
+      <c r="AE138" s="122">
+        <v>1</v>
+      </c>
+      <c r="AF138" s="122">
+        <v>0</v>
+      </c>
+      <c r="AG138" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH138" s="85"/>
+      <c r="AI138" s="85"/>
+      <c r="AJ138" s="85"/>
+      <c r="AK138" s="125"/>
+      <c r="AL138" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM138" s="85"/>
+      <c r="AN138" s="85"/>
+      <c r="AO138" s="85"/>
+      <c r="AP138" s="125"/>
+      <c r="AQ138" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR138" s="85"/>
+      <c r="AS138" s="85"/>
+      <c r="AT138" s="85"/>
+    </row>
+    <row r="139" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="122">
+        <v>0</v>
+      </c>
+      <c r="B139" s="122">
+        <v>0</v>
+      </c>
+      <c r="C139" s="122">
+        <v>0</v>
+      </c>
+      <c r="D139" s="122">
+        <v>0</v>
+      </c>
+      <c r="E139" s="122">
+        <f>AT146</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="122">
+        <f>AS146</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="122">
+        <f>AQ146</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="122">
+        <f>AQ146</f>
+        <v>0</v>
+      </c>
+      <c r="I139" s="122">
+        <f>AT145</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="122">
+        <f>AS145</f>
+        <v>0</v>
+      </c>
+      <c r="K139" s="122">
+        <v>0</v>
+      </c>
+      <c r="L139" s="122">
+        <f>AQ145</f>
+        <v>0</v>
+      </c>
+      <c r="M139" s="122">
+        <f>AT144</f>
+        <v>0</v>
+      </c>
+      <c r="N139" s="122">
+        <f>AS141</f>
+        <v>0</v>
+      </c>
+      <c r="O139" s="122">
+        <f>AR144</f>
+        <v>0</v>
+      </c>
+      <c r="P139" s="122">
+        <f>AQ144</f>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="122">
+        <f>AT143</f>
+        <v>0</v>
+      </c>
+      <c r="R139" s="122">
+        <f>AS143</f>
+        <v>0</v>
+      </c>
+      <c r="S139" s="122">
+        <f>AR143</f>
+        <v>0</v>
+      </c>
+      <c r="T139" s="122">
+        <f>AQ143</f>
+        <v>0</v>
+      </c>
+      <c r="U139" s="122">
+        <f>AT141</f>
+        <v>0</v>
+      </c>
+      <c r="V139" s="122">
+        <f>AS142</f>
+        <v>0</v>
+      </c>
+      <c r="W139" s="122">
+        <f>AR142</f>
+        <v>0</v>
+      </c>
+      <c r="X139" s="122">
+        <f>AQ142</f>
+        <v>0</v>
+      </c>
+      <c r="Y139" s="122">
+        <f>AT141</f>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="122">
+        <f>AS141</f>
+        <v>0</v>
+      </c>
+      <c r="AA139" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="122">
+        <f>AQ141</f>
+        <v>0</v>
+      </c>
+      <c r="AC139" s="122">
+        <f>AT140</f>
+        <v>0</v>
+      </c>
+      <c r="AD139" s="122">
+        <f>AS140</f>
+        <v>0</v>
+      </c>
+      <c r="AE139" s="122">
+        <f>AR140</f>
+        <v>0</v>
+      </c>
+      <c r="AF139" s="122">
+        <f>AQ140</f>
+        <v>0</v>
+      </c>
+      <c r="AG139" s="86"/>
+      <c r="AH139" s="86"/>
+      <c r="AI139" s="86"/>
+      <c r="AJ139" s="86"/>
+      <c r="AK139" s="125"/>
+      <c r="AL139" s="86"/>
+      <c r="AM139" s="86"/>
+      <c r="AN139" s="86"/>
+      <c r="AO139" s="86"/>
+      <c r="AP139" s="125"/>
+      <c r="AQ139" s="86"/>
+      <c r="AR139" s="86"/>
+      <c r="AS139" s="86"/>
+      <c r="AT139" s="86"/>
+    </row>
+    <row r="140" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K140" s="122">
+        <f>E139</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="122">
+        <f>F139</f>
+        <v>0</v>
+      </c>
+      <c r="M140" s="122">
+        <f>G139</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="122">
+        <f>J139</f>
+        <v>0</v>
+      </c>
+      <c r="O140" s="122">
+        <f>L139</f>
+        <v>0</v>
+      </c>
+      <c r="P140" s="122">
+        <f>M139</f>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="122">
+        <f t="shared" ref="Q140" si="73">O139</f>
+        <v>0</v>
+      </c>
+      <c r="R140" s="122">
+        <f t="shared" ref="R140" si="74">P139</f>
+        <v>0</v>
+      </c>
+      <c r="S140" s="122">
+        <f t="shared" ref="S140" si="75">Q139</f>
+        <v>0</v>
+      </c>
+      <c r="T140" s="122">
+        <f t="shared" ref="T140" si="76">R139</f>
+        <v>0</v>
+      </c>
+      <c r="U140" s="122">
+        <f t="shared" ref="U140" si="77">S139</f>
+        <v>0</v>
+      </c>
+      <c r="V140" s="122">
+        <f t="shared" ref="V140" si="78">T139</f>
+        <v>0</v>
+      </c>
+      <c r="W140" s="122">
+        <f>V139</f>
+        <v>0</v>
+      </c>
+      <c r="X140" s="122">
+        <f>W139</f>
+        <v>0</v>
+      </c>
+      <c r="Y140" s="122">
+        <f>X139</f>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="122">
+        <f>Y139</f>
+        <v>0</v>
+      </c>
+      <c r="AA140" s="122">
+        <f>Z139</f>
+        <v>0</v>
+      </c>
+      <c r="AB140" s="122">
+        <f t="shared" ref="AB140:AE140" si="79">AB139</f>
+        <v>0</v>
+      </c>
+      <c r="AC140" s="122">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AD140" s="122">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AE140" s="122">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AF140" s="122">
+        <f>AF139</f>
+        <v>0</v>
+      </c>
+      <c r="AG140" s="107">
+        <f>AF140</f>
+        <v>0</v>
+      </c>
+      <c r="AH140" s="107">
+        <f>AE140</f>
+        <v>0</v>
+      </c>
+      <c r="AI140" s="107">
+        <f>AD140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ140" s="108">
+        <f>AC140</f>
+        <v>0</v>
+      </c>
+      <c r="AK140" s="103"/>
+      <c r="AL140" s="105">
+        <v>0</v>
+      </c>
+      <c r="AM140" s="107">
+        <v>1</v>
+      </c>
+      <c r="AN140" s="107">
+        <v>2</v>
+      </c>
+      <c r="AO140" s="108">
+        <v>3</v>
+      </c>
+      <c r="AP140" s="103"/>
+      <c r="AQ140" s="104">
+        <v>0</v>
+      </c>
+      <c r="AR140" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS140" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT140" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="89"/>
+      <c r="C141" s="123" t="str">
+        <f>CONCATENATE("#define ",A141," = (B",A140,B140,C140,D140,E140,F140,G140,H140," &lt;&lt; 24) + (B",I140,J140,K140,L140,M140,N140,O140,P140," &lt;&lt; 16) + (B",Q140,R140,S140,T140,U140,V140,W140,X140," &lt;&lt; 8) + B",Y140,Z140,AA140,AB140,AC140,AD140,AE140,AF140,";")</f>
+        <v>#define GLYPH_NINE = (B00000000 &lt;&lt; 24) + (B00000000 &lt;&lt; 16) + (B00000000 &lt;&lt; 8) + B00000000;</v>
+      </c>
+      <c r="D141" s="124"/>
+      <c r="E141" s="121"/>
+      <c r="F141" s="124"/>
+      <c r="G141" s="124"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="124"/>
+      <c r="J141" s="121"/>
+      <c r="K141" s="121"/>
+      <c r="L141" s="124"/>
+      <c r="M141" s="124"/>
+      <c r="N141" s="124"/>
+      <c r="O141" s="124"/>
+      <c r="P141" s="121"/>
+      <c r="Q141" s="124"/>
+      <c r="R141" s="124"/>
+      <c r="S141" s="124"/>
+      <c r="T141" s="124"/>
+      <c r="U141" s="120"/>
+      <c r="V141" s="120"/>
+      <c r="W141" s="125"/>
+      <c r="X141" s="125"/>
+      <c r="Y141" s="125"/>
+      <c r="Z141" s="125"/>
+      <c r="AA141" s="125"/>
+      <c r="AB141" s="125"/>
+      <c r="AC141" s="125"/>
+      <c r="AD141" s="125"/>
+      <c r="AE141" s="125"/>
+      <c r="AF141" s="125"/>
+      <c r="AG141" s="105">
+        <f>AB140</f>
+        <v>0</v>
+      </c>
+      <c r="AH141" s="106"/>
+      <c r="AI141" s="107">
+        <f>AA140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ141" s="108">
+        <f>Z140</f>
+        <v>0</v>
+      </c>
+      <c r="AK141" s="103"/>
+      <c r="AL141" s="105">
+        <v>4</v>
+      </c>
+      <c r="AM141" s="106"/>
+      <c r="AN141" s="107">
+        <v>5</v>
+      </c>
+      <c r="AO141" s="108">
+        <v>6</v>
+      </c>
+      <c r="AP141" s="103"/>
+      <c r="AQ141" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR141" s="106"/>
+      <c r="AS141" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT141" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="119"/>
+      <c r="B142" s="119"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="118"/>
+      <c r="F142" s="117"/>
+      <c r="G142" s="117"/>
+      <c r="H142" s="117"/>
+      <c r="I142" s="117"/>
+      <c r="J142" s="118"/>
+      <c r="K142" s="118"/>
+      <c r="L142" s="117"/>
+      <c r="M142" s="117"/>
+      <c r="N142" s="117"/>
+      <c r="O142" s="117"/>
+      <c r="P142" s="118"/>
+      <c r="Q142" s="117"/>
+      <c r="R142" s="117"/>
+      <c r="S142" s="117"/>
+      <c r="T142" s="117"/>
+      <c r="U142" s="103"/>
+      <c r="V142" s="103"/>
+      <c r="W142" s="103"/>
+      <c r="X142" s="103"/>
+      <c r="Y142" s="103"/>
+      <c r="Z142" s="103"/>
+      <c r="AA142" s="103"/>
+      <c r="AB142" s="103"/>
+      <c r="AC142" s="103"/>
+      <c r="AD142" s="103"/>
+      <c r="AE142" s="103"/>
+      <c r="AF142" s="103"/>
+      <c r="AG142" s="105">
+        <f>Y140</f>
+        <v>0</v>
+      </c>
+      <c r="AH142" s="107">
+        <f>X140</f>
+        <v>0</v>
+      </c>
+      <c r="AI142" s="107">
+        <f>W140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="108">
+        <f>Z140</f>
+        <v>0</v>
+      </c>
+      <c r="AK142" s="103"/>
+      <c r="AL142" s="105">
+        <v>7</v>
+      </c>
+      <c r="AM142" s="107">
+        <v>8</v>
+      </c>
+      <c r="AN142" s="107">
+        <v>9</v>
+      </c>
+      <c r="AO142" s="108">
+        <f>AO141</f>
+        <v>6</v>
+      </c>
+      <c r="AP142" s="103"/>
+      <c r="AQ142" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR142" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT142" s="129">
+        <f>AT141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="119"/>
+      <c r="B143" s="119"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="117"/>
+      <c r="E143" s="118"/>
+      <c r="F143" s="117"/>
+      <c r="G143" s="117"/>
+      <c r="H143" s="117"/>
+      <c r="I143" s="117"/>
+      <c r="J143" s="118"/>
+      <c r="K143" s="118"/>
+      <c r="L143" s="117"/>
+      <c r="M143" s="117"/>
+      <c r="N143" s="117"/>
+      <c r="O143" s="117"/>
+      <c r="P143" s="118"/>
+      <c r="Q143" s="117"/>
+      <c r="R143" s="117"/>
+      <c r="S143" s="117"/>
+      <c r="T143" s="117"/>
+      <c r="U143" s="103"/>
+      <c r="V143" s="103"/>
+      <c r="W143" s="103"/>
+      <c r="X143" s="103"/>
+      <c r="Y143" s="103"/>
+      <c r="Z143" s="103"/>
+      <c r="AA143" s="103"/>
+      <c r="AB143" s="103"/>
+      <c r="AC143" s="103"/>
+      <c r="AD143" s="103"/>
+      <c r="AE143" s="103"/>
+      <c r="AF143" s="103"/>
+      <c r="AG143" s="105">
+        <f>V140</f>
+        <v>0</v>
+      </c>
+      <c r="AH143" s="107">
+        <f>U140</f>
+        <v>0</v>
+      </c>
+      <c r="AI143" s="107">
+        <f>T140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="108">
+        <f>S140</f>
+        <v>0</v>
+      </c>
+      <c r="AK143" s="103"/>
+      <c r="AL143" s="105">
+        <v>10</v>
+      </c>
+      <c r="AM143" s="107">
+        <v>11</v>
+      </c>
+      <c r="AN143" s="107">
+        <v>12</v>
+      </c>
+      <c r="AO143" s="108">
+        <v>13</v>
+      </c>
+      <c r="AP143" s="103"/>
+      <c r="AQ143" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR143" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT143" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="119"/>
+      <c r="B144" s="119"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="117"/>
+      <c r="E144" s="118"/>
+      <c r="F144" s="117"/>
+      <c r="G144" s="117"/>
+      <c r="H144" s="117"/>
+      <c r="I144" s="117"/>
+      <c r="J144" s="118"/>
+      <c r="K144" s="118"/>
+      <c r="L144" s="117"/>
+      <c r="M144" s="117"/>
+      <c r="N144" s="117"/>
+      <c r="O144" s="117"/>
+      <c r="P144" s="118"/>
+      <c r="Q144" s="117"/>
+      <c r="R144" s="117"/>
+      <c r="S144" s="117"/>
+      <c r="T144" s="117"/>
+      <c r="U144" s="103"/>
+      <c r="V144" s="103"/>
+      <c r="W144" s="103"/>
+      <c r="X144" s="103"/>
+      <c r="Y144" s="103"/>
+      <c r="Z144" s="103"/>
+      <c r="AA144" s="103"/>
+      <c r="AB144" s="103"/>
+      <c r="AC144" s="103"/>
+      <c r="AD144" s="103"/>
+      <c r="AE144" s="103"/>
+      <c r="AF144" s="103"/>
+      <c r="AG144" s="105">
+        <f>R140</f>
+        <v>0</v>
+      </c>
+      <c r="AH144" s="109">
+        <f>Q140</f>
+        <v>0</v>
+      </c>
+      <c r="AI144" s="107">
+        <f>AA140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="110">
+        <f>P140</f>
+        <v>0</v>
+      </c>
+      <c r="AK144" s="103"/>
+      <c r="AL144" s="105">
+        <v>14</v>
+      </c>
+      <c r="AM144" s="109">
+        <v>15</v>
+      </c>
+      <c r="AN144" s="107">
+        <f>AN141</f>
+        <v>5</v>
+      </c>
+      <c r="AO144" s="110">
+        <v>16</v>
+      </c>
+      <c r="AP144" s="103"/>
+      <c r="AQ144" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR144" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="130">
+        <f>AS141</f>
+        <v>0</v>
+      </c>
+      <c r="AT144" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="117"/>
+      <c r="B145" s="117"/>
+      <c r="C145" s="117"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="118"/>
+      <c r="F145" s="117"/>
+      <c r="G145" s="117"/>
+      <c r="H145" s="117"/>
+      <c r="I145" s="117"/>
+      <c r="J145" s="118"/>
+      <c r="K145" s="118"/>
+      <c r="L145" s="117"/>
+      <c r="M145" s="117"/>
+      <c r="N145" s="117"/>
+      <c r="O145" s="117"/>
+      <c r="P145" s="118"/>
+      <c r="Q145" s="117"/>
+      <c r="R145" s="117"/>
+      <c r="S145" s="117"/>
+      <c r="T145" s="117"/>
+      <c r="U145" s="103"/>
+      <c r="V145" s="103"/>
+      <c r="W145" s="103"/>
+      <c r="X145" s="103"/>
+      <c r="Y145" s="103"/>
+      <c r="Z145" s="103"/>
+      <c r="AA145" s="103"/>
+      <c r="AB145" s="103"/>
+      <c r="AC145" s="103"/>
+      <c r="AD145" s="103"/>
+      <c r="AE145" s="103"/>
+      <c r="AF145" s="103"/>
+      <c r="AG145" s="105">
+        <f>O140</f>
+        <v>0</v>
+      </c>
+      <c r="AH145" s="106"/>
+      <c r="AI145" s="107">
+        <f>N140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ145" s="110">
+        <f>P140</f>
+        <v>0</v>
+      </c>
+      <c r="AK145" s="103"/>
+      <c r="AL145" s="105">
+        <v>17</v>
+      </c>
+      <c r="AM145" s="106"/>
+      <c r="AN145" s="107">
+        <v>18</v>
+      </c>
+      <c r="AO145" s="110">
+        <f>AO144</f>
+        <v>16</v>
+      </c>
+      <c r="AP145" s="103"/>
+      <c r="AQ145" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR145" s="106"/>
+      <c r="AS145" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT145" s="129">
+        <f>AT144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="117"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="118"/>
+      <c r="F146" s="117"/>
+      <c r="G146" s="117"/>
+      <c r="H146" s="117"/>
+      <c r="I146" s="117"/>
+      <c r="J146" s="118"/>
+      <c r="K146" s="118"/>
+      <c r="L146" s="117"/>
+      <c r="M146" s="117"/>
+      <c r="N146" s="117"/>
+      <c r="O146" s="117"/>
+      <c r="P146" s="118"/>
+      <c r="Q146" s="117"/>
+      <c r="R146" s="117"/>
+      <c r="S146" s="117"/>
+      <c r="T146" s="117"/>
+      <c r="U146" s="103"/>
+      <c r="V146" s="103"/>
+      <c r="W146" s="103"/>
+      <c r="X146" s="103"/>
+      <c r="Y146" s="103"/>
+      <c r="Z146" s="103"/>
+      <c r="AA146" s="103"/>
+      <c r="AB146" s="103"/>
+      <c r="AC146" s="103"/>
+      <c r="AD146" s="103"/>
+      <c r="AE146" s="103"/>
+      <c r="AF146" s="103"/>
+      <c r="AG146" s="111">
+        <f>M140</f>
+        <v>0</v>
+      </c>
+      <c r="AH146" s="112">
+        <f>AB140</f>
+        <v>0</v>
+      </c>
+      <c r="AI146" s="113">
+        <f>L140</f>
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="114">
+        <f>K140</f>
+        <v>0</v>
+      </c>
+      <c r="AK146" s="103"/>
+      <c r="AL146" s="111">
+        <v>19</v>
+      </c>
+      <c r="AM146" s="112">
+        <f>AL141</f>
+        <v>4</v>
+      </c>
+      <c r="AN146" s="113">
+        <v>20</v>
+      </c>
+      <c r="AO146" s="114">
+        <v>21</v>
+      </c>
+      <c r="AP146" s="103"/>
+      <c r="AQ146" s="111">
+        <v>0</v>
+      </c>
+      <c r="AR146" s="131">
+        <f>AQ141</f>
+        <v>0</v>
+      </c>
+      <c r="AS146" s="113">
+        <v>0</v>
+      </c>
+      <c r="AT146" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B147" s="93"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="93"/>
+      <c r="I147" s="93"/>
+      <c r="J147" s="93"/>
+      <c r="K147" s="93"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="93"/>
+      <c r="N147" s="93"/>
+      <c r="O147" s="93"/>
+      <c r="P147" s="93"/>
+      <c r="Q147" s="94"/>
+      <c r="R147" s="95" t="str">
+        <f>CONCATENATE("&lt;- the original 28-bit representation of decimal glyph (",A151,")")</f>
+        <v>&lt;- the original 28-bit representation of decimal glyph (GLYPH_NINE)</v>
+      </c>
+      <c r="S147" s="96"/>
+      <c r="T147" s="96"/>
+      <c r="U147" s="96"/>
+      <c r="V147" s="96"/>
+      <c r="W147" s="96"/>
+      <c r="X147" s="96"/>
+      <c r="Y147" s="96"/>
+      <c r="Z147" s="96"/>
+      <c r="AA147" s="96"/>
+      <c r="AB147" s="96"/>
+      <c r="AC147" s="96"/>
+      <c r="AD147" s="96"/>
+      <c r="AE147" s="96"/>
+      <c r="AF147" s="97"/>
+      <c r="AG147" s="107"/>
+      <c r="AH147" s="117"/>
+      <c r="AI147" s="107"/>
+      <c r="AJ147" s="107"/>
+      <c r="AK147" s="125"/>
+      <c r="AL147" s="107"/>
+      <c r="AM147" s="117"/>
+      <c r="AN147" s="107"/>
+      <c r="AO147" s="107"/>
+      <c r="AP147" s="125"/>
+      <c r="AQ147" s="103"/>
+      <c r="AR147" s="103"/>
+      <c r="AS147" s="103"/>
+      <c r="AT147" s="103"/>
+    </row>
+    <row r="148" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="115"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="115"/>
+      <c r="E148" s="122">
+        <v>21</v>
+      </c>
+      <c r="F148" s="126">
+        <v>20</v>
+      </c>
+      <c r="G148" s="126">
+        <v>4</v>
+      </c>
+      <c r="H148" s="126">
+        <v>19</v>
+      </c>
+      <c r="I148" s="126">
+        <v>16</v>
+      </c>
+      <c r="J148" s="126">
+        <v>18</v>
+      </c>
+      <c r="K148" s="127"/>
+      <c r="L148" s="126">
+        <v>17</v>
+      </c>
+      <c r="M148" s="126">
+        <v>16</v>
+      </c>
+      <c r="N148" s="126">
+        <v>5</v>
+      </c>
+      <c r="O148" s="126">
+        <v>15</v>
+      </c>
+      <c r="P148" s="126">
+        <v>14</v>
+      </c>
+      <c r="Q148" s="126">
+        <v>13</v>
+      </c>
+      <c r="R148" s="122">
+        <v>12</v>
+      </c>
+      <c r="S148" s="122">
+        <v>11</v>
+      </c>
+      <c r="T148" s="122">
+        <v>10</v>
+      </c>
+      <c r="U148" s="122">
+        <v>6</v>
+      </c>
+      <c r="V148" s="122">
+        <v>9</v>
+      </c>
+      <c r="W148" s="122">
+        <v>8</v>
+      </c>
+      <c r="X148" s="122">
+        <v>7</v>
+      </c>
+      <c r="Y148" s="122">
+        <v>6</v>
+      </c>
+      <c r="Z148" s="122">
+        <v>5</v>
+      </c>
+      <c r="AA148" s="128"/>
+      <c r="AB148" s="122">
+        <v>4</v>
+      </c>
+      <c r="AC148" s="122">
+        <v>3</v>
+      </c>
+      <c r="AD148" s="122">
+        <v>2</v>
+      </c>
+      <c r="AE148" s="122">
+        <v>1</v>
+      </c>
+      <c r="AF148" s="122">
+        <v>0</v>
+      </c>
+      <c r="AG148" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH148" s="85"/>
+      <c r="AI148" s="85"/>
+      <c r="AJ148" s="85"/>
+      <c r="AK148" s="125"/>
+      <c r="AL148" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM148" s="85"/>
+      <c r="AN148" s="85"/>
+      <c r="AO148" s="85"/>
+      <c r="AP148" s="125"/>
+      <c r="AQ148" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR148" s="85"/>
+      <c r="AS148" s="85"/>
+      <c r="AT148" s="85"/>
+    </row>
+    <row r="149" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="122">
+        <v>0</v>
+      </c>
+      <c r="B149" s="122">
+        <v>0</v>
+      </c>
+      <c r="C149" s="122">
+        <v>0</v>
+      </c>
+      <c r="D149" s="122">
+        <v>0</v>
+      </c>
+      <c r="E149" s="122">
+        <f>AT156</f>
+        <v>0</v>
+      </c>
+      <c r="F149" s="122">
+        <f>AS156</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="122">
+        <f>AQ156</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="122">
+        <f>AQ156</f>
+        <v>0</v>
+      </c>
+      <c r="I149" s="122">
+        <f>AT155</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="122">
+        <f>AS155</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="122">
+        <v>0</v>
+      </c>
+      <c r="L149" s="122">
+        <f>AQ155</f>
+        <v>0</v>
+      </c>
+      <c r="M149" s="122">
+        <f>AT154</f>
+        <v>0</v>
+      </c>
+      <c r="N149" s="122">
+        <f>AS151</f>
+        <v>0</v>
+      </c>
+      <c r="O149" s="122">
+        <f>AR154</f>
+        <v>0</v>
+      </c>
+      <c r="P149" s="122">
+        <f>AQ154</f>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="122">
+        <f>AT153</f>
+        <v>0</v>
+      </c>
+      <c r="R149" s="122">
+        <f>AS153</f>
+        <v>0</v>
+      </c>
+      <c r="S149" s="122">
+        <f>AR153</f>
+        <v>0</v>
+      </c>
+      <c r="T149" s="122">
+        <f>AQ153</f>
+        <v>0</v>
+      </c>
+      <c r="U149" s="122">
+        <f>AT151</f>
+        <v>0</v>
+      </c>
+      <c r="V149" s="122">
+        <f>AS152</f>
+        <v>0</v>
+      </c>
+      <c r="W149" s="122">
+        <f>AR152</f>
+        <v>0</v>
+      </c>
+      <c r="X149" s="122">
+        <f>AQ152</f>
+        <v>0</v>
+      </c>
+      <c r="Y149" s="122">
+        <f>AT151</f>
+        <v>0</v>
+      </c>
+      <c r="Z149" s="122">
+        <f>AS151</f>
+        <v>0</v>
+      </c>
+      <c r="AA149" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="122">
+        <f>AQ151</f>
+        <v>0</v>
+      </c>
+      <c r="AC149" s="122">
+        <f>AT150</f>
+        <v>0</v>
+      </c>
+      <c r="AD149" s="122">
+        <f>AS150</f>
+        <v>0</v>
+      </c>
+      <c r="AE149" s="122">
+        <f>AR150</f>
+        <v>0</v>
+      </c>
+      <c r="AF149" s="122">
+        <f>AQ150</f>
+        <v>0</v>
+      </c>
+      <c r="AG149" s="86"/>
+      <c r="AH149" s="86"/>
+      <c r="AI149" s="86"/>
+      <c r="AJ149" s="86"/>
+      <c r="AK149" s="125"/>
+      <c r="AL149" s="86"/>
+      <c r="AM149" s="86"/>
+      <c r="AN149" s="86"/>
+      <c r="AO149" s="86"/>
+      <c r="AP149" s="125"/>
+      <c r="AQ149" s="86"/>
+      <c r="AR149" s="86"/>
+      <c r="AS149" s="86"/>
+      <c r="AT149" s="86"/>
+    </row>
+    <row r="150" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K150" s="122">
+        <f>E149</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="122">
+        <f>F149</f>
+        <v>0</v>
+      </c>
+      <c r="M150" s="122">
+        <f>G149</f>
+        <v>0</v>
+      </c>
+      <c r="N150" s="122">
+        <f>J149</f>
+        <v>0</v>
+      </c>
+      <c r="O150" s="122">
+        <f>L149</f>
+        <v>0</v>
+      </c>
+      <c r="P150" s="122">
+        <f>M149</f>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="122">
+        <f t="shared" ref="Q150" si="80">O149</f>
+        <v>0</v>
+      </c>
+      <c r="R150" s="122">
+        <f t="shared" ref="R150" si="81">P149</f>
+        <v>0</v>
+      </c>
+      <c r="S150" s="122">
+        <f t="shared" ref="S150" si="82">Q149</f>
+        <v>0</v>
+      </c>
+      <c r="T150" s="122">
+        <f t="shared" ref="T150" si="83">R149</f>
+        <v>0</v>
+      </c>
+      <c r="U150" s="122">
+        <f t="shared" ref="U150" si="84">S149</f>
+        <v>0</v>
+      </c>
+      <c r="V150" s="122">
+        <f t="shared" ref="V150" si="85">T149</f>
+        <v>0</v>
+      </c>
+      <c r="W150" s="122">
+        <f>V149</f>
+        <v>0</v>
+      </c>
+      <c r="X150" s="122">
+        <f>W149</f>
+        <v>0</v>
+      </c>
+      <c r="Y150" s="122">
+        <f>X149</f>
+        <v>0</v>
+      </c>
+      <c r="Z150" s="122">
+        <f>Y149</f>
+        <v>0</v>
+      </c>
+      <c r="AA150" s="122">
+        <f>Z149</f>
+        <v>0</v>
+      </c>
+      <c r="AB150" s="122">
+        <f t="shared" ref="AB150:AE150" si="86">AB149</f>
+        <v>0</v>
+      </c>
+      <c r="AC150" s="122">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AD150" s="122">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AE150" s="122">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AF150" s="122">
+        <f>AF149</f>
+        <v>0</v>
+      </c>
+      <c r="AG150" s="107">
+        <f>AF150</f>
+        <v>0</v>
+      </c>
+      <c r="AH150" s="107">
+        <f>AE150</f>
+        <v>0</v>
+      </c>
+      <c r="AI150" s="107">
+        <f>AD150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="108">
+        <f>AC150</f>
+        <v>0</v>
+      </c>
+      <c r="AK150" s="103"/>
+      <c r="AL150" s="105">
+        <v>0</v>
+      </c>
+      <c r="AM150" s="107">
+        <v>1</v>
+      </c>
+      <c r="AN150" s="107">
+        <v>2</v>
+      </c>
+      <c r="AO150" s="108">
+        <v>3</v>
+      </c>
+      <c r="AP150" s="103"/>
+      <c r="AQ150" s="104">
+        <v>0</v>
+      </c>
+      <c r="AR150" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT150" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="89"/>
+      <c r="C151" s="123" t="str">
+        <f>CONCATENATE("#define ",A151," = (B",A150,B150,C150,D150,E150,F150,G150,H150," &lt;&lt; 24) + (B",I150,J150,K150,L150,M150,N150,O150,P150," &lt;&lt; 16) + (B",Q150,R150,S150,T150,U150,V150,W150,X150," &lt;&lt; 8) + B",Y150,Z150,AA150,AB150,AC150,AD150,AE150,AF150,";")</f>
+        <v>#define GLYPH_NINE = (B00000000 &lt;&lt; 24) + (B00000000 &lt;&lt; 16) + (B00000000 &lt;&lt; 8) + B00000000;</v>
+      </c>
+      <c r="D151" s="124"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="124"/>
+      <c r="G151" s="124"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="124"/>
+      <c r="J151" s="121"/>
+      <c r="K151" s="121"/>
+      <c r="L151" s="124"/>
+      <c r="M151" s="124"/>
+      <c r="N151" s="124"/>
+      <c r="O151" s="124"/>
+      <c r="P151" s="121"/>
+      <c r="Q151" s="124"/>
+      <c r="R151" s="124"/>
+      <c r="S151" s="124"/>
+      <c r="T151" s="124"/>
+      <c r="U151" s="120"/>
+      <c r="V151" s="120"/>
+      <c r="W151" s="125"/>
+      <c r="X151" s="125"/>
+      <c r="Y151" s="125"/>
+      <c r="Z151" s="125"/>
+      <c r="AA151" s="125"/>
+      <c r="AB151" s="125"/>
+      <c r="AC151" s="125"/>
+      <c r="AD151" s="125"/>
+      <c r="AE151" s="125"/>
+      <c r="AF151" s="125"/>
+      <c r="AG151" s="105">
+        <f>AB150</f>
+        <v>0</v>
+      </c>
+      <c r="AH151" s="106"/>
+      <c r="AI151" s="107">
+        <f>AA150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="108">
+        <f>Z150</f>
+        <v>0</v>
+      </c>
+      <c r="AK151" s="103"/>
+      <c r="AL151" s="105">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="106"/>
+      <c r="AN151" s="107">
+        <v>5</v>
+      </c>
+      <c r="AO151" s="108">
+        <v>6</v>
+      </c>
+      <c r="AP151" s="103"/>
+      <c r="AQ151" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR151" s="106"/>
+      <c r="AS151" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT151" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="119"/>
+      <c r="B152" s="119"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="118"/>
+      <c r="F152" s="117"/>
+      <c r="G152" s="117"/>
+      <c r="H152" s="117"/>
+      <c r="I152" s="117"/>
+      <c r="J152" s="118"/>
+      <c r="K152" s="118"/>
+      <c r="L152" s="117"/>
+      <c r="M152" s="117"/>
+      <c r="N152" s="117"/>
+      <c r="O152" s="117"/>
+      <c r="P152" s="118"/>
+      <c r="Q152" s="117"/>
+      <c r="R152" s="117"/>
+      <c r="S152" s="117"/>
+      <c r="T152" s="117"/>
+      <c r="U152" s="103"/>
+      <c r="V152" s="103"/>
+      <c r="W152" s="103"/>
+      <c r="X152" s="103"/>
+      <c r="Y152" s="103"/>
+      <c r="Z152" s="103"/>
+      <c r="AA152" s="103"/>
+      <c r="AB152" s="103"/>
+      <c r="AC152" s="103"/>
+      <c r="AD152" s="103"/>
+      <c r="AE152" s="103"/>
+      <c r="AF152" s="103"/>
+      <c r="AG152" s="105">
+        <f>Y150</f>
+        <v>0</v>
+      </c>
+      <c r="AH152" s="107">
+        <f>X150</f>
+        <v>0</v>
+      </c>
+      <c r="AI152" s="107">
+        <f>W150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="108">
+        <f>Z150</f>
+        <v>0</v>
+      </c>
+      <c r="AK152" s="103"/>
+      <c r="AL152" s="105">
+        <v>7</v>
+      </c>
+      <c r="AM152" s="107">
+        <v>8</v>
+      </c>
+      <c r="AN152" s="107">
+        <v>9</v>
+      </c>
+      <c r="AO152" s="108">
+        <f>AO151</f>
+        <v>6</v>
+      </c>
+      <c r="AP152" s="103"/>
+      <c r="AQ152" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR152" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT152" s="129">
+        <f>AT151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="119"/>
+      <c r="B153" s="119"/>
+      <c r="C153" s="116"/>
+      <c r="D153" s="117"/>
+      <c r="E153" s="118"/>
+      <c r="F153" s="117"/>
+      <c r="G153" s="117"/>
+      <c r="H153" s="117"/>
+      <c r="I153" s="117"/>
+      <c r="J153" s="118"/>
+      <c r="K153" s="118"/>
+      <c r="L153" s="117"/>
+      <c r="M153" s="117"/>
+      <c r="N153" s="117"/>
+      <c r="O153" s="117"/>
+      <c r="P153" s="118"/>
+      <c r="Q153" s="117"/>
+      <c r="R153" s="117"/>
+      <c r="S153" s="117"/>
+      <c r="T153" s="117"/>
+      <c r="U153" s="103"/>
+      <c r="V153" s="103"/>
+      <c r="W153" s="103"/>
+      <c r="X153" s="103"/>
+      <c r="Y153" s="103"/>
+      <c r="Z153" s="103"/>
+      <c r="AA153" s="103"/>
+      <c r="AB153" s="103"/>
+      <c r="AC153" s="103"/>
+      <c r="AD153" s="103"/>
+      <c r="AE153" s="103"/>
+      <c r="AF153" s="103"/>
+      <c r="AG153" s="105">
+        <f>V150</f>
+        <v>0</v>
+      </c>
+      <c r="AH153" s="107">
+        <f>U150</f>
+        <v>0</v>
+      </c>
+      <c r="AI153" s="107">
+        <f>T150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="108">
+        <f>S150</f>
+        <v>0</v>
+      </c>
+      <c r="AK153" s="103"/>
+      <c r="AL153" s="105">
+        <v>10</v>
+      </c>
+      <c r="AM153" s="107">
+        <v>11</v>
+      </c>
+      <c r="AN153" s="107">
+        <v>12</v>
+      </c>
+      <c r="AO153" s="108">
+        <v>13</v>
+      </c>
+      <c r="AP153" s="103"/>
+      <c r="AQ153" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR153" s="107">
+        <v>0</v>
+      </c>
+      <c r="AS153" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT153" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="119"/>
+      <c r="B154" s="119"/>
+      <c r="C154" s="116"/>
+      <c r="D154" s="117"/>
+      <c r="E154" s="118"/>
+      <c r="F154" s="117"/>
+      <c r="G154" s="117"/>
+      <c r="H154" s="117"/>
+      <c r="I154" s="117"/>
+      <c r="J154" s="118"/>
+      <c r="K154" s="118"/>
+      <c r="L154" s="117"/>
+      <c r="M154" s="117"/>
+      <c r="N154" s="117"/>
+      <c r="O154" s="117"/>
+      <c r="P154" s="118"/>
+      <c r="Q154" s="117"/>
+      <c r="R154" s="117"/>
+      <c r="S154" s="117"/>
+      <c r="T154" s="117"/>
+      <c r="U154" s="103"/>
+      <c r="V154" s="103"/>
+      <c r="W154" s="103"/>
+      <c r="X154" s="103"/>
+      <c r="Y154" s="103"/>
+      <c r="Z154" s="103"/>
+      <c r="AA154" s="103"/>
+      <c r="AB154" s="103"/>
+      <c r="AC154" s="103"/>
+      <c r="AD154" s="103"/>
+      <c r="AE154" s="103"/>
+      <c r="AF154" s="103"/>
+      <c r="AG154" s="105">
+        <f>R150</f>
+        <v>0</v>
+      </c>
+      <c r="AH154" s="109">
+        <f>Q150</f>
+        <v>0</v>
+      </c>
+      <c r="AI154" s="107">
+        <f>AA150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="110">
+        <f>P150</f>
+        <v>0</v>
+      </c>
+      <c r="AK154" s="103"/>
+      <c r="AL154" s="105">
+        <v>14</v>
+      </c>
+      <c r="AM154" s="109">
+        <v>15</v>
+      </c>
+      <c r="AN154" s="107">
+        <f>AN151</f>
+        <v>5</v>
+      </c>
+      <c r="AO154" s="110">
+        <v>16</v>
+      </c>
+      <c r="AP154" s="103"/>
+      <c r="AQ154" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR154" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS154" s="130">
+        <f>AS151</f>
+        <v>0</v>
+      </c>
+      <c r="AT154" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="117"/>
+      <c r="B155" s="117"/>
+      <c r="C155" s="117"/>
+      <c r="D155" s="117"/>
+      <c r="E155" s="118"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="117"/>
+      <c r="J155" s="118"/>
+      <c r="K155" s="118"/>
+      <c r="L155" s="117"/>
+      <c r="M155" s="117"/>
+      <c r="N155" s="117"/>
+      <c r="O155" s="117"/>
+      <c r="P155" s="118"/>
+      <c r="Q155" s="117"/>
+      <c r="R155" s="117"/>
+      <c r="S155" s="117"/>
+      <c r="T155" s="117"/>
+      <c r="U155" s="103"/>
+      <c r="V155" s="103"/>
+      <c r="W155" s="103"/>
+      <c r="X155" s="103"/>
+      <c r="Y155" s="103"/>
+      <c r="Z155" s="103"/>
+      <c r="AA155" s="103"/>
+      <c r="AB155" s="103"/>
+      <c r="AC155" s="103"/>
+      <c r="AD155" s="103"/>
+      <c r="AE155" s="103"/>
+      <c r="AF155" s="103"/>
+      <c r="AG155" s="105">
+        <f>O150</f>
+        <v>0</v>
+      </c>
+      <c r="AH155" s="106"/>
+      <c r="AI155" s="107">
+        <f>N150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ155" s="110">
+        <f>P150</f>
+        <v>0</v>
+      </c>
+      <c r="AK155" s="103"/>
+      <c r="AL155" s="105">
+        <v>17</v>
+      </c>
+      <c r="AM155" s="106"/>
+      <c r="AN155" s="107">
+        <v>18</v>
+      </c>
+      <c r="AO155" s="110">
+        <f>AO154</f>
+        <v>16</v>
+      </c>
+      <c r="AP155" s="103"/>
+      <c r="AQ155" s="105">
+        <v>0</v>
+      </c>
+      <c r="AR155" s="106"/>
+      <c r="AS155" s="107">
+        <v>0</v>
+      </c>
+      <c r="AT155" s="129">
+        <f>AT154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:46" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="117"/>
+      <c r="B156" s="117"/>
+      <c r="C156" s="117"/>
+      <c r="D156" s="117"/>
+      <c r="E156" s="118"/>
+      <c r="F156" s="117"/>
+      <c r="G156" s="117"/>
+      <c r="H156" s="117"/>
+      <c r="I156" s="117"/>
+      <c r="J156" s="118"/>
+      <c r="K156" s="118"/>
+      <c r="L156" s="117"/>
+      <c r="M156" s="117"/>
+      <c r="N156" s="117"/>
+      <c r="O156" s="117"/>
+      <c r="P156" s="118"/>
+      <c r="Q156" s="117"/>
+      <c r="R156" s="117"/>
+      <c r="S156" s="117"/>
+      <c r="T156" s="117"/>
+      <c r="U156" s="103"/>
+      <c r="V156" s="103"/>
+      <c r="W156" s="103"/>
+      <c r="X156" s="103"/>
+      <c r="Y156" s="103"/>
+      <c r="Z156" s="103"/>
+      <c r="AA156" s="103"/>
+      <c r="AB156" s="103"/>
+      <c r="AC156" s="103"/>
+      <c r="AD156" s="103"/>
+      <c r="AE156" s="103"/>
+      <c r="AF156" s="103"/>
+      <c r="AG156" s="111">
+        <f>M150</f>
+        <v>0</v>
+      </c>
+      <c r="AH156" s="112">
+        <f>AB150</f>
+        <v>0</v>
+      </c>
+      <c r="AI156" s="113">
+        <f>L150</f>
+        <v>0</v>
+      </c>
+      <c r="AJ156" s="114">
+        <f>K150</f>
+        <v>0</v>
+      </c>
+      <c r="AK156" s="103"/>
+      <c r="AL156" s="111">
+        <v>19</v>
+      </c>
+      <c r="AM156" s="112">
+        <f>AL151</f>
+        <v>4</v>
+      </c>
+      <c r="AN156" s="113">
+        <v>20</v>
+      </c>
+      <c r="AO156" s="114">
+        <v>21</v>
+      </c>
+      <c r="AP156" s="103"/>
+      <c r="AQ156" s="111">
+        <v>0</v>
+      </c>
+      <c r="AR156" s="131">
+        <f>AQ151</f>
+        <v>0</v>
+      </c>
+      <c r="AS156" s="113">
+        <v>0</v>
+      </c>
+      <c r="AT156" s="114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A22:AF22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="AG19:AJ25"/>
-    <mergeCell ref="AL19:AO25"/>
-    <mergeCell ref="C23:AF23"/>
-    <mergeCell ref="V1:Y2"/>
-    <mergeCell ref="AA1:AD2"/>
-    <mergeCell ref="A19:AF19"/>
-    <mergeCell ref="A20:AF20"/>
-    <mergeCell ref="A21:AF21"/>
-    <mergeCell ref="AL63:AO64"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="AG63:AJ64"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="R53:AF53"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="R62:AF62"/>
-    <mergeCell ref="AL27:AO28"/>
-    <mergeCell ref="AL36:AO37"/>
-    <mergeCell ref="AL45:AO46"/>
-    <mergeCell ref="AL54:AO55"/>
-    <mergeCell ref="AG36:AJ37"/>
-    <mergeCell ref="AG45:AJ46"/>
-    <mergeCell ref="AG54:AJ55"/>
-    <mergeCell ref="AG27:AJ28"/>
-    <mergeCell ref="R107:AF107"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="AG72:AJ73"/>
-    <mergeCell ref="AL72:AO73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A71:Q71"/>
-    <mergeCell ref="R71:AF71"/>
-    <mergeCell ref="A80:Q80"/>
-    <mergeCell ref="R80:AF80"/>
-    <mergeCell ref="AG81:AJ82"/>
-    <mergeCell ref="AL81:AO82"/>
+  <mergeCells count="86">
+    <mergeCell ref="AQ128:AT129"/>
+    <mergeCell ref="AQ118:AT119"/>
+    <mergeCell ref="AQ138:AT139"/>
+    <mergeCell ref="AQ148:AT149"/>
+    <mergeCell ref="A147:Q147"/>
+    <mergeCell ref="R147:AF147"/>
+    <mergeCell ref="AG148:AJ149"/>
+    <mergeCell ref="AL148:AO149"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A137:Q137"/>
+    <mergeCell ref="R137:AF137"/>
+    <mergeCell ref="AG138:AJ139"/>
+    <mergeCell ref="AL138:AO139"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A127:Q127"/>
+    <mergeCell ref="R127:AF127"/>
+    <mergeCell ref="AG128:AJ129"/>
+    <mergeCell ref="AL128:AO129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A117:Q117"/>
+    <mergeCell ref="R117:AF117"/>
+    <mergeCell ref="AG118:AJ119"/>
+    <mergeCell ref="AL118:AO119"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="R26:AF26"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="R35:AF35"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="R44:AF44"/>
     <mergeCell ref="AL8:AO11"/>
     <mergeCell ref="AI7:AK10"/>
     <mergeCell ref="AG108:AJ109"/>
@@ -12119,14 +15944,88 @@
     <mergeCell ref="A98:Q98"/>
     <mergeCell ref="R98:AF98"/>
     <mergeCell ref="A107:Q107"/>
-    <mergeCell ref="R26:AF26"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="R35:AF35"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="R44:AF44"/>
+    <mergeCell ref="R107:AF107"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="AG72:AJ73"/>
+    <mergeCell ref="AL72:AO73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A71:Q71"/>
+    <mergeCell ref="R71:AF71"/>
+    <mergeCell ref="A80:Q80"/>
+    <mergeCell ref="R80:AF80"/>
+    <mergeCell ref="AG81:AJ82"/>
+    <mergeCell ref="AL81:AO82"/>
+    <mergeCell ref="AL27:AO28"/>
+    <mergeCell ref="AL36:AO37"/>
+    <mergeCell ref="AL45:AO46"/>
+    <mergeCell ref="AL54:AO55"/>
+    <mergeCell ref="AG36:AJ37"/>
+    <mergeCell ref="AG45:AJ46"/>
+    <mergeCell ref="AG54:AJ55"/>
+    <mergeCell ref="AG27:AJ28"/>
+    <mergeCell ref="AL63:AO64"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="AG63:AJ64"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="R53:AF53"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="R62:AF62"/>
+    <mergeCell ref="V1:Y2"/>
+    <mergeCell ref="AA1:AD2"/>
+    <mergeCell ref="A19:AF19"/>
+    <mergeCell ref="A20:AF20"/>
+    <mergeCell ref="A21:AF21"/>
+    <mergeCell ref="A22:AF22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="AG19:AJ25"/>
+    <mergeCell ref="AL19:AO25"/>
+    <mergeCell ref="C23:AF23"/>
   </mergeCells>
   <conditionalFormatting sqref="AG14 AI14:AJ14 AG15:AJ18 AG26:AJ116 AG19">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG117:AJ126">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ118:AT119">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG127:AJ136">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ128:AT129">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG137:AJ146">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ138:AT139">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG147:AJ156">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ148:AT149">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
